--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>bibliografia_titulo</t>
   </si>
   <si>
+    <t>paginas</t>
+  </si>
+  <si>
     <t>pergunta</t>
   </si>
   <si>
@@ -43,28 +46,34 @@
     <t>Geopolítica da Rússia</t>
   </si>
   <si>
+    <t>150-500</t>
+  </si>
+  <si>
     <t>Relacione os conceitos geopolíticos com seus autores correspondentes.</t>
   </si>
   <si>
+    <t>["Heartland", "Eurasianismo", "Destino Manifesto Russo"]</t>
+  </si>
+  <si>
+    <t>["Mackinder", "Dugin", "March"]</t>
+  </si>
+  <si>
+    <t>{"0": "0", "1": "1", "2": "2"}</t>
+  </si>
+  <si>
+    <t>Cada conceito está corretamente associado ao pensador que o desenvolveu ou aplicou à Rússia.</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Associe os períodos históricos à principal característica geopolítica da Rússia.</t>
   </si>
   <si>
-    <t>["Heartland", "Eurasianismo", "Destino Manifesto Russo"]</t>
-  </si>
-  <si>
     <t>["Período Mongol", "Império dos Czares", "Era Soviética"]</t>
   </si>
   <si>
-    <t>["Mackinder", "Dugin", "March"]</t>
-  </si>
-  <si>
     <t>["Isolamento e medo de invasão", "Expansão territorial contínua", "Domínio sobre a Eurásia"]</t>
-  </si>
-  <si>
-    <t>{"0": "0", "1": "1", "2": "2"}</t>
-  </si>
-  <si>
-    <t>Cada conceito está corretamente associado ao pensador que o desenvolveu ou aplicou à Rússia.</t>
   </si>
   <si>
     <t>Cada era reflete uma fase distinta da construção da identidade e poder russo.</t>
@@ -73,8 +82,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,10 +95,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,34 +124,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,10 +190,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -186,69 +231,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -272,54 +319,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -329,7 +375,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -338,7 +384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -347,7 +393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -355,10 +401,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -387,7 +433,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -400,13 +446,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,18 +469,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -456,56 +515,65 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="I2" s="4">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>565</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4">
         <v>2024</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -43,7 +43,7 @@
     <t>ano_prova</t>
   </si>
   <si>
-    <t>Geopolítica da Rússia</t>
+    <t>Vingança da Geografia</t>
   </si>
   <si>
     <t>150-500</t>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -148,22 +154,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -479,15 +488,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -519,61 +528,61 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>565</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>2024</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>bibliografia_titulo</t>
   </si>
@@ -101,13 +101,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -154,12 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -167,9 +167,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -482,21 +479,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -528,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -561,28 +558,86 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
-        <v>565</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>565</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5">
         <v>2024</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="214">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -371,6 +371,24 @@
   </si>
   <si>
     <t xml:space="preserve">Princípios de Relações Internacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abordagens Alternativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abordagens Alternativas:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pós-modernismo", "Construtivismo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Significados ocultos no texto", "Identidades", "Análise de discurso", "Vozes marginalizadas", "Normas e práticas sociais", "Desordem", "Multiplicidade de significados/conceitos", "Cultura", "Abordagem comportamental", "Desconstrução de conceitos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"0": "0", "1": "1", "2": "1", "3": "0", "4": "1", "5": "0", "6": "0", "7": "1", "8": "0", "9": "0"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certos estudiosos das relações internacionais não se satisfazem com o uso de ferramentas como a História, a filosofia ou o behaviorismo. Os pós-modernistas, por exemplo, procuram desconstruir os conceitos básicos da área — tais como Estado, nação, racionalidade e realismo —, buscando nos textos (ou fontes) os significados ocultos sob a superfície, no subtexto. Uma vez desvelados esses significados ocultos, o pós-modernista procura substituir por desordem o quadro que antes se apresentava organizado, substituindo as dicotomias por uma multiplicidade de retratos.</t>
   </si>
   <si>
     <t xml:space="preserve">Cap I, III</t>
@@ -740,23 +758,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,26 +790,134 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="30:35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="44.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="86.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="70.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="78.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="42.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.58"/>
   </cols>
   <sheetData>
@@ -1296,338 +1422,327 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="H20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="H21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="H22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="H23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="H24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="H25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="H26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="B27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="H27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="0" t="s">
+      <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="H28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="H29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -1642,19 +1757,19 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -1663,25 +1778,25 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -1690,25 +1805,25 @@
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -1717,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>200</v>
@@ -1744,27 +1859,54 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="387">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -662,6 +662,525 @@
   </si>
   <si>
     <t xml:space="preserve">Chandragupta Máuria fundou o Império Máuria em 321 a.C.. Kautilya, seu conselheiro, escreveu o *Arthashastra*. Aurangzeb fracassou em subjugar os Maratha, o que enfraqueceu os Mogóis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 84/GM-MD 1º Vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 19 e 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos básicos de defesa e conflito às suas respectivas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Segurança Nacional", "Crise", "Conflito Armado"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Recurso utilizado por grupos politicamente organizados que empregam violência para impor sua vontade.", "Condição que permite ao país preservar sua soberania e integridade territorial, livre de pressões.", "Estado de tensão entre a paz e a guerra que exige gerenciamento para evitar agravamento."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Segurança Nacional visa preservar a soberania (item 2.1.1); a Crise é um conflito entre paz e guerra que exige manobra (item 2.1.4 e 2.2.2.1); o Conflito Armado envolve violência por grupos organizados (item 2.2.2.2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as situações de emprego das Forças Armadas às suas características descritas na doutrina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Situação de Guerra", "Situação de Normalidade", "Situação de Não-Normalidade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["O Estado mantém a ordem pública e as forças oponentes não ameaçam a estabilidade institucional.", "Ameaça à integridade nacional ou ordem pública que leva à intervenção federal, estado de defesa ou sítio.", "O Poder Militar é empregado explorando a plenitude de suas características de violência na Defesa da Pátria."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A situação de guerra implica o uso pleno da violência (item 2.1.8); Normalidade é quando as instituições funcionam e a ordem é mantida (item 2.2.1.1); Não-normalidade envolve ameaça grave e estados de exceção (item 2.2.1.2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 22, 23 e 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os níveis de planejamento da Concepção de Emprego Conjunto aos seus responsáveis e produtos principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Nível Político", "Nível Estratégico", "Nível Operacional", "Nível Tático"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ministério da Defesa e EMCFA elaboram a DMED e o PEECFA.", "Comandante Operacional elabora planos de campanha e intensifica a inteligência.", "Forças Componentes detalham planos para batalhas e engajamentos.", "Presidente da República emite a DPED."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"0": "3", "1": "0", "2": "1", "3": "2"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Nível Político é do CS/Presidente (item 2.4.1); o Estratégico é do MD/EMCFA com DMED/PEECFA (item 2.5.1); o Operacional é do Cmt Op (item 2.6.1); o Tático é das Forças Componentes (item 2.7.1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 24, 25 e 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as autoridades do Sistema de Defesa às suas competências específicas no emprego conjunto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Comandante Supremo (CS)", "Ministro da Defesa (Min Def)", "Chefe do EMCFA", "Comandantes de Força (Singulares)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Adjudicar meios aos Comandos Operacionais e aprovar planejamentos operacionais.", "Coordenar o planejamento dos C Op e propor diretrizes estratégicas baseadas nas Hipóteses de Emprego.", "Fornecer meios adjudicados e prestar apoio logístico aos Comandos Operacionais.", "Decidir sobre o emprego das FA e determinar a ativação de Comandos Operacionais."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O CS decide o emprego (item 2.8.1); o Min Def adjudica meios (item 2.8.2); o CEMCFA coordena e propõe planos (item 2.8.5); os Comandantes de Força fornecem os meios (item 2.8.4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 27, 28 e 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os documentos do ciclo de planejamento às suas definições e emissores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["DPED", "DMED", "DPEM"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Documento administrativo do CEMCFA que orienta a elaboração do PEECFA.", "Documento do Presidente da República com orientações políticas e decisão de ativação de comandos.", "Documento do Ministro da Defesa que determina a confecção ou atualização do PEECFA."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A DPED é do Presidente/CS (item 2.9.2); a DMED é do Ministro da Defesa (item 2.9.3); a DPEM é do CEMCFA (item 2.9.5.1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 21 e 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos de ativação de comandos e planejamento às suas especificidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Comando Operacional (Situação Repentina)", "PEECFA (Normalidade vs Crise)", "Gabinete de Crise"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Atualizado ou elaborado pelo EMCFA/CHOC mediante diretriz, coordenando o emprego conjunto.", "Composto pelo Comandante Supremo para assessoramento ao eclodir uma crise.", "Ativado com forças de pronto emprego quando o conflito não segue modelo convencional."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em conflitos repentinos, ativa-se um C Op com forças de pronto emprego (item 2.2.2.5); o PEECFA é gerido pelo EMCFA/CHOC (item 2.2.2.3); o Gabinete de Crise assessora o CS (item 2.2.2.4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. III - Operações Conjuntas das Forças Armadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de comandos e conceitos iniciais às suas características de ativação e permanência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Operações Conjuntas", "COMAE e ComDCiber", "Comandos Operacionais (Temporários)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["São ativados em casos de agravamento de crise ou concretização de Hipótese de Emprego.", "Caracterizam-se pelo emprego coordenado de elementos de mais de uma força singular com propósito comum.", "São exemplos de Comandos Operacionais Conjuntos permanentes."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Operações Conjuntas envolvem coordenação de mais de uma força (item 3.1.2); COMAE e ComDCiber são permanentes (item 3.1.4); os demais comandos são temporários e ativados em crises ou HE (item 3.1.4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 41 e 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as áreas de responsabilidade dos Comandos Operacionais às suas definições geográficas e táticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Teatro de Operações (TO)", "Área de Operações (A Op)", "Zona de Defesa (ZD)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Parte do território nacional (Zona do Interior) para ações de defesa territorial e aeroespacial.", "Espaço geográfico para operações que não justificam a criação de um TO.", "Parte do teatro de guerra para operações de grande vulto e apoio logístico."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O TO é para operações de grande vulto (item 3.3.3.1); A Op é para operações que não justificam um TO (item 3.3.4); ZD é parte da ZI para defesa territorial (item 3.3.5.1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 42 e 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os conceitos operacionais de zonas e objetivos aos seus significados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Zona de Administração (ZA)", "Estado Final Desejado (EFD)", "Dissimulação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Situação política ou militar a ser alcançada ao final das operações, indicando o efeito desejado.", "Medidas para iludir forças oponentes, como guerra eletrônica e desinformação.", "Área delimitada para instalações logísticas e de Comando e Controle, de difícil caracterização em TO marítimo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ZA contém a logística (item 3.3.3.3); o EFD é a situação final a ser alcançada (item 3.4.3); a Dissimulação visa iludir o oponente (item 3.4.10).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 43 e 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as ações específicas e relações de comando às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Comando Operacional vs Controle Operacional", "Assuntos Civis", "Ações Prévias à Ativação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Podem incluir Inteligência e Operações Especiais, autorizadas pelo Comandante Supremo e controladas pelo EMCFA.", "Distinção entre meios efetivamente adjudicados e meios atribuídos para missões ou tarefas específicas.", "Atividades planejadas para reduzir pontos de fricção entre a população civil e a força militar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distinção refere-se a meios adjudicados (Comando) vs tarefas específicas (Controle) (item 3.4.14); Assuntos Civis reduzem fricção com a população (item 3.4.7); Ações prévias (ex: Inteligência) ocorrem antes da ativação do comando (item 3.4.13).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. IV - Comando Operacional Conjunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de organização de forças às suas definições conceituais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Força Componente", "Força Conjunta", "Força-Tarefa"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Composta por elementos de mais de uma Força Armada, sob comando único.", "Organizada com comando próprio para cumprimento de missão específica, com objetivos e duração limitados no tempo.", "Força constituída de meios das Forças Singulares, adjudicados a um Comando Operacional."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Força Componente é constituída de meios adjudicados (item 4.1.3.1); Força Conjunta une elementos de mais de uma Força (item 4.1.3.2); Força-Tarefa tem missão e tempo limitados (item 4.1.3.3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 45 e 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as estruturas de organização de força às suas principais características e vantagens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Organização por Forças Componentes Singulares", "Organização por Forças Conjuntas Componentes"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Proporciona maior flexibilidade, distribuição balanceada de meios e sinergia de emprego nas três dimensões da guerra.", "Apresenta homogeneidade de relacionamento simples e permite conhecimento profundo dos meios subordinados."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"0": "1", "1": "0"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forças Singulares oferecem simplicidade e conhecimento profundo (item 4.1.4); Forças Conjuntas oferecem flexibilidade e sinergia, devendo ser priorizadas (item 4.1.5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os aspectos que devem ser observados pelo Comando Operacional Conjunto às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Coordenação", "Liberdade de Ação", "Flexibilidade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Capacidade de organizar os meios para atender às diferentes fases de um plano face aos óbices reinantes.", "Ação que visa ao entrosamento de setores para promover sinergia e evitar duplicidade.", "Capacidade de agir de maneira descentralizada e específica, mantendo as características de cada Força Componente."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenação visa entrosamento (item 4.2.3.a); Liberdade de Ação é agir descentralizado (item 4.2.3.b); Flexibilidade é adaptar-se a fases e óbices (item 4.2.3.c).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 48 e 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os Comandantes às suas atribuições específicas no contexto operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Comandante Operacional", "Comandante de Força Componente", "Comandante Logístico Componente"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Assessorar quanto ao emprego apropriado dos meios e zelar pela consciência situacional tática/técnica.", "Coordenar com o CCLM todo o fluxo logístico e gerenciar a Segurança de Área de Retaguarda.", "Sincronizar ações de forças diversas, aprovar a Lista de Necessidades Final e servir de interlocutor com o nível Político."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Cmt Op sincroniza e aprova a LNF (item 4.3.2 e 4.3.5); o Cmt F Cte assessora sobre meios e consciência situacional (item 4.4.1); o C Log Cte coordena com CCLM e SEGAR (item 4.5.1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. V - Estado-Maior Conjunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os códigos das seções do EMCj às suas respectivas designações funcionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["D-2", "D-5", "D-9"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Seção de Assuntos Civis.", "Seção de Inteligência.", "Seção de Planejamento."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.1.2**, D-2 corresponde à Inteligência, D-5 ao Planejamento e D-9 a Assuntos Civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 52 e 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os cargos e funções do EMCj às suas responsabilidades ou características específicas de coordenação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Chefe do EMCj", "Oficial de Ligação", "Seção do EMCj (Competência Geral)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Visa proporcionar melhor coordenação no apoio mútuo e reduzir a possibilidade de interferência entre Forças Componentes.", "Zelar pela observância dos aspectos doutrinários conjuntos e propor ajustes adequados.", "Coordenar as reuniões formais do C Op e supervisionar o cumprimento das normas emanadas pelo Cmt Op."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Chefe do EMCj coordena reuniões (item 5.3.1); Oficiais de Ligação reduzem interferências (item 5.1.4.4); Seções zelam pela doutrina (item 5.3.2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 55 e 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as Seções do EMCj às suas atribuições operacionais específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Seção de Operações (D-3)", "Seção de Comando e Controle (D-6)", "Seção de Logística (D-4)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Planejar atividades de Guerra Eletrônica e gerenciar a matriz de processamento da informação.", "Estabelecer níveis mínimos de estoque e normas para material salvado ou capturado.", "Propor Regras de Engajamento e ativar a Subseção de Guerra Cibernética."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-3 propõe regras de engajamento (item 5.3.5); D-6 planeja Guerra Eletrônica (item 5.3.8); D-4 estabelece níveis de estoque (item 5.3.6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 56 a 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as Seções de assessoramento especial às suas funções detalhadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Seção de Planejamento (D-5)", "Seção de Comunicação Social (D-7)", "Seção de Operações de Informação (D-8)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Considerar atividades dentro da abordagem das comunicações estratégicas e analisar o ambiente informacional.", "Realizar o Gerenciamento do Risco Operacional (GRO) e visualizar o desenho operacional.", "Orientar, coordenar e controlar a atuação da mídia nos aspectos que interfiram nas operações."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-5 realiza o GRO (item 5.3.7); D-7 controla a mídia (item 5.3.9); D-8 foca em comunicações estratégicas (item 5.3.10).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 54 e 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as seções D-2, D-9 e D-10 às suas atribuições de análise e gestão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Seção de Inteligência (D-2)", "Seção de Assuntos Civis (D-9)", "Seção de Administração Financeira (D-10)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Verificar serviços públicos e infraestruturas críticas a serem preservados no TO.", "Realizar a programação orçamentária e financeira no âmbito do C Op.", "Levantar pontos sensíveis, sistemas de alvos e manter atualizada a ordem de batalha do inimigo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-2 levanta alvos e ordem de batalha (item 5.3.4); D-9 verifica infraestruturas críticas (item 5.3.11); D-10 realiza programação financeira (item 5.3.12).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. VII - Comando de Zona de Defesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os elementos da estrutura da Zona de Defesa às suas respectivas missões e competências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["FNZD (Força Naval)", "FTZD (Força Terrestre)", "CLZD (Comando Logístico)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Responsável pela logística integrada das operações: suprimentos, transporte, manutenção e saúde.", "Responsável pelos meios navais, atuando em patrulha, interdição marítima e busca e salvamento.", "Controla os meios do Exército, atuando na defesa de instalações e controle de áreas sensíveis."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme descrito na **Estrutura da Zona de Defesa (Item 7.3)**: FNZD cuida dos meios navais/patrulha; FTZD controla meios do Exército/defesa de instalações; e CLZD cuida da logística integrada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 67, 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos fundamentais da Zona de Defesa com as definições apresentadas na doutrina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Defesa Territorial", "Comando da Zona de Defesa (Cmdo ZD)", "Zona do Interior (ZI)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Local onde se realiza a obtenção de recursos materiais e humanos essenciais à campanha.", "Comando Operacional destinado a realizar, na área sob sua responsabilidade, as operações necessárias à defesa do território.", "Conjunto de medidas no território nacional, excluídas as dos TO e do COMAE, visando à proteção contra agressões."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A **ZI** é o local de obtenção de recursos (7.1.1); a **Defesa Territorial** é o conjunto de medidas de proteção excluindo TO/COMAE (7.2.1); e o **Cmdo ZD** é o comando operacional responsável pela defesa na área (7.2.2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os aspectos estratégicos do estabelecimento de uma Zona de Defesa (Vantagens, Desvantagens e Condicionantes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Vantagem do estabelecimento", "Desvantagem do estabelecimento", "Condicionante para a decisão"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["A praticidade da implementação e a abrangência da área a ser protegida.", "A unidade de comando e o maior nível de segurança dentro da ZI.", "A divisão ou dispersão de esforços pelas Forças Singulares."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As **vantagens** incluem unidade de comando e segurança (7.1.5); as **desvantagens** incluem divisão de esforços (7.1.6); e as **condicionantes** incluem a praticidade e abrangência (7.1.4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. VIII - Comando de Defesa Cibernética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as siglas e conceitos às suas respectivas definições e atribuições no contexto da defesa cibernética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["ComDCiber", "SMDC", "PEECFA"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Instrumentos de planejamento estratégico nos quais o ComDCiber participa da elaboração.", "Comando Operacional Conjunto, permanentemente ativado, pertencente à estrutura do Exército Brasileiro.", "Conjunto de instalações, doutrina, procedimentos e pessoal essenciais para assegurar o uso do espaço cibernético."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O item 8.1.1 define o ComDCiber como Comando Operacional Conjunto da estrutura do Exército; o item 8.1.4 define o SMDC como o conjunto de meios e doutrina; e o item 8.1.2 cita a participação na elaboração dos PEECFA,,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os aspectos operacionais do ComDCiber às suas características descritas na doutrina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Missão Principal", "Capacidade Organizacional", "Função em Operações"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exercer funções de Estado-Maior e ceder pessoal para mobiliar estruturas de outros Comandos Operacionais.", "Planejar, orientar, coordenar, integrar e executar atividades de capacidades cibernéticas.", "Capacidade interagências, atuando como órgão central do Sistema Militar de Defesa Cibernética."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missão de planejar e executar capacidades cibernéticas está no item 8.1.1; a capacidade interagências e papel de órgão central também no 8.1.1; as funções de Estado-Maior e cessão de pessoal estão no item 8.1.2,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. X - Logística e Mobilização nas Operações Conjuntas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os Grupos Funcionais do Centro de Coordenação Civil-Militar (C³M) às suas respectivas competências de ligação e coordenação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Grupo de Assuntos de Governo", "Grupo de Assuntos de Não-Governo", "Grupo de Assuntos Jurídicos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Realizar a ligação com encarregados de ONG, nacionais e internacionais, que atuam na área de responsabilidade.", "Realizar a ligação com as autoridades judiciárias e da polícia judiciária na área de responsabilidade.", "Realizar a ligação com autoridades do executivo e legislativo nas esferas federal, estadual e municipal."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os itens 10.5.12.5.1 (Governo/Executivo e Legislativo), 10.5.12.5.2 (Não-Governo/ONGs) e 10.5.12.5.3 (Jurídico/Judiciário e Polícia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 137, 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os grupos de mobilização e meio ambiente às suas tarefas específicas de assessoramento e cadastro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Grupo de Mobilização de Recursos Logísticos", "Grupo de Mobilização de Recursos Humanos", "Grupo de Meio Ambiente"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Assessorar sobre controle de zoonoses e mitigação de impactos ambientais.", "Coordenar junto ao SINAMOB a mobilização de materiais e serviços na área da ARP.", "Manter cadastro de pessoal passível de convocação e banco de talentos de interesse para operações."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Grupo Logístico coordena com o SINAMOB (10.5.12.5.4); o Grupo de RH foca em convocação e talentos (10.5.12.5.5); o Grupo de Meio Ambiente trata de zoonoses e impactos (10.5.12.5.6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 135, 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as entidades e funções da estrutura do C³M com suas definições e atribuições principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Centro de Coordenação Civil-Militar (C³M)", "Chefe do C³M", "Estrutura Organizacional do C³M"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Responsável por propor ao CCOL assuntos para o Plano de Operações Logísticas e assessorar quanto à mobilização.", "Seção responsável pela coordenação do relacionamento com autoridades civis, ONGs e empresas.", "Organizada em grupos funcionais para facilitar o gerenciamento das atividades."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O C³M é a seção de coordenação (10.5.12.1); o Chefe do C³M propõe planejamentos e assessora (10.5.12.4); a estrutura é organizada em grupos funcionais (10.5.12.5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. XI - Comando e Controle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os termos fundamentais de Comando e Controle às suas definições conceituais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Procedimento", "Processo", "Ciclo de C2"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Aplicação eficaz da capacidade de observar, orientar-se, decidir e agir.", "Maneira particular de se obter um objetivo específico.", "Conjunto de procedimentos encadeados de forma a se atingir uma meta desejada."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 11.1.3, procedimento é uma maneira particular de obter um objetivo e processo é um conjunto encadeado; o item 11.2.1 associa o Ciclo de C2 à capacidade de observar, orientar, decidir e agir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os níveis de autoridade (Relações de Comando) às suas respectivas atribuições e limites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Comando Operacional", "Controle Operacional", "Controle Tático"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Autoridade para direção de movimentos e manobras na área de operações, sem autoridade administrativa.", "Autoridade para adjudicar meios, organizar forças e atribuir missões.", "Autoridade para atribuir tarefas em missões específicas, sem controle logístico ou administrativo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o item 11.3.2: O Comando Operacional adjudica meios e organiza forças (a); O Controle Operacional foca em missões específicas sem logística (b); O Controle Tático dirige movimentos e manobras (d).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os sistemas e redes de apoio à decisão com suas características principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["SIPLOM", "SISCOMIS", "ROD"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Meio principal de enlaces que compõe a base física do SISMC² (espacial e terrestre).", "Sistema de apoio à decisão que permite jogos de guerra e confronto de Linhas de Ação.", "Segmento espacial que provê banda X e Ku através de satélites."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O item 11.6.3.1 define a ROD como a base física e o SISCOMIS como o segmento espacial de banda X/Ku; o item 11.6.3.5 (2) descreve o SIPLOM como sistema de apoio à decisão e jogo de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. XIV - As Operações de Informação nas Operações Conjuntas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os atores presentes no Teatro de Operações às suas características ou impactos na dimensão informacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Organizações Não Governamentais (ONGs)", "Empresas Privadas", "Entidades operando na legalidade (involuntárias)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Podem beneficiar ou sustentar ações das forças oponentes de modo não intencional.", "Dedicadas à ajuda humanitária.", "Possuem influência na economia local."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As ONGs são descritas como dedicadas à ajuda humanitária; as empresas privadas têm influência na economia local; e entidades legais podem, involuntariamente, beneficiar forças oponentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos e atividades relacionados à interação civil-militar e comunicação estratégica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Comunicação Estratégica (Com Estrt)", "Assuntos Civis", "Engajamento das Op Info"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Atividade com foco especial na cooperação e coordenação civil-militar.", "Definido pela oportunidade, qualidade e volume durante o exame de situação.", "Abordagem conjunta de governo para comunicar temas harmonizados com a estratégia nacional."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Com Estrt é uma abordagem de governo harmonizada com a estratégia nacional; a atividade de Assuntos Civis foca na cooperação civil-militar; e o engajamento das Op Info é definido no exame de situação,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os níveis de decisão e processos às suas funções ou alcances na Comunicação Estratégica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Nível de decisão político", "Processos interagências", "Nível tático"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pautados por integração, coordenação e sincronização de esforços.", "Esfera até onde a execução da Com Estrt pode alcançar regulações.", "Esfera onde o esforço de Com Estrt é condicionado."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O esforço de Com Estrt é condicionado no nível político; os processos interagências visam integração e sincronização; e a execução pode alcançar regulações até o nível tático,.</t>
   </si>
 </sst>
 </file>
@@ -901,10 +1420,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="70:72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1422,7 +1941,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -1907,6 +2426,1014 @@
         <v>213</v>
       </c>
       <c r="J36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="875">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -1181,6 +1181,1470 @@
   </si>
   <si>
     <t xml:space="preserve">O esforço de Com Estrt é condicionado no nível político; os processos interagências visam integração e sincronização; e a execução pode alcançar regulações até o nível tático,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 42.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 1 e 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feridos, Enfermos e Náufragos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os artigos das disposições gerais às suas respectivas aplicações e escopos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Artigo 1º", "Artigo 2º", "Artigo 3º"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Aplica-se a casos de conflito armado sem caráter internacional ocorridos no território de uma das Partes.", "Compromisso de respeitar a Convenção em todas as circunstâncias.", "Aplica-se em caso de guerra declarada, ocupação total ou parcial, mesmo sem resistência militar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 1º estabelece o compromisso geral; o Art. 2º define a aplicação em guerras e ocupações; o Art. 3º trata dos conflitos sem caráter internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as categorias de pessoas protegidas (Art. 13) às condições específicas para sua inclusão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Membros de milícias e corpos voluntários", "População de território não ocupado", "Pessoal que acompanha as forças armadas (ex: correspondentes)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Devem ter recebido autorização das forças armadas que acompanham.", "Devem preencher 4 condições: comando responsável, emblema fixo, armas ostensivas e respeito às leis da guerra.", "Pegam em armas espontaneamente ao se aproximar o inimigo (Levantamento em massa)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milícias exigem 4 condições (Art. 13, item 2); a população espontânea é protegida se portar armas ostensivamente e respeitar leis da guerra (Art. 13, item 6); civis acompanhantes precisam de autorização (Art. 13, item 4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as situações do Art. 22 com a manutenção da proteção das unidades sanitárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pessoal armado", "Presença de armas portáteis e munições", "Extensão da atividade a civis"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Recolhidas dos feridos e ainda não entregues ao serviço competente.", "Assistência humanitária prestada a civis feridos ou enfermos não priva a unidade de proteção.", "Uso de armas para defesa própria ou dos feridos e enfermos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 22 lista fatos que não privam a unidade de proteção: defesa própria (item 1), armas recolhidas (item 3) e atendimento a civis (item 5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 4 e 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione o tipo de pessoal sanitário ao seu estatuto em caso de captura pelo inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pessoal Sanitário Permanente (Art. 24 e 26)", "Pessoal Sanitário Auxiliar (Art. 25)", "Pessoal de Sociedade Neutra (Art. 27 e 32)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Não podem ser retidos; devem ser autorizados a voltar ao seu país salvo acordo em contrário.", "Não serão considerados prisioneiros de guerra, mas 'pessoal retido' para tratar prisioneiros.", "Serão considerados prisioneiros de guerra, empregados em missões sanitárias se necessário."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pessoal permanente (Art. 24/26) é 'retido' e não PRISIONEIRO (Art. 28); auxiliares (Art. 25) tornam-se prisioneiros de guerra (Art. 29); pessoal neutro (Art. 27) não pode ser retido (Art. 32).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe o destino dos materiais e edifícios sanitários após caírem em poder do adversário (Cap. V).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Material dos corpos sanitários móveis (Art. 33)", "Edifícios e material fixo (Art. 33)", "Bens das sociedades de socorro (Art. 34)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Submetidos às leis de guerra, mas não podem ser desviados do uso enquanto necessários aos feridos.", "Considerados propriedade privada; direito de requisição apenas em caso de necessidade urgente.", "Continuará a ser reservado para os feridos e enfermos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material móvel continua reservado aos feridos; fixos seguem leis de guerra sem desvio de finalidade; bens de sociedades são propriedade privada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as regras para aeronaves sanitárias (Art. 36 e 37) às situações de voo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sobrevoo de território inimigo", "Aterrissagem fortuita em território inimigo", "Sobrevoo de território neutro"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Feridos e tripulação serão tratados como prisioneiros de guerra.", "Permitido com notificação prévia; devem obedecer a intimações para aterrissar.", "Proibido, salvo acordo em contrário."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrevoo inimigo é proibido sem acordo (Art. 36); aterrissagem fortuita em área inimiga leva à captura (Art. 36); sobrevoo neutro exige notificação (Art. 37).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 9 e 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os elementos de identificação (Cap. VII) às suas descrições corretas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Emblema da Cruz Vermelha", "Braçadeira do Pessoal Auxiliar (Art. 41)", "Emblemas Excepcionais (Art. 38)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Crescente Vermelho ou Leão e Sol Vermelho sobre fundo branco.", "Homenagem à Suíça com inversão das cores federais.", "Branca com emblema distintivo de dimensões reduzidas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruz Vermelha é homenagem à Suíça (Art. 38); pessoal auxiliar usa emblema reduzido (Art. 41); outros países usam Crescente ou Leão e Sol (Art. 38).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 849/1993 – Protocolo I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocolo I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os atos listados com a sua classificação jurídica correta (Perfídia ou Estratagema) conforme o Artigo 37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Perfídia", "Estratagema"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Atos que visam induzir o adversário em erro, como camuflagem e operações simuladas, sem infringir o Direito Internacional.", "Atos que apelam à boa-fé do adversário com intenção de traí-lo, como simular intenção de negociar sob bandeira de armistício."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o Artigo 37, a perfídia envolve trair a boa-fé (ex: simular rendição), enquanto estratagemas são atos lícitos de engodo (ex: camuflagem) que não violam normas internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 6, 8, 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as categorias de pessoas às suas definições e direitos específicos quanto ao estatuto de prisioneiro de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Combatente", "Espião", "Mercenário"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pessoa recrutada para combater motivada por ganho pessoal, sem direito ao estatuto de combatente ou prisioneiro de guerra.", "Membro das Forças Armadas que, agindo clandestinamente ou sob falsos pretextos, recolhe informações em território adversário.", "Membro das Forças Armadas de uma Parte em conflito com direito a participar diretamente das hostilidades e ser prisioneiro de guerra."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Combatente tem direito a participar e ser prisioneiro de guerra (Art. 43); o Espião age clandestinamente e perde esse direito se capturado no ato (Art. 46); o Mercenário busca lucro e não tem estatuto de combatente (Art. 47).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os termos relativos à proteção da população civil com suas descrições no Protocolo I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ataques indiscriminados", "Escudos humanos", "Represália contra civis"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ataques proibidos dirigidos contra a população civil como forma de vingança ou retaliação.", "Uso da presença de civis para tentar proteger objetivos militares de ataques.", "Ataques que não são dirigidos a um objetivo militar específico ou empregam meios cujos efeitos não podem ser limitados."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataques indiscriminados atingem indistintamente militares e civis (Art. 51, §4); Escudos humanos referem-se ao uso de civis para cobrir objetivos militares (Art. 51, §7); Represálias contra civis são proibidas (Art. 51, §6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 12, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os objetos protegidos especificamente mencionados no Título IV aos exemplos citados no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bens indispensáveis à sobrevivência", "Obras contendo forças perigosas", "Meio ambiente natural"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Proteção contra danos extensos, duradouros e graves que comprometam a saúde ou sobrevivência da população.", "Gêneros alimentícios, zonas agrícolas, colheitas, gado e instalações de água potável.", "Diques, represas e centrais nucleares de energia elétrica."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os bens indispensáveis incluem alimentos e água (Art. 54); obras perigosas são diques e centrais nucleares (Art. 56); o meio ambiente é protegido contra danos duradouros (Art. 55).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 15, 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferencie as zonas sob proteção especial de acordo com suas características de estabelecimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Localidade não defendida", "Zona desmilitarizada"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Zona onde as operações militares são proibidas mediante acordo expresso (verbal ou escrito) entre as Partes.", "Lugar habitado próximo à zona de contato, aberto à ocupação adversa e sem presença de combatentes ou uso hostil."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localidades não defendidas podem ser declaradas unilateralmente se abertas à ocupação e sem defesa (Art. 59); Zonas desmilitarizadas requerem acordo mútuo para proibir operações militares (Art. 60).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as situações descritas no Artigo 41 com a definição de uma pessoa 'fora de combate'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Rendição", "Incapacidade", "Poder da Parte adversa"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estar inconsciente ou ferido de tal forma que seja incapaz de defender-se.", "Estar sob o controle físico de uma força inimiga.", "Expressar claramente a intenção de cessar a resistência."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma pessoa está fora de combate se expressa intenção de render-se, se está incapacitada por ferimentos/doença, ou se já está em poder da Parte adversa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos fundamentais sobre bens de caráter civil e objetivos militares conforme o Artigo 52.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bens de caráter civil", "Objetivos militares", "Presunção de uso civil"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Objetos que, por natureza ou uso, contribuem para a ação militar e cuja destruição oferece vantagem militar definida.", "Regra aplicada em caso de dúvida sobre se um bem (ex: escola, casa) está sendo usado para fins militares.", "Todos os bens que não são objetivos militares."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens civis são definidos por exclusão (o que não é militar); Objetivos militares são definidos pela contribuição à ação e vantagem na destruição; A dúvida favorece a presunção de caráter civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 849/1993 – Protocolo II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art. 1 e 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocolo II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos fundamentais sobre o campo de aplicação e a soberania no Protocolo II.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Conflito Armado (Protocolo II)", "Tensões Internas", "Não-intervenção"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Motins, atos esporádicos de violência e outros atos análogos que não são considerados conflitos armados.", "Princípio que proíbe invocar o Protocolo para atingir a soberania ou intervir nos assuntos do Estado.", "Ocorre entre Forças Armadas e grupos dissidentes organizados que exercem controle territorial sob comando responsável."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os Artigos 1 e 3: O Protocolo aplica-se a conflitos com grupos organizados e controle territorial; tensões internas como motins são excluídas; o Protocolo não justifica intervenção na soberania estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art. 13, 14 e 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os objetos e pessoas protegidos às suas regras específicas de proteção no Título IV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["População Civil", "Bens indispensáveis à sobrevivência", "Obras com forças perigosas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Represas, diques e centrais nucleares que não devem ser atacados se puderem liberar forças e causar perdas severas.", "Gozam de proteção geral contra perigos militares, salvo se participarem diretamente das hostilidades.", "Gêneros alimentícios, zonas agrícolas e reservas de água que não podem ser destruídos para causar fome."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A população civil é protegida salvo participação direta; bens indispensáveis (comida/água) não podem ser atacados para causar fome; obras perigosas (represas/usinas) são protegidas contra liberação de forças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art. 12, 16 e 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as proibições e obrigações específicas listadas nos artigos 12, 16 e 17.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Deslocamento Forçado", "Emblema Distintivo", "Bens Culturais"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Símbolo (ex: Cruz Vermelha) que deve ser respeitado e ostentado por pessoal e meios de transporte sanitários.", "Monumentos e lugares de culto que não podem ser objeto de hostilidade ou usados em apoio militar.", "Proibido ordenar o deslocamento de civis, a não ser por segurança deles ou razões militares imperiosas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deslocamentos são proibidos salvo por segurança ou razões imperiosas; o emblema deve ser respeitado e controlado; bens culturais e locais de culto não podem ser usados para esforço militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art. 14 e 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as disposições sobre socorro e métodos de combate proibidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sociedades de Socorro", "Ações de Socorro", "Fome como método de combate"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Organização de ajuda humanitária e imparcial para população padecendo privações extremas, mediante consentimento.", "Tática proibida que envolve atacar, destruir ou inutilizar bens indispensáveis à sobrevivência.", "Organizações (como a Cruz Vermelha) que podem oferecer serviços para desempenho de funções tradicionais."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociedades de socorro podem oferecer serviços tradicionais; ações de socorro são para populações em privação extrema; usar a fome contra civis é proibido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Remo Manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte I: Disposições Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os documentos e eventos históricos ao seu papel no desenvolvimento do direito dos conflitos armados no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Manual de Oxford (1913)", "Plano de Ação de Madri (1988)", "Manual de San Remo (1994)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Foi adotado em Livorno após uma série de mesas-redondas anuais convocadas pelo Instituto Internacional de Direito Humanitário.", "Considerado o equivalente histórico moderno cujas normas precisavam de atualização.", "Estabeleceu o projeto para redigir uma atualização contemporânea do direito, com apoio do CICV."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manual de Oxford é citado como o antecedente histórico (equivalente) ao de San Remo. O Plano de Ação foi desenvolvido em Madri em 1988 para guiar a redação. O Manual de San Remo foi finalmente adotado em Livorno em 1994.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 1 e 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os princípios e cláusulas às suas definições ou aplicações no contexto do Manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Cláusula Martens (adaptação)", "Princípio da Proporcionalidade", "Direito Internacional Humanitário"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exige que a condução das hostilidades não exceda o grau e tipo de força necessários para repelir um ataque e restaurar a segurança.", "Regras internacionais que limitam o direito das partes de escolher métodos de guerra ou protegem pessoas e bens afetados.", "Determina que, em casos não previstos, civis e combatentes permanecem sob a proteção dos princípios de humanidade e ditames da consciência pública."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adaptação da Cláusula Martens (parágrafo 2) cobre casos não previstos. A proporcionalidade (junto com a necessidade) limita o grau de força ao necessário para repelir ataques. O DIH é definido como as regras que limitam métodos de guerra e protegem não combatentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as ações do Conselho de Segurança da ONU às suas consequências para os Estados neutros e partes do conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Identificação de agressor (Cap. VII)", "Aplicação de medidas econômicas preventivas", "Autorização para uso da força"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estados não podem invocar o direito de neutralidade para justificar condutas incompatíveis com suas obrigações da Carta.", "As regras de DIH aplicam-se a todas as partes do conflito resultante, sem prejuízo da identificação do agressor.", "Estados neutros são obrigados a não prestar assistência ao Estado responsável, exceto ajuda humanitária."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o CS identifica um agressor, neutros não podem assisti-lo (exceto humanitariamente). Medidas econômicas impedem a invocação da neutralidade para justificar descumprimento. Se o uso da força é autorizado, o DIH aplica-se igualmente a todas as partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os tipos de embarcações às suas definições específicas conforme a Seção V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navio de guerra", "Navio auxiliar", "Navio mercante"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Embarcação que não é militar, auxiliar ou estatal, engajada em serviço comercial ou privado.", "Embarcação governamental não comercial, pertencente ou sob controle das forças armadas, que não seja um navio de guerra.", "Navio sob comando de oficial comissionado, tripulado por guarnição sujeita à disciplina militar e com marcas externas distintivas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio de guerra possui comando comissionado, disciplina militar e marcas externas. O navio auxiliar é governamental não comercial e ligado às forças armadas, mas não é de guerra. O navio mercante é privado/comercial e não se enquadra nas categorias militares ou estatais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os termos operacionais às suas definições corretas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ataque", "Danos Colaterais", "Aeronave médica"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Perda de vidas ou destruição de objetos que não constituem objetivos militares, ocorrendo incidentalmente.", "Aeronave protegida pelas Convenções de Genebra de 1949 e pelo Protocolo Adicional I de 1977.", "Um ato de violência, seja ofensivo ou defensivo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataque é definido como ato de violência ofensivo ou defensivo. Danos colaterais referem-se a perdas ou danos a civis/objetos civis que não são objetivos militares. Aeronave médica é aquela protegida pelas Convenções de Genebra e Protocolo I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte II: Regiões de Operações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos sobre águas neutras às suas regras e definições específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ações hostis em águas neutras", "Regra das 24 horas", "Espaço aéreo neutro"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Limite máximo de permanência para navios beligerantes em águas neutras, salvo danos ou clima.", "Consiste no espaço sobre as águas neutras e sobre o território terrestre de Estados neutros.", "Incluem ataque, captura, colocação de minas ou busca, sendo proibidas nessas áreas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ações hostis são definidas e proibidas nos parágrafos 15 e 16. A regra de permanência de 24 horas está no parágrafo 21. A definição de espaço aéreo neutro consta no parágrafo 14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 6 e 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as regras de passagem em estreitos e águas arquipelágicas às suas características operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Passagem em trânsito", "Medidas defensivas durante a passagem", "Direito de passagem inocente"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Incluem lançamento de aeronaves e navegação em formação ('screen formation'), mas vedam operações ofensivas.", "Não pode ser suspenso em certos estreitos internacionais, mesmo em tempo de conflito armado.", "Não pode ser suspenso, dificultado ou impedido por Estados neutros, aplicando-se também em tempos de conflito."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de passagem em trânsito não pode ser impedido (parágrafo 29). Medidas defensivas como formação de proteção são permitidas durante o trânsito (parágrafo 30). A passagem inocente não passível de suspensão é garantida no parágrafo 33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as situações de violação e operações em zonas específicas às condutas prescritas pelo Manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Violação da neutralidade por beligerante", "Operações na ZEE neutra", "Aeronave beligerante em espaço aéreo neutro"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["O Estado neutro deve exigir o pouso e internar a aeronave e tripulação pela duração do conflito.", "Permite ao beligerante oponente usar a força estritamente necessária se o Estado neutro não puser fim à violação.", "Exigem 'devida consideração' pelos direitos de exploração e deveres do Estado costeiro."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A resposta à violação de neutralidade (uso da força pelo oponente) está no parágrafo 22. As regras para operações na ZEE ("devida consideração") estão no parágrafo 34. A regra de internamento de aeronaves está no parágrafo 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as atividades específicas em alto-mar e na plataforma continental às restrições impostas aos beligerantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Minagem na ZEE de Estado neutro", "Cabos e oleodutos no leito marinho", "Exploração de recursos no Alto-mar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["As ações hostis devem ter a devida consideração pelo exercício desses direitos pelos Estados neutros.", "Exige notificação prévia e garantia de que não perigará ilhas artificiais ou estruturas.", "Beligerantes devem evitar danos àqueles que não sirvam exclusivamente a um dos beligerantes."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minagem na ZEE exige notificação e cuidado com estruturas (parágrafo 35). Cabos e oleodutos devem ser poupados se não forem de uso exclusivo beligerante (parágrafo 37). Ações em alto-mar exigem consideração pela exploração de recursos por neutros (parágrafo 36).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte III: Regras Básicas e Discriminação do Alvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos fundamentais sobre regras básicas e precauções às suas definições correspondentes no Manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Objetivo Militar", "Ataque Indiscriminado", "Proteção Ambiental"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Métodos ou meios de guerra que não são, ou não podem ser, dirigidos contra um objetivo militar específico.", "Danos ou destruição ao meio ambiente natural não justificados por necessidade militar e realizados de forma arbitrária.", "Objetos que, por natureza, localização, finalidade ou utilização, contribuam efetivamente para a ação militar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo militar é definido no parágrafo 40; o ataque indiscriminado é proibido no parágrafo 42(b)(i); a proteção ambiental e proibição de danos arbitrários consta no parágrafo 44.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as classes de navios isentos de ataque às condições ou características específicas descritas na Seção III.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navios de Cartel", "Navios-Hospital", "Pequenas embarcações de pesca"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Embora isentos, estão sujeitos às regulamentações do comandante naval beligerante que opere na área e à inspeção.", "Sua isenção cessa apenas após aviso prévio não atendido e decurso de prazo razoável.", "Navios designados e empregados no transporte de prisioneiros de guerra."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios de cartel transportam prisioneiros (parágrafo 47(c)(i)); a perda de isenção de navios-hospital exige aviso prévio (parágrafo 49); barcos de pesca estão sujeitos a regulamentações locais (parágrafo 47(g)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as atividades que tornam navios mercantes inimigos objetivos militares às suas descrições práticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Atuar como auxiliar", "Atos de beligerância", "Incorporação à inteligência"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Realizar reconhecimento, alerta antecipado, vigilância ou missões de comando e controle.", "Transportar tropas ou reabastecer navios de guerra.", "Lançar minas, fazer varredura de minas ou atacar outros navios mercantes."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuar como auxiliar envolve transporte/reabastecimento (parágrafo 60(b)); atos de beligerância incluem minagem/ataque (parágrafo 60(a)); inteligência envolve reconhecimento/vigilância (parágrafo 60(c)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as situações envolvendo navios mercantes neutros e aeronaves civis inimigas às regras de engajamento aplicáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navio mercante neutro armado", "Aeronave civil inimiga como alvo", "Navio mercante neutro transportando contrabando"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pode ser atacado se, após aviso, recusar intencional e claramente parar ou resistir à visita.", "Só pode ser atacada se atender à definição de objetivo militar e realizar atividades como transmitir dados de mira.", "O simples fato de possuir armamento não constitui fundamento para atacá-lo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O armamento em navio neutro não justifica ataque (parágrafo 69); aeronaves civis inimigas tornam-se alvo se fornecerem dados de mira (parágrafo 63(a)); navios neutros com contrabando são atacáveis se resistirem à captura (parágrafo 67(a)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os procedimentos de segurança para aeronaves civis (Seção VI) às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["NOTAM (Aviso aos Aeronavegantes)", "Plano de Voo", "Controle de Tráfego Aéreo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Autoridade cuja permissão é necessária para desvio de rota, salvo em emergências.", "Deve conter informações sobre áreas de perigo, frequências de escuta e procedimentos de identificação.", "Deve ser registrado com informações completas sobre carga, passageiros e códigos de identificação."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O NOTAM avisa sobre áreas perigosas (parágrafo 75); o plano de voo contém detalhes da aeronave/carga (parágrafo 76); o Controle de Tráfego autoriza desvios (parágrafo 76).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte IV: Métodos e meios de Guerra no Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de armamentos navais às restrições específicas de uso impostas pela Seção I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Torpedos", "Minas", "Mísseis"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Devem ser utilizados em conformidade com os princípios de discriminação de alvos.", "Proibido o uso em águas neutras pelo beligerante.", "Proibido o uso daqueles que não afundem ou se tornem inofensivos ao final do percurso."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torpedos devem se tornar inofensivos (parágrafo 79). Minas são proibidas em águas neutras (parágrafo 86). Mísseis exigem discriminação de alvos (parágrafo 78).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os requisitos legais do Bloqueio Naval às suas respectivas definições ou condições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Efetividade", "Imparcialidade", "Proibição do Bloqueio"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ocorre se o único objetivo for causar fome à população civil ou se o dano for excessivo.", "É uma questão de fato, exigindo força suficiente para manter o bloqueio.", "Deve ser aplicado aos navios de todos os Estados."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A efetividade é questão de fato (parágrafo 95). A imparcialidade exige aplicação a todos os Estados (parágrafo 100). O bloqueio é proibido se visar a fome ou causar dano excessivo (parágrafo 102).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as regras sobre Zonas e Assistência às suas descrições operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estabelecimento de Zonas", "Passagem de Suprimentos", "Remoção de Minas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Beligerante deve permitir passagem de itens médicos para civis ou feridos.", "Obrigação das partes após a cessação das hostilidades ativas.", "O mesmo corpo jurídico aplica-se dentro e fora, e a medida não deve exceder a necessidade militar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regras de Zonas exigem o mesmo direito dentro e fora (parágrafo 106). Passagem de suprimentos médicos é obrigatória (parágrafo 104). Remoção de minas ocorre após hostilidades (parágrafo 90).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos de Enganação e Perfídia às condutas permitidas ou proibidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Aeronaves Militares", "Estratagemas de Guerra", "Perfídia"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["São permitidos, desde que não violem regras de direito internacional ou abusem de status protegido.", "Atos que buscam trair a confiança do adversário fingindo status protegido (ex: sinal de socorro).", "Proibidas, em qualquer circunstância, de fingir status isento, civil ou neutro."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeronaves militares não podem fingir status civil (parágrafo 109). Estratagemas são permitidos (parágrafo 110). Perfídia envolve traição de confiança e é proibida (parágrafo 111).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte V: Medidas curtas de ataque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os critérios de determinação do caráter de navios e aeronaves às suas implicações jurídicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bandeira de Estado Inimigo", "Bandeira de Estado Neutro", "Suspeita de Caráter Inimigo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Autoriza o comandante a exercer o direito de visita e busca, inclusive desvio.", "Constitui prova conclusiva de seu caráter inimigo.", "Constitui prova prima facie de seu caráter neutro."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bandeira inimiga é prova conclusiva (parágrafo 112); a bandeira neutra é prova prima facie (parágrafo 113); a suspeita autoriza visita e busca (parágrafo 114).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 17 e 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as situações de exceção e alternativas à visita e busca de navios mercantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navio sob comboio neutro", "Desvio de rota", "Certificação de carga"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Medida alternativa quando a visita e busca no mar forem impossíveis ou inseguras.", "Medida de supervisão para evitar a necessidade de visita e busca física.", "Isento de visita se cumpridas condições como garantia do comandante do navio de guerra escolta."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navio sob comboio é isento sob condições (parágrafo 120); desvio é alternativa por segurança (parágrafo 121); certificação evita visita (parágrafo 122).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as regras de captura e isenção de navios inimigos às suas especificidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navios de pesquisa científica", "Botes salva-vidas", "Destruição de navio mercante inimigo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Medida excepcional permitida apenas se a segurança de passageiros e tripulação for garantida.", "Não protegidos se recolhem dados de provável aplicação militar.", "Não são considerados local seguro, salvo condições específicas de mar e socorro."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesquisa militar retira proteção (parágrafo 136(e)); botes não são seguros por definição (parágrafo 139(a)); destruição é excepcional (parágrafo 139).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 21 e 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos relacionados à captura de navios mercantes neutros e contrabando.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Contrabando", "Bens Livres", "Destruição de navio neutro"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Permitida apenas se o contrabando constituir mais da metade da carga.", "Bens cujo destino é território inimigo e suscetíveis de uso em conflito armado.", "Itens não sujeitos à captura, como objetos religiosos e suprimentos médicos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrabando é definido no parágrafo 148; bens livres no parágrafo 150; destruição limitada à regra da metade da carga no parágrafo 151.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 18 e 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os procedimentos de interceptação e controle de aeronaves civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Interceptação", "Plano de Voo", "Aeronave Civil Neutra sob controle"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Deve conter registro, destino, carga e códigos de identificação.", "Isenta de visita e busca se o Estado da bandeira militar garantir sua carga e status.", "Direito exercido fora do espaço aéreo neutro sob suspeita razoável de captura."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interceptação ocorre fora do espaço aéreo neutro (parágrafo 125); plano de voo detalhado é exigido (parágrafo 129); isenção sob controle militar (parágrafo 127).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VI: Pessoas protegidas, transportes médicos e aeronaves médicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as categorias de pessoas protegidas ao seu status jurídico correto em caso de captura no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pessoal religioso e médico", "Tripulantes de navios-hospital", "Passageiros neutros em navios inimigos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Não podem ser capturados enquanto estiverem a serviço desses navios.", "Devem ser libertados e não podem ser feitos prisioneiros, salvo exceções de hostilidade.", "Não devem ser considerados prisioneiros de guerra, mas podem ser retidos se necessário."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pessoal médico não é prisioneiro de guerra (item 164). Tripulantes de navios-hospital não são capturáveis (item 162). Passageiros neutros devem ser libertados (item 166(a)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os equipamentos e meios utilizados por navios-hospital às restrições e finalidades impostas pelo Manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Equipamentos criptográficos", "Meios de defesa (chaff e flares)", "Meios de identificação visual"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sua presença deve ser notificada e são considerados meios puramente defletivos.", "Destinam-se apenas a facilitar a identificação e não conferem, por si sós, status de proteção.", "Permitidos para missão humanitária, mas proibidos para transmissão de dados de inteligência."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criptografia é permitida, mas vetada para inteligência (item 171). Defesas defletivas exigem notificação (item 170). Identificação não cria status por si só (item 173).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as situações de operação de aeronaves em zonas de conflito ou neutras às consequências jurídicas previstas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Entrada em espaço aéreo neutro por erro/emergência", "Sobrevoo de áreas controladas pelo inimigo", "Aeronaves de busca e resgate sem acordo prévio"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Operam por sua própria conta e risco.", "Devem notificar/identificar-se e, se inspecionadas e validadas, devem ser autorizadas a retomar o voo.", "Podem ser ordenadas a pousar para permitir a inspeção e devem obedecer."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro em espaço neutro exige identificação e liberação após inspeção (item 182). Sobrevoo inimigo sujeita a ordem de pouso (item 180). Resgate sem acordo é por conta e risco (item 179).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 1533/1995 - CNUDM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte I - Introdução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os termos definidos no Artigo 1 às suas respectivas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Área", "Autoridade", "Atividades na Área"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Todas as atividades de exploração e aproveitamento dos recursos na Área", "O leito do mar, os fundos marinhos e o seu subsolo além dos limites da jurisdição nacional", "Autoridade Internacional dos Fundos Marinhos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "Área" refere-se ao leito e subsolo além da jurisdição nacional; a "Autoridade" é a Autoridade Internacional dos Fundos Marinhos; e "Atividades na Área" refere-se especificamente à exploração e aproveitamento de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos relacionados à poluição e alijamento às suas características ou exclusões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Poluição do meio marinho", "Alijamento (inclusão)", "Não considerado Alijamento (exclusão)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Afundamento deliberado no mar de embarcações, aeronaves ou plataformas", "Lançamento de detritos resultantes da exploração normal de embarcações ou plataformas", "Introdução pelo homem de substâncias ou energia que provoque efeitos nocivos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A poluição envolve a introdução de substâncias/energia nocivas; o alijamento inclui o afundamento deliberado; exclui-se do alijamento o lançamento de detritos da exploração normal de embarcações, exceto se transportados para esse fim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os termos jurídicos e ações descritas na Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estados Partes", "Efeitos nocivos da poluição", "Depósito de matérias (exceção)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Para outros fins que não o simples lançamento, desde que não contrarie a Convenção", "Estados que consentiram em ficar obrigados pela Convenção em vigor", "Danos aos recursos vivos, riscos à saúde do homem e entrave às atividades marítimas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estados Partes são aqueles obrigados pela Convenção; os efeitos nocivos definem a poluição; o depósito de matérias para fins outros que não o simples lançamento não é considerado alijamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte II - Mar Territorial e Zona Contígua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os regimes de delimitação e soberania do Mar Territorial às suas definições legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Mar Territorial (Extensão)", "Linha de Base Normal", "Linha de Base Reta"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Método aplicável onde a costa apresente recortes profundos ou franja de ilhas", "Soberania do Estado costeiro sobre o leito, subsolo e espaço aéreo sobrejacente", "Linha de baixa-mar ao longo da costa indicada em cartas oficiais"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 2 define a soberania sobre o Mar Territorial; o Art. 5 define a linha de base normal como a linha de baixa-mar; e o Art. 7 permite linhas de base retas em costas com recortes profundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as definições geográficas específicas aos seus regimes jurídicos na Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Águas Interiores", "Baía (Critério Jurídico)", "Instalações Portuárias"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Consideradas parte da costa para delimitação, excluindo ilhas artificiais", "Águas situadas no interior da linha de base do mar territorial", "Reentrância cuja superfície é igual ou superior à de um semicírculo com diâmetro na entrada"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme Art. 8 (águas interiores), Art. 10 (definição técnica de baía pelo critério do semicírculo) e Art. 11 (instalações portuárias permanentes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 5 e 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos de navegação no Mar Territorial às suas condições de exercício.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Passagem", "Passagem Inocente", "Submarinos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navegação à superfície arvorando a bandeira", "Navegação contínua e rápida através do mar territorial", "Não prejudicial à paz, à boa ordem ou à segurança do Estado costeiro"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 18 define passagem (contínua e rápida); o Art. 19 define a inocência (não prejudicial); e o Art. 20 exige que submarinos naveguem à superfície.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 8 e 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as jurisdições e tipos de navios às suas prerrogativas ou limites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Jurisdição Penal (Regra Geral)", "Navio de Guerra", "Zona Contígua"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Zona de fiscalização aduaneira e sanitária até 24 milhas", "Não exercida a bordo de navio estrangeiro de passagem", "Pertencente às forças armadas, sob comando oficial e com tripulação disciplinada"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 27 limita a jurisdição penal a bordo; o Art. 29 define navio de guerra; e o Art. 33 estabelece a competência de fiscalização na Zona Contígua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 10 e 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte III - Estreitos Utilizados para a Navegação Internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os regimes de passagem em estreitos às suas definições ou condições de aplicação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Passagem em Trânsito", "Passagem Inocente em Estreitos", "Exceção de Rota de Alto Mar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Regime aplicável a estreitos entre uma zona de alto mar/ZEE e o mar territorial de outro Estado", "Inaplicabilidade da Parte III quando existe rota alternativa de conveniência semelhante", "Liberdade de navegação e sobrevoo para fins de trânsito contínuo e rápido"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Passagem em Trânsito (Art. 38) é o trânsito contínuo e rápido; a Passagem Inocente (Art. 45) aplica-se a estreitos excluídos do trânsito ou ligados a mar territorial; a Rota de Alto Mar (Art. 36) exclui a aplicação deste regime se houver alternativa conveniente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 11 e 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os atores (navios e Estados) aos seus deveres e restrições específicos nos estreitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navios em passagem em trânsito", "Navios de investigação científica", "Estados ribeirinhos de estreitos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Não impedir a passagem em trânsito e dar publicidade a perigos", "Abster-se de qualquer ameaça ou uso da força contra a soberania do Estado ribeirinho", "Necessidade de autorização prévia para efetuar levantamentos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme Art. 39 (navios devem abster-se de força), Art. 40 (investigação requer autorização) e Art. 44 (Estados não devem impedir a passagem).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os mecanismos de regulação e segurança nos estreitos às suas características legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sistemas de Separação de Tráfego", "Leis do Estado Ribeirinho", "Âmbito de Aplicação (Exclusões)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Podem versar sobre segurança, poluição e pesca, sem discriminação de fato ou direito", "Não afeta estreitos regulados por convenções internacionais de longa data", "Devem ser submetidos à organização internacional competente para adoção"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art. 41 exige aprovação da organização competente para tráfego; Art. 42 permite leis nacionais sem discriminação; Art. 35 exclui convenções de longa data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte IV - Estados Arquipélagos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos fundamentais sobre a definição e delimitação dos Estados Arquipélagos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estado Arquipélago", "Razão Água/Terra", "Linhas de Base (Comprimento)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Proporção entre 1:1 e 9:1 dentro das linhas de base", "Não deve exceder 100 milhas marítimas, com exceção de até 3% do total", "Estado constituído totalmente por um ou vários arquipélagos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 46 define Estado Arquipélago; o Art. 47, §1 define a razão entre superfícies; e o Art. 47, §2 define os limites de comprimento das linhas de base.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os elementos de soberania e direitos de terceiros nas águas arquipelágicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Soberania do Estado Arquipélago", "Direitos de Pesca Tradicionais", "Cabos Submarinos Existentes"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Respeitados se colocados por outros Estados e passarem sem tocar terra", "Estende-se às águas, espaço aéreo, leito e subsolo, independentemente da profundidade", "Reconhecidos a favor de Estados vizinhos imediatamente adjacentes mediante acordo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme Art. 49 (soberania abrangente), Art. 51 §1 (pesca tradicional de vizinhos) e Art. 51 §2 (cabos submarinos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 14 e 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os regimes de navegação aplicáveis nas águas arquipelágicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Passagem Inocente", "Passagem em Rotas Marítimas Arquipelágicas", "Navegação sem rotas designadas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exercício através das rotas utilizadas normalmente para a navegação internacional", "Pode ser suspensa temporariamente por motivos de segurança", "Trânsito contínuo, rápido e sem entraves entre partes do alto mar ou ZEE"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 52 regula a passagem inocente (passível de suspensão); o Art. 53 §3 define a passagem em rotas arquipelágicas; o Art. 53 §12 trata da ausência de designação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 1533/1995 - CNUDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte V - Zona Econômica Exclusiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os aspectos gerais da ZEE com suas definições ou direitos correspondentes conforme os Artigos 56 a 58.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Largura da ZEE", "Direitos do Estado Costeiro", "Direitos de Outros Estados"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Liberdades de navegação, sobrevoo e colocação de cabos submarinos", "Limite máximo de 200 milhas marítimas a partir das linhas de base", "Soberania para fins de exploração, conservação e gestão de recursos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A largura da ZEE é limitada a 200 milhas; o Estado costeiro tem soberania para exploração econômica; outros Estados gozam de liberdades de navegação e comunicação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as regras sobre ilhas artificiais e estruturas na ZEE (Art. 60) às suas características legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ilhas artificiais", "Zonas de segurança", "Instalações abandonadas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Não excederão uma distância de 500 metros em volta das estruturas", "Devem ser retiradas para garantir a segurança da navegação", "Não possuem mar territorial próprio nem afetam delimitações"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilhas artificiais não geram mar territorial; zonas de segurança são limitadas a 500m; estruturas inutilizadas devem ser removidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os tipos específicos de espécies marinhas aos seus regimes de gestão (Arts. 65-67).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Espécies Anádromas", "Espécies Catádromas", "Mamíferos Marinhos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Gestão é responsabilidade do Estado costeiro onde passam a maior parte do ciclo vital", "Podem ter seu aproveitamento proibido ou limitado de maneira mais estrita", "O Estado em cujos rios se originem tem interesse e responsabilidade primordiais"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espécies anádromas originam-se em rios (responsabilidade do Estado de origem); catádromas vivem no mar e migram para desova (responsabilidade do Estado costeiro); mamíferos marinhos permitem regulamentação mais estrita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os direitos de participação e exceções para Estados sem litoral e geograficamente desfavorecidos (Arts. 69-71).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estados Geograficamente Desfavorecidos (Definição)", "Direito dos Estados sem Litoral", "Não-aplicação dos Artigos 69 e 70"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Participar em base equitativa no aproveitamento do excedente da região", "Quando a economia do Estado costeiro depende preponderantemente da sua ZEE", "Ribeirinhos de mares fechados ou sem ZEE própria dependentes de nutrição"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estados desfavorecidos incluem ribeirinhos de mares fechados ou sem ZEE própria; Estados sem litoral têm direito ao excedente; a participação não se aplica se o Estado costeiro depende preponderantemente de sua ZEE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os procedimentos de execução e transferência de direitos na ZEE (Arts. 72-73).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sanções do Estado Costeiro", "Transferência de Direitos", "Apresamento de Embarcações"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Proibida direta ou indiretamente a terceiros Estados sem acordo prévio", "Deve ser notificado sem demora ao Estado da bandeira", "Não podem incluir penas privativas de liberdade, salvo acordo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanções não podem incluir prisão sem acordo; direitos de participação (Arts. 69/70) não podem ser transferidos; o Estado da bandeira deve ser notificado de apresamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 22 e 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VI - Plataforma Continental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os critérios de definição dos limites da plataforma continental com as distâncias ou descrições corretas, conforme o Artigo 76.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Limite padrão de distância (caso a margem não exceda)", "Limite exterior máximo (distância da linha de base)", "Limite exterior máximo (critério de profundidade/isóbata)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Não exceder 100 milhas marítimas da isóbata de 2500 metros", "200 milhas marítimas", "Não exceder 350 milhas marítimas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A plataforma estende-se até 200 milhas se o bordo exterior não atingir essa distância. O limite exterior não deve exceder 350 milhas da linha de base ou 100 milhas da isóbata de 2500 metros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os direitos e obrigações relativos à infraestrutura na plataforma continental (Artigos 79 e 81) às suas respectivas regras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Colocação de cabos e dutos submarinos", "Traçado da linha de dutos", "Perfurações na plataforma continental"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sujeito ao consentimento do Estado costeiro", "Direito exclusivo do Estado costeiro de autorizar e regulamentar", "Direito de todos os Estados, sujeito a medidas do Estado costeiro"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os Estados têm o direito de colocar cabos/dutos. O traçado dos dutos exige consentimento do Estado costeiro. A perfuração é direito exclusivo de autorização do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os prazos e taxas de pagamentos pelo aproveitamento da plataforma além das 200 milhas (Artigo 82).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Primeiros cinco anos de produção", "Sexto ano de produção", "A partir do décimo segundo ano"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Taxa de 1% do valor ou volume", "Taxa mantida em 7%", "Isenção de pagamentos ou contribuições"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há isenção nos primeiros 5 anos. No 6º ano, a taxa é de 1%. A taxa aumenta anualmente até atingir 7% no 12º ano, mantendo-se depois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 23 e 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione a natureza dos direitos do Estado costeiro (Artigo 77) com suas características específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exclusividade dos direitos", "Independência dos direitos", "Recursos naturais abrangidos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Minerais, recursos não vivos e espécies sedentárias", "Ninguém pode explorar sem consentimento expresso, mesmo se o Estado costeiro não o fizer", "Não dependem de ocupação real, fictícia ou declaração expressa"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos são exclusivos (ninguém pode atuar sem consentimento); independem de ocupação ou declaração; abrangem minerais e espécies sedentárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos geográficos e jurídicos às suas definições ou regimes conforme os Artigos 76, 78 e 83.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Margem Continental", "Águas Sobrejacentes", "Delimitação entre Estados adjacentes"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Deve ser feita por acordo para chegar a uma solução equitativa", "Compreende o prolongamento submerso da massa terrestre (leito, subsolo, talude, elevação)", "Seu regime jurídico não é afetado pelos direitos sobre a plataforma continental"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A margem compreende o prolongamento submerso. Os direitos na plataforma não afetam o regime das águas sobrejacentes. A delimitação deve buscar solução equitativa via acordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VII - Alto Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os princípios gerais do Alto Mar às suas definições corretas conforme a Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Liberdade do Alto Mar", "Fins Pacíficos", "Ilegitimidade de Soberania"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Nenhum Estado pode legitimamente pretender submeter qualquer parte do alto mar à sua jurisdição.", "Compreende, inter alia, navegação, sobrevoo, pesca e investigação científica.", "O alto mar será utilizado exclusivamente para este propósito."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os Artigos 87, 88 e 89: a liberdade do alto mar inclui várias atividades (navegação, pesca, etc.); a utilização deve ser para fins pacíficos; e nenhum Estado pode reivindicar soberania sobre o alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos sobre a nacionalidade e o estatuto dos navios no alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Vínculo Substancial", "Navio sem Nacionalidade", "Jurisdição Exclusiva"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Navio que navega sob a bandeira de dois ou mais Estados, utilizando-as por conveniência.", "Regra geral aplicada ao Estado de bandeira sobre seus navios no alto mar.", "Requisito necessário entre o Estado e o navio para a atribuição de nacionalidade."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 91 exige um vínculo substancial para a nacionalidade. O Artigo 92 estipula que navios com múltiplas bandeiras usadas por conveniência são considerados sem nacionalidade e que, em regra, o Estado de bandeira tem jurisdição exclusiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as situações jurídicas específicas envolvendo navios no alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Imunidade Completa", "Jurisdição Penal em Abalroamento", "Dever de Assistência"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Compete às autoridades do Estado de bandeira ou do Estado do qual o acusado é nacional.", "Obrigação de socorrer pessoas em perigo de desaparecer no mar.", "Privilégio de navios de guerra e navios de Estado em serviço não comercial."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Artigos 95 e 96 conferem imunidade a navios de guerra e de Estado. O Artigo 97 limita a jurisdição penal em abalroamentos ao Estado da bandeira ou da nacionalidade do indivíduo. O Artigo 98 estabelece o dever de prestar assistência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 28 e 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os atos ilícitos no alto mar às suas características ou consequências legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pirataria", "Transporte de Escravos", "Transmissões não Autorizadas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Difusão de rádio ou TV contrária aos regulamentos internacionais, exceto chamadas de socorro.", "Ato ilícito de violência ou detenção para fins privados contra outro navio ou aeronave.", "O indivíduo que se refugie num navio, qualquer que seja a bandeira, fica livre ipso facto."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pirataria envolve violência para fins privados (Art. 101). Escravos refugiados em navios tornam-se livres (Art. 99). Transmissões não autorizadas referem-se a difusões ilegais para o público em geral (Art. 109).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os institutos de intervenção no alto mar com seus requisitos operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Direito de Visita", "Direito de Perseguição", "Indenização"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Consequência obrigatória se as suspeitas de um navio de guerra se revelarem infundadas após a visita.", "Pode ser exercido por navio de guerra se houver suspeita de pirataria ou falta de nacionalidade.", "Deve iniciar-se nas águas interiores, mar territorial ou zona contígua e não ser interrompida."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 110 permite a visita (abordagem) por suspeita de pirataria ou apatridia. O Artigo 111 regula a perseguição contínua iniciada em águas sob jurisdição. O Artigo 110, §3º, prevê indenização por abordagens infundadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 31 e 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os direitos e deveres relativos aos recursos e infraestrutura no alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Cabos e Dutos Submarinos", "Gestão de Recursos Vivos", "Rendimento Máximo Constante"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Objetivo das medidas de conservação baseadas nos melhores dados científicos disponíveis.", "Direito de todos os Estados de colocá-los no leito do alto mar além da plataforma continental.", "Dever de cooperação entre Estados cujos nacionais explorem recursos idênticos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 112 garante o direito de colocar cabos/dutos. O Artigo 118 exige cooperação na gestão de recursos. O Artigo 119 define o rendimento máximo constante como meta de conservação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os termos definidos na Convenção com suas respectivas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ilha", "Mar fechado ou semifechado", "Estado sem litoral", "Estado de trânsito"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Golfo, bacia ou mar rodeado por dois ou mais Estados e comunicando com outro mar por uma saída estreita.", "Estado que não tenha costa marítima.", "Estado situado entre um Estado sem litoral e o mar, através de cujo território passa o tráfego.", "Formação natural de terra, rodeada de água, que fica a descoberto na preia-mar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ilha é definida no Art. 121; o Mar fechado ou semifechado no Art. 122; o Estado sem litoral no Art. 124(1)(a); e o Estado de trânsito no Art. 124(1)(b).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as regras específicas de zonas marítimas e trânsito aos conceitos correspondentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Rochedos inabitáveis", "Tráfego em trânsito", "Cooperação em mares fechados"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Passagem de pessoas e bens através de território de Estado de trânsito como parte de viagem completa.", "Coordenação na gestão de recursos vivos e proteção do meio marinho entre Estados costeiros.", "Não devem ter zona econômica exclusiva nem plataforma continental."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o Art. 121, rochedos sem vida econômica não geram ZEE/PC. O tráfego em trânsito é definido no Art. 124 como a passagem pelo território. O Art. 123 exige cooperação em mares fechados para recursos e meio ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 33 e 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os direitos e exceções previstos na Parte X (Acesso ao mar) com suas aplicações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Direitos aduaneiros", "Cláusula da nação mais favorecida", "Igualdade de tratamento", "Zonas francas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Excluída da aplicação sobre direitos e facilidades concedidos pela situação geográfica especial.", "Podem ser estabelecidas nos portos de entrada e saída mediante acordo.", "O tráfego em trânsito não está sujeito a eles, exceto taxas por serviços específicos.", "Garantida aos navios de Estado sem litoral nos portos marítimos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"0": "2", "1": "0", "2": "3", "3": "1"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 127 isenta o trânsito de direitos aduaneiros; o Art. 126 exclui a cláusula da nação mais favorecida; o Art. 131 garante igualdade nos portos; o Art. 128 prevê zonas francas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os meios de transporte definidos no Artigo 124 aos seus componentes ou condições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Meio de transporte (padrão)", "Meio de transporte (condicional)", "Meio de transporte (por acordo)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Dutos e gasodutos.", "Material ferroviário, embarcações e veículos rodoviários.", "Carregadores e animais de carga, quando as condições locais exigirem."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme Art. 124: a definição padrão inclui trens e veículos; carregadores/animais são usados se condições locais exigirem; dutos e gasodutos podem ser incluídos por mútuo acordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XI - A Área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os termos utilizados e princípios gerais da Área às suas respectivas definições ou características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Recursos", "Minerais", "Patrimônio Comum da Humanidade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Status jurídico inalienável atribuído à Área e seus recursos.", "Recursos minerais sólidos, líquidos ou gasosos in situ na Área.", "Denominação dada aos recursos uma vez extraídos da Área."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o Artigo 133, 'recursos' refere-se aos minerais in situ, enquanto 'minerais' refere-se aos recursos extraídos. O Artigo 136 define a Área e seus recursos como patrimônio comum da humanidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 36 e 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as obrigações e direitos na Área aos seus contextos específicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Investigação Científica Marinha", "Transferência de Tecnologia", "Proteção do Meio Marinho"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["A Autoridade deve promover e incentivar o acesso a conhecimentos para os Estados em desenvolvimento.", "A Autoridade deve adotar normas para prevenir, reduzir e controlar a poluição e proteger a flora e fauna.", "Deve ser realizada exclusivamente para fins pacíficos e em benefício da humanidade."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A investigação científica deve ser pacífica e benéfica à humanidade (Art. 143). A transferência de tecnologia visa beneficiar Estados em desenvolvimento (Art. 144). A proteção do meio marinho exige normas contra poluição e danos ecológicos (Art. 145).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 43, 44, 46 e 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os órgãos da Autoridade Internacional dos Fundos Marinhos às suas funções principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Assembléia", "Conselho", "Empresa"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Órgão que realiza atividades diretamente na Área, bem como transporte e comercialização.", "Órgão executivo que supervisiona e coordena a aplicação das disposições da Parte XI.", "Órgão supremo composto por todos os membros, com poder de estabelecer políticas gerais."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Assembléia é o órgão supremo composto por todos os membros (Art. 160). O Conselho é o órgão executivo (Art. 162). A Empresa realiza diretamente as atividades na Área (Art. 170).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 49 e 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as Comissões do Conselho às suas competências específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Comissão de Planejamento Econômico", "Comissão Jurídica e Técnica"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Examina planos de trabalho, prepara avaliações ecológicas e calcula o teto de produção.", "Examina tendências de oferta, procura e preços, e propõe sistemas de compensação."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Comissão de Planejamento Econômico foca em tendências de mercado e compensações econômicas (Art. 164). A Comissão Jurídica e Técnica examina planos de trabalho e avalia consequências ecológicas (Art. 165).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 54 e 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os mecanismos de solução de controvérsias às suas características de jurisdição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Câmara de Controvérsias dos Fundos Marinhos", "Arbitragem Comercial Obrigatória", "Câmara Especial do Tribunal Internacional do Direito do Mar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pode ser acionada a pedido das partes para controvérsias entre Estados Partes (Art. 188.1.a).", "Competência para controvérsias relativas à interpretação ou execução de contratos.", "Competência para controvérsias sobre atos ou omissões da Autoridade que violem a Parte XI."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Câmara de Controvérsias julga violações da Parte XI pela Autoridade (Art. 187). A arbitragem comercial decide sobre execução de contratos, sem interpretar a Convenção (Art. 188). A Câmara Especial do Tribunal pode ser usada por acordo entre Estados Partes (Art. 188).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 38 e 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as políticas de produção e desenvolvimento aos seus objetivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Artigo 150 (Políticas Gerais)", "Artigo 151 (Políticas de Produção)", "Artigo 149 (Objetos Arqueológicos)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Promover o crescimento, eficiência e estabilidade dos mercados de produtos básicos.", "Conservação ou disposição em benefício da humanidade, respeitando direitos do país de origem.", "Fomentar o desenvolvimento harmonioso da economia mundial e evitar a monopolização."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 150 visa o desenvolvimento harmonioso e evitar monopólios. O Artigo 151 foca na estabilidade dos mercados e limites de produção. O Artigo 149 trata da proteção de objetos arqueológicos e históricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 56 e 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XII - Proteção e Preservação do Meio Ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os artigos das Disposições Gerais aos seus respectivos conteúdos normativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Artigo 192", "Artigo 193", "Artigo 195"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Direito de soberania dos Estados para aproveitar os seus recursos naturais.", "Dever de não transferir danos ou riscos ou de não transformar um tipo de poluição em outro.", "Obrigação geral de proteger e preservar o meio marinho."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 192 estabelece a obrigação geral; o Art. 193 trata da soberania sobre recursos naturais; e o Art. 195 proíbe a transferência de danos ou a transformação de um tipo de poluição em outro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 57 e 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os mecanismos de cooperação mundial e regional às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Notificação de danos", "Planos de emergência", "Estudos e investigação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Cooperação para eliminar efeitos da poluição e prevenir danos, elaborando estratégias conjuntas.", "Cooperação para promover estudos científicos e estimular a troca de dados sobre poluição.", "Obrigação de informar imediatamente outros Estados e organizações sobre perigo iminente ou danos sofridos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A notificação de danos (Art. 198) exige comunicação imediata; os planos de emergência (Art. 199) visam eliminar efeitos da poluição em conjunto; e os estudos e investigação (Art. 200) focam na troca de dados científicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 59, 60 e 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as fontes de poluição às regras específicas de regulamentação descritas na Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Poluição de origem terrestre", "Poluição por alijamento", "Poluição proveniente da atmosfera"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Requer leis aplicáveis ao espaço aéreo sob soberania e aeronaves registradas, considerando a segurança da navegação aérea.", "Inclui rios, estuários, dutos e instalações de descarga, devendo minimizar a emissão de substâncias tóxicas.", "Não pode realizar-se sem o consentimento prévio expresso do Estado costeiro no mar territorial, ZEE ou plataforma continental."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A poluição terrestre (Art. 207) inclui rios e dutos; a poluição por alijamento (Art. 210) exige consentimento prévio do Estado costeiro em suas zonas; e a poluição atmosférica (Art. 212) abrange o espaço aéreo e segurança aérea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 62 e 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe o tipo de Estado (jurisdição) às suas competências de execução (enforcement).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estado de bandeira", "Estado do porto", "Estado costeiro"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pode realizar investigações sobre descargas ilegais quando a embarcação estiver voluntariamente em seus terminais.", "Pode deter embarcações que violem leis no mar territorial, se as provas o justificarem.", "Deve assegurar que suas embarcações sejam proibidas de navegar se não cumprirem requisitos internacionais de projeto e construção."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado de bandeira (Art. 217) deve impedir a navegação de navios fora dos padrões; o Estado do porto (Art. 218) pode investigar descargas quando o navio está voluntariamente atracado; o Estado costeiro (Art. 220) pode deter navios por infrações no mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 66 e 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os regimes especiais e isenções previstos na Parte XII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Áreas cobertas de gelo", "Imunidade soberana", "Responsabilidade civil"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Não aplicação das disposições da Convenção a navios de guerra ou de serviço governamental não comercial.", "Direito de intentar ação por perdas ou danos causados pela poluição do meio marinho.", "Direito de adotar leis não discriminatórias na ZEE onde condições climáticas rigorosas criem obstruções à navegação."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 234 trata das áreas cobertas de gelo e poderes na ZEE; o Art. 236 estabelece a imunidade soberana para navios de guerra; e o Art. 229 preserva o direito de ação de responsabilidade civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os artigos da Seção 1 (Disposições Gerais) aos seus temas centrais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Artigo 267", "Artigo 268", "Artigo 269"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estabelecimento de programas de cooperação técnica e realização de conferências", "Proteção dos interesses legítimos de fornecedores e recebedores", "Objetivos fundamentais, como o desenvolvimento de recursos humanos e infraestrutura"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 267 trata da proteção dos interesses legítimos; o Artigo 268 lista os objetivos fundamentais (infraestrutura, RH); e o Artigo 269 detalha as medidas para atingir esses objetivos (conferências, programas de cooperação).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as disposições sobre cooperação internacional e diretrizes aos seus respectivos artigos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Artigo 270", "Artigo 271", "Artigo 272"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Coordenação de programas internacionais pelas organizações competentes", "Formas de cooperação internacional (bilaterais, regionais ou multilaterais)", "Estabelecimento de diretrizes, critérios e normas geralmente aceitos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 270 define as formas de cooperação; o Artigo 271 foca nas diretrizes e normas; e o Artigo 272 aborda a coordenação de programas internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os mecanismos de cooperação com a Autoridade e os Centros Nacionais às suas finalidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Artigo 273", "Artigo 274", "Artigo 275"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estimular a investigação científica pelos Estados costeiros em benefício econômico próprio", "Facilitar a transferência de conhecimentos relativos às atividades na Área", "Assegurar a admissão de nacionais de países em desenvolvimento para estágio e formação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 273 trata da cooperação para atividades na Área; o Art. 274 define objetivos da Autoridade (como estágios); e o Art. 275 foca no estabelecimento de centros nacionais para benefício econômico próprio dos Estados costeiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 75 e 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de centros de investigação e suas funções específicas descritas na Seção 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Centros Nacionais (Art. 275)", "Centros Regionais (Art. 276)", "Funções dos Centros Regionais (Art. 277)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Incluem estudos de gestão, disseminação de resultados e compilação de dados sobre patentes", "Focados em estimular a investigação nos Estados costeiros em desenvolvimento para uso de seus recursos", "Devem contar com a cooperação de todos os Estados de uma região para serem eficazes"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os centros nacionais (Art. 275) focam no Estado costeiro; os centros regionais (Art. 276) exigem cooperação regional; e o Art. 277 lista as funções detalhadas (gestão, patentes, disseminação).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as funções específicas dos Centros Regionais (Art. 277) às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Disseminação de resultados", "Compilação de informações", "Programas de formação e ensino"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Abrangem biologia marinha, oceanografia, engenharia e dessalinização", "Realizada por meio de publicações de fácil acesso", "Sobre comercialização de tecnologia e ajustes relativos a patentes"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disseminação ocorre via publicações (alínea f); a compilação refere-se a dados comerciais e patentes (alínea h); os programas de formação cobrem diversas áreas científicas (alínea a).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 77 e 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XV - Solução de Controvérsias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os meios de solução de controvérsias descritos no Artigo 287 aos seus respectivos anexos ou características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Tribunal Internacional do Direito do Mar", "Corte Internacional de Justiça", "Tribunal Arbitral (Anexo VII)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Meio de solução padrão caso as partes não tenham aceito o mesmo procedimento.", "Estabelecido de conformidade com o Anexo VI da Convenção.", "Órgão judicial principal das Nações Unidas, citado como opção no Art. 287."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tribunal Internacional do Direito do Mar segue o Anexo VI; a Corte Internacional de Justiça é uma das opções listadas; e a arbitragem do Anexo VII é o procedimento padrão quando não há concordância mútua sobre outro meio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 78 e 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os institutos processuais previstos na Parte XV às suas definições e objetivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Medidas Provisórias", "Pronta Libertação", "Esgotamento dos Recursos Internos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exigência de que os recursos locais sejam percorridos antes da submissão internacional (Art. 295).", "Visam preservar direitos ou impedir danos graves ao meio marinho antes da decisão final (Art. 290).", "Procedimento específico para soltura de embarcação mediante caução razoável (Art. 292)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As medidas provisórias (Art. 290) protegem direitos *prima facie* ou o meio ambiente; a pronta libertação (Art. 292) trata da soltura de navios e tripulações apresados; o esgotamento de recursos internos (Art. 295) é pré-requisito processual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 81 e 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as categorias de controvérsias às regras de exceção facultativa previstas no Artigo 298.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Delimitação de zonas marítimas", "Atividades militares", "Conselho de Segurança da ONU"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exclusão referente a disputas em que este órgão exerça funções conferidas pela Carta das Nações Unidas.", "Pode ser excluída da jurisdição obrigatória, envolvendo baías ou títulos históricos.", "Refere-se a operações de embarcações e aeronaves de Estado e serviços não comerciais."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 298 permite que Estados declarem não aceitar procedimentos obrigatórios para delimitações de zonas (alínea a), atividades militares (alínea b) e questões sob o Conselho de Segurança (alínea c).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 76 e 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os princípios gerais da solução de controvérsias (Seção 1) com suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Obrigação de trocar opiniões", "Liberdade de escolha dos meios", "Conciliação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Procedimento não obrigatório onde um Estado pode convidar outro a submeter a disputa (Art. 284).", "Dever das partes de negociar sem demora quando surge uma controvérsia (Art. 283).", "Direito das partes de acordar qualquer meio pacífico, não sendo prejudicado pela Parte XV (Art. 280)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A troca de opiniões é mandatória ao surgir a disputa; a liberdade de escolha permite qualquer meio pacífico; a conciliação é um convite que requer aceitação da outra parte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as disposições sobre a jurisdição e as decisões das cortes ou tribunais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Jurisdição sobre a Convenção", "Decisão definitiva", "Peritos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Força obrigatória restrita apenas às partes na controvérsia e ao caso específico.", "Podem ser selecionados para assistir a corte em questões científicas ou técnicas, sem voto.", "Competência para julgar disputas relativas à interpretação ou aplicação da Convenção (Art. 288)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Art. 288 define a jurisdição sobre a interpretação da Convenção; o Art. 296 estabelece que a decisão é definitiva e obrigatória apenas para as partes; o Art. 289 prevê o uso de peritos sem direito a voto.</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +2884,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="70:72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="117:170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2428,1012 +3892,3702 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
+      <c r="J50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
+      <c r="J51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
+      <c r="J56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
+      <c r="J57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
+      <c r="J58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
+      <c r="J59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
+      <c r="J61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
+      <c r="J62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
+      <c r="J65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="H67" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="H68" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="H70" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
+      <c r="J71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="I91" s="0"/>
+      <c r="J91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="I93" s="0"/>
+      <c r="J93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="I94" s="0"/>
+      <c r="J94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="I95" s="0"/>
+      <c r="J95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="I109" s="0"/>
+      <c r="J109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="I111" s="0"/>
+      <c r="J111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I112" s="0"/>
+      <c r="J112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="I114" s="0"/>
+      <c r="J114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="I115" s="0"/>
+      <c r="J115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="I116" s="0"/>
+      <c r="J116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I117" s="0"/>
+      <c r="J117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I118" s="0"/>
+      <c r="J118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I119" s="0"/>
+      <c r="J119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I120" s="0"/>
+      <c r="J120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="I121" s="0"/>
+      <c r="J121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="I122" s="0"/>
+      <c r="J122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I128" s="0"/>
+      <c r="J128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="I129" s="0"/>
+      <c r="J129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I130" s="0"/>
+      <c r="J130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I131" s="0"/>
+      <c r="J131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I132" s="0"/>
+      <c r="J132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I133" s="0"/>
+      <c r="J133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I134" s="0"/>
+      <c r="J134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="I135" s="0"/>
+      <c r="J135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="I137" s="0"/>
+      <c r="J137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="I138" s="0"/>
+      <c r="J138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="I139" s="0"/>
+      <c r="J139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="I140" s="0"/>
+      <c r="J140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="I141" s="0"/>
+      <c r="J141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I143" s="0"/>
+      <c r="J143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="I145" s="0"/>
+      <c r="J145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="I147" s="0"/>
+      <c r="J147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I148" s="0"/>
+      <c r="J148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I150" s="0"/>
+      <c r="J150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="I153" s="0"/>
+      <c r="J153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I154" s="0"/>
+      <c r="J154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="I155" s="0"/>
+      <c r="J155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="I156" s="0"/>
+      <c r="J156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="I158" s="0"/>
+      <c r="J158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I159" s="0"/>
+      <c r="J159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="I162" s="0"/>
+      <c r="J162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="I166" s="0"/>
+      <c r="J166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="I170" s="0"/>
+      <c r="J170" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1009">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -2645,6 +2645,408 @@
   </si>
   <si>
     <t xml:space="preserve">O Art. 288 define a jurisdição sobre a interpretação da Convenção; o Art. 296 estabelece que a decisão é definitiva e obrigatória apenas para as partes; o Art. 289 prevê o uso de peritos sem direito a voto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia Brasileira Contemporânea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 – Aspectos Demográficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as teorias sobre crescimento populacional e desenvolvimento às suas definições ou argumentos centrais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Teoria Neomalthusiana", "Críticos à Corrente Neomalthusiana", "Teoria do Ciclo de Vida"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Considera que o progresso tecnológico permite o crescimento da renda e alimentos, vendo aspectos positivos em grandes populações.", "Analisa como a variação da idade da população afeta o consumo, a geração de renda e a poupança agregada.", "Argumenta que o rápido crescimento populacional leva à pobreza e ao esgotamento de recursos, defendendo o controle da natalidade."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os neomalthusianos focam no risco da escassez e pobreza; os críticos enfatizam o progresso técnico e economias de escala; a teoria do ciclo de vida foca na relação entre idade, renda e consumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos demográficos relativos à dinâmica populacional e migratória às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["População Aberta", "População Fechada", "Migração Interna"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Crescimento depende apenas do crescimento vegetativo (nascimentos menos óbitos), sem influência significativa de migrações externas.", "Deslocamento populacional dentro do mesmo país que altera a distribuição regional, mas não o total de habitantes.", "Crescimento populacional fortemente influenciado pela entrada e saída de migrantes de outras regiões ou países."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma população aberta sofre impacto de migrações externas; a fechada depende do saldo vegetativo; migrações internas apenas redistribuem a população no território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as fases da transição demográfica às características das taxas de natalidade e mortalidade observadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Fase A (Tradicional)", "Fase B (Transição/Explosão)", "Fase C (Moderna)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Queda acentuada da mortalidade enquanto a natalidade permanece alta, gerando rápido crescimento populacional.", "Baixas taxas de natalidade e mortalidade, resultando em baixo crescimento populacional.", "Altas taxas de natalidade e mortalidade, resultando em baixo crescimento vegetativo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fase A tem altas taxas de ambas as variáveis; a Fase B ocorre quando a mortalidade cai antes da natalidade (explosão); a Fase C estabiliza ambas em níveis baixos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 5, 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os indicadores demográficos às suas definições técnicas corretas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Taxa de Fecundidade", "Bônus Demográfico (Janela)", "Razão de Dependência"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Período em que a proporção de pessoas em idade ativa é alta em relação aos dependentes, favorecendo o crescimento.", "Relação entre a soma de idosos e crianças (dependentes) sobre a população em idade ativa (15-65 anos).", "Relação entre o número de nascimentos e o número de mulheres em idade fértil (15 a 44 anos)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecundidade mede filhos por mulher fértil; Bônus é o momento de baixa dependência; Razão de dependência mede a carga de inativos sobre ativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 24-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os movimentos migratórios brasileiros aos seus contextos históricos e destinos principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Êxodo Rural (1950-1980)", "Migração para Fronteira Agrícola", "Urbanização Recente (Pós-1980)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Movimento em direção a novas terras no Centro-Oeste e Norte, inicialmente rural e depois para cidades dessas regiões.", "Desaceleração das grandes metrópoles e crescimento de cidades médias e do interior.", "Saída massiva do campo para as cidades, impulsionada pela industrialização concentrada no Sudeste."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O êxodo rural foi a marca da industrialização; a fronteira agrícola expandiu para o CO e Norte; recentemente há uma desconcentração para cidades médias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 1 e 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos introdutórios da análise econômica às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Microeconomia", "Macroeconomia", "Contabilidade Nacional"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Instrumental desenvolvido por Stone e Kuznets para mensurar a totalidade das atividades econômicas.", "Estuda os mercados de forma isolada, determinando preços e quantidades específicas.", "Estuda todos os mercados em conjunto, buscando medir a produção total da sociedade."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A microeconomia foca em mercados isolados; a macroeconomia analisa o conjunto dos mercados; a Contabilidade Nacional é o instrumento de mensuração da atividade econômica total, desenvolvido por Stone e Kuznets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os tipos de variáveis econômicas aos seus exemplos ou definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Variável Fluxo", "Variável Estoque", "Crescimento Econômico"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Magnitudes medidas em um dado instante do tempo (ex: Dívida Pública, Capital).", "Aumento do produto em determinado período, elevando a produção de bens e serviços.", "Atividades contínuas medidas em determinado período (ex: Produto, Renda, Consumo)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxos são medidos em períodos (contínuos); estoques são medidos em instantes específicos; crescimento econômico é o aumento do produto (fluxo) em um período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos utilizados na mensuração do produto para evitar dupla contagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bens Finais", "Bens Intermediários", "Valor Adicionado"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Mercadorias utilizadas como insumos na produção de outros bens.", "Valor acrescido em cada etapa produtiva ao valor das matérias-primas utilizadas.", "Bens destinados diretamente à satisfação das necessidades humanas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens finais atendem diretamente às necessidades; bens intermediários são insumos transformados; valor adicionado é o acréscimo de valor em cada etapa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as diferentes óticas de mensuração do produto às suas composições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ótica do Produto", "Ótica do Dispêndio", "Ótica da Renda"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Soma do consumo, investimento e exportações, subtraindo as importações (Demanda Final).", "Soma das remunerações dos fatores de produção (salários, juros, aluguéis e lucros).", "Soma dos valores adicionados ou dos bens finais produzidos na economia."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ótica do produto soma os valores adicionados; a ótica do dispêndio soma os componentes da demanda final; a ótica da renda soma as remunerações dos fatores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 6 e 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos relacionados ao investimento e capital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Investimento (Conceito)", "Depreciação", "Investimento Líquido"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Parcela dos bens de capital consumida/desgastada a cada período produtivo.", "Investimento Bruto subtraído da depreciação.", "Aquisição de bens de capital ou aumento de estoques para ampliar a produção futura."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento visa ampliar a produção futura; depreciação é o desgaste do capital; investimento líquido desconta a depreciação do bruto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de bens e tributos geridos pelo governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bens Públicos", "Impostos Diretos", "Impostos Indiretos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Incidem sobre a mercadoria vendida (ex: ICMS) e são embutidos no preço.", "Caracterizam-se pelo consumo não rival e não excludente (ex: segurança nacional).", "Incidem sobre o agente que os recolhe, como renda e propriedade (ex: IR, IPTU)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens públicos são não rivais e não excludentes; impostos diretos incidem sobre renda/propriedade; impostos indiretos incidem sobre mercadorias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 12 e 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as medidas de agregados macroeconômicos às suas definições em relação ao setor externo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Produto Nacional Bruto (PNB)", "Produto Interno Bruto (PIB)", "Renda Líquida Enviada ao Exterior"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Diferença entre o que é pago a fatores externos e o recebido por fatores nacionais no exterior.", "Conceito que considera a produção realizada dentro das fronteiras do país (residentes e não residentes).", "Produto Interno ajustado pela Renda Líquida Enviada ao Exterior (pertence aos nacionais)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNB ajusta o PIB pela renda enviada/recebida; PIB mede a produção interna; Renda Líquida é o saldo de pagamentos de fatores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 14 e 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as formas de valorar o produto (Real, Nominal e PPP).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Produto Nominal", "Produto Real", "PIB PPP (Paridade do Poder de Compra)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Medido a preços constantes, descontando a inflação para avaliar o crescimento físico.", "Utiliza preços dos EUA como base para eliminar distorções cambiais em comparações internacionais.", "Medido a preços correntes do ano, sujeito a oscilações inflacionárias."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto nominal usa preços correntes; produto real usa preços constantes; PIB PPP usa uma cesta de preços internacional (EUA) para paridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os autores citados no apêndice e notas às suas contribuições metodológicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Richard Stone", "Simon Kuznets", "Wassily Leontief"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Criador da Matriz Insumo-Produto (Relações Intersetoriais).", "Desenvolveu a Contabilidade Nacional moderna (com Stone) e conceitos de mensuração.", "Co-desenvolvedor do sistema de Contas Nacionais e método de partidas dobradas macroeconômicas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leontief criou a Matriz Insumo-Produto; Stone e Kuznets são citados juntos no desenvolvimento da Contabilidade Nacional. (Nota: Embora Stone e Kuznets tenham trabalhos conjuntos/similares na origem, o texto atribui a evolução a ambos e especifica Leontief separadamente na nota 1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 3 – Desenvolvimento e Distribuição de Renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos básicos de análise econômica apresentados no início do capítulo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Crescimento Econômico", "Desenvolvimento Econômico", "Produto Per Capita"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Conceito amplo associado às condições de vida e qualidade de vida da população.", "Produção total do país dividida pelo número de habitantes (média).", "Ampliação quantitativa da produção de bens e serviços (evolução do PIB)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O crescimento é a ampliação quantitativa; o desenvolvimento engloba qualidade de vida; o produto per capita é a divisão da produção pela população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os componentes do IDH (Índice de Desenvolvimento Humano) aos indicadores utilizados para mensurá-los.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Indicador de Renda", "Indicador de Saúde/Longevidade", "Indicador de Educação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Expectativa de vida da população ao nascer.", "Média de anos de estudo (adultos) e expectativa de vida escolar (crianças).", "Renda nacional bruta per capita em dólares PPP (paridade de poder de compra)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O IDH é composto pela renda per capita PPP, longevidade medida pela expectativa de vida e educação medida por anos de estudo e escolaridade esperada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 14 e 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os instrumentos de mensuração da desigualdade às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Curva de Lorenz", "Índice de Gini", "Linha de Perfeita Igualdade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Reta diagonal que liga os pontos 0% e 100% no gráfico de distribuição.", "Gráfico que relaciona a porcentagem acumulada da população com a porcentagem acumulada da renda.", "Medida que varia de 0 a 1, calculada pela área entre a curva de distribuição real e a reta diagonal."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Curva de Lorenz relaciona população acumulada e renda acumulada; o Gini é o índice calculado a partir da área dessa curva; a linha de perfeita igualdade é a reta diagonal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 15 e 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os períodos históricos da economia brasileira às características da distribuição de renda observadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Milagre Econômico (anos 1970)", "Década Perdida (anos 1980)", "Anos 2000 (até 2015)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Período de estagflação onde a concentração aumentou pois os ricos tinham mecanismos de defesa contra a inflação.", "Fase de crescimento com redução da desigualdade, onde as classes menos abastadas tiveram melhora relativa maior.", "Crescimento acelerado com piora na distribuição, justificado pela 'Teoria do Bolo'."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos anos 70, houve a Teoria do Bolo (crescer para distribuir) com piora na distribuição; nos anos 80, a inflação protegeu os ricos e concentrou renda; nos anos 2000, houve redução da desigualdade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 17 e 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os diferentes conceitos e métricas de pobreza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pobreza Absoluta", "Linha de Pobreza Monetária", "Pobreza Multidimensional"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Definição baseada em um valor mínimo de renda (ex: US$ 1,90/dia ou valor de cesta básica).", "Avaliação que considera privações em diversas áreas simultaneamente, como saúde, educação e padrões de vida.", "Estado de carência em relação a indicadores mínimos associados às condições de vida."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pobreza absoluta é o estado de carência; a linha monetária define um valor de renda; a pobreza multidimensional combina várias privações além da renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 20 e 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as dimensões do conceito de desenvolvimento expandido às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Desenvolvimento Equitativo", "Desenvolvimento Sustentado", "Desenvolvimento Participativo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Definido por decisões que agreguem toda a comunidade envolvida nas estratégias de desenvolvimento.", "Atendimento das necessidades presentes sem comprometer as gerações futuras.", "Acesso a iguais oportunidades para que as pessoas se beneficiem dos frutos do crescimento."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equitativo refere-se a iguais oportunidades; sustentado refere-se a não comprometer gerações futuras; participativo refere-se ao envolvimento da comunidade nas decisões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 21 e 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os termos ligados à sustentabilidade e debates ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["ODS (Objetivos de Desenvolvimento Sustentável)", "Negacionistas Ambientais", "Ecologistas Políticos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Defendem mudanças radicais nos padrões de produção e consumo, questionando a tecnologia como única solução.", "Agenda global da ONU com 17 metas para 2030, incluindo erradicação da pobreza e ação climática.", "Acreditam em ciclos naturais e não veem necessidade de alterar radicalmente os padrões de vida."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODS são as metas da ONU/Agenda 2030; negacionistas não creem na necessidade de mudanças radicais; ecologistas políticos propõem mudanças profundas nos padrões de vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 5 - Inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os fenômenos de variação de preços às suas definições conceituais corretas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Deflação", "Inflação", "Aceleração Inflacionária", "Hiperinflação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Situação extrema onde a moeda perde a função de reserva de valor e meio de pagamento, levando à sua substituição.", "Aumento no ritmo de crescimento dos preços, onde as taxas se tornam cada vez mais altas ao longo do tempo.", "Aumento generalizado e contínuo no nível geral de preços.", "Variação negativa do nível geral de preços, onde os preços caem ao longo do tempo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"0": "3", "1": "2", "2": "1", "3": "0"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A deflação é a queda de preços; inflação é o aumento generalizado e contínuo; aceleração inflacionária ocorre quando a taxa de inflação sobe sucessivamente (ex: 10% para 15%); hiperinflação envolve a rejeição da moeda nacional devido à perda abrupta de poder de compra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 3 e 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os tipos de inflação às suas causas ou características principais descritas na teoria econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Inflação de Demanda", "Inflação de Custos", "Inflação Inercial"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Decorre de mecanismos de indexação (formais ou informais) que atrelam preços presentes à inflação passada.", "Ocorre quando há excesso de procura agregada em relação à produção disponível na economia.", "Resulta da elevação de preços de insumos, salários ou desvalorização cambial repassados aos preços finais."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inflação de demanda surge quando a procura supera a oferta; a inflação de custos deriva do aumento de insumos ou salários; a inflação inercial mantém-se estagnada devido à indexação que perpetua a inflação passada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as correntes de pensamento econômico citadas às suas visões sobre o diagnóstico ou combate à inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Corrente Monetarista", "Corrente Estruturalista (Cepalina)", "Corrente Fiscalista"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Atribui a inflação a problemas no processo de industrialização, como oferta agrícola insuficiente e oligopólios.", "Enfatiza políticas fiscais para eliminar o déficit público como prioridade no combate à inflação de demanda.", "Enfatiza o controle da expansão monetária e da emissão de moeda para combater a inflação."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monetaristas focam na política monetária; fiscalistas priorizam o ajuste fiscal. Estruturalistas associam a inflação a gargalos na industrialização e oferta agrícola (pontos de estrangulamento).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos da teoria estruturalista da inflação às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pontos de estrangulamento", "Mecanismos de propagação", "Choque de oferta"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Instrumentos que permitem repassar aumentos de custos aos preços, perpetuando a inflação.", "Elevação abrupta nos custos de produção decorrente da escassez de oferta de um bem essencial.", "Situação onde a oferta de um bem não pode ser ampliada a curto prazo para atender a demanda."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontos de estrangulamento são limitações de oferta a curto prazo; choques de oferta são as elevações de preço resultantes desses gargalos; mecanismos de propagação generalizam esses aumentos pela economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as consequências da inflação aos seus impactos específicos na economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Distorção na alocação de recursos", "Aumento dos custos de transação", "Efeito regressivo na distribuição de renda"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Perda de poder aquisitivo por agentes cujos rendimentos não acompanham o ritmo de subida dos preços.", "Perda da capacidade dos preços relativos de sinalizarem escassez e custos, afetando decisões de investimento.", "Gasto excessivo de tempo e recursos por empresas e famílias para pesquisar preços e renegociar contratos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inflação distorce preços relativos, prejudicando a alocação de recursos; aumenta custos de transação (pesquisa e remarcação); e piora a distribuição de renda ao prejudicar quem não consegue indexar seus ganhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os períodos históricos da economia brasileira ao comportamento da inflação descrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Décadas de 1980 e 1990", "Período 2000-2022", "Ano de 2015"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ano atípico no período recente com inflação próxima a 11%.", "Período marcado por inflação persistentemente elevada, com média anual superior a 500%.", "Fase de inflação mais moderada, com média anual em torno de 5,8%."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As décadas de 80/90 tiveram características de hiperinflação; o período pós-2000 teve média moderada de 5,8%; 2015 foi um ano de alta pontual (11%) no período recente.</t>
   </si>
 </sst>
 </file>
@@ -2884,10 +3286,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="117:170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A192" activeCellId="0" sqref="192:197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5350,732 +5752,706 @@
       <c r="J90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H91" s="0" t="s">
+      <c r="H91" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I91" s="0"/>
-      <c r="J91" s="0"/>
+      <c r="J91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H92" s="0" t="s">
+      <c r="H92" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I92" s="0"/>
-      <c r="J92" s="0"/>
+      <c r="J92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="H93" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I93" s="0"/>
-      <c r="J93" s="0"/>
+      <c r="J93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="H94" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="I94" s="0"/>
-      <c r="J94" s="0"/>
+      <c r="J94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="H95" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
+      <c r="J95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H96" s="0" t="s">
+      <c r="H96" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
+      <c r="J96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="H97" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
+      <c r="J97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H98" s="0" t="s">
+      <c r="H98" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I98" s="0"/>
-      <c r="J98" s="0"/>
+      <c r="J98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="H99" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
+      <c r="J99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H100" s="0" t="s">
+      <c r="H100" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
+      <c r="J100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H101" s="0" t="s">
+      <c r="H101" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
+      <c r="J101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H102" s="0" t="s">
+      <c r="H102" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
+      <c r="J102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H103" s="0" t="s">
+      <c r="H103" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
+      <c r="J103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="G104" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H104" s="0" t="s">
+      <c r="H104" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
+      <c r="J104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H105" s="0" t="s">
+      <c r="H105" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
+      <c r="J105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H106" s="0" t="s">
+      <c r="H106" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
+      <c r="J106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="H107" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
+      <c r="J107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="H108" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
+      <c r="J108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H109" s="0" t="s">
+      <c r="H109" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I109" s="0"/>
-      <c r="J109" s="0"/>
+      <c r="J109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H110" s="0" t="s">
+      <c r="H110" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
+      <c r="J110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H111" s="0" t="s">
+      <c r="H111" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="I111" s="0"/>
-      <c r="J111" s="0"/>
+      <c r="J111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H112" s="0" t="s">
+      <c r="H112" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="I112" s="0"/>
-      <c r="J112" s="0"/>
+      <c r="J112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H113" s="0" t="s">
+      <c r="H113" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="I113" s="0"/>
-      <c r="J113" s="0"/>
+      <c r="J113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H114" s="0" t="s">
+      <c r="H114" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="I114" s="0"/>
-      <c r="J114" s="0"/>
+      <c r="J114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="H115" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I115" s="0"/>
-      <c r="J115" s="0"/>
+      <c r="J115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H116" s="0" t="s">
+      <c r="H116" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="I116" s="0"/>
-      <c r="J116" s="0"/>
+      <c r="J116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -6102,8 +6478,7 @@
       <c r="H117" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="I117" s="0"/>
-      <c r="J117" s="0"/>
+      <c r="J117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
@@ -6130,8 +6505,7 @@
       <c r="H118" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="I118" s="0"/>
-      <c r="J118" s="0"/>
+      <c r="J118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
@@ -6158,8 +6532,7 @@
       <c r="H119" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="I119" s="0"/>
-      <c r="J119" s="0"/>
+      <c r="J119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
@@ -6186,8 +6559,7 @@
       <c r="H120" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="I120" s="0"/>
-      <c r="J120" s="0"/>
+      <c r="J120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -6214,8 +6586,7 @@
       <c r="H121" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="I121" s="0"/>
-      <c r="J121" s="0"/>
+      <c r="J121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
@@ -6242,8 +6613,7 @@
       <c r="H122" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="I122" s="0"/>
-      <c r="J122" s="0"/>
+      <c r="J122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
@@ -6270,8 +6640,7 @@
       <c r="H123" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="I123" s="0"/>
-      <c r="J123" s="0"/>
+      <c r="J123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
@@ -6298,8 +6667,7 @@
       <c r="H124" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="I124" s="0"/>
-      <c r="J124" s="0"/>
+      <c r="J124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -6326,8 +6694,7 @@
       <c r="H125" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="I125" s="0"/>
-      <c r="J125" s="0"/>
+      <c r="J125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
@@ -6354,8 +6721,7 @@
       <c r="H126" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="I126" s="0"/>
-      <c r="J126" s="0"/>
+      <c r="J126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
@@ -6382,8 +6748,7 @@
       <c r="H127" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="I127" s="0"/>
-      <c r="J127" s="0"/>
+      <c r="J127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
@@ -6410,8 +6775,7 @@
       <c r="H128" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="I128" s="0"/>
-      <c r="J128" s="0"/>
+      <c r="J128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
@@ -6438,8 +6802,7 @@
       <c r="H129" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="I129" s="0"/>
-      <c r="J129" s="0"/>
+      <c r="J129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
@@ -6466,8 +6829,7 @@
       <c r="H130" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I130" s="0"/>
-      <c r="J130" s="0"/>
+      <c r="J130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
@@ -6494,8 +6856,7 @@
       <c r="H131" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="I131" s="0"/>
-      <c r="J131" s="0"/>
+      <c r="J131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
@@ -6522,8 +6883,7 @@
       <c r="H132" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="I132" s="0"/>
-      <c r="J132" s="0"/>
+      <c r="J132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
@@ -6550,8 +6910,7 @@
       <c r="H133" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="I133" s="0"/>
-      <c r="J133" s="0"/>
+      <c r="J133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
@@ -6578,8 +6937,7 @@
       <c r="H134" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="I134" s="0"/>
-      <c r="J134" s="0"/>
+      <c r="J134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
@@ -6606,8 +6964,7 @@
       <c r="H135" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="I135" s="0"/>
-      <c r="J135" s="0"/>
+      <c r="J135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
@@ -6634,8 +6991,7 @@
       <c r="H136" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
+      <c r="J136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
@@ -6662,8 +7018,7 @@
       <c r="H137" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="I137" s="0"/>
-      <c r="J137" s="0"/>
+      <c r="J137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
@@ -6690,8 +7045,7 @@
       <c r="H138" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="I138" s="0"/>
-      <c r="J138" s="0"/>
+      <c r="J138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
@@ -6718,8 +7072,7 @@
       <c r="H139" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="I139" s="0"/>
-      <c r="J139" s="0"/>
+      <c r="J139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
@@ -6746,8 +7099,7 @@
       <c r="H140" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
+      <c r="J140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
@@ -6774,8 +7126,7 @@
       <c r="H141" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="I141" s="0"/>
-      <c r="J141" s="0"/>
+      <c r="J141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
@@ -6802,8 +7153,7 @@
       <c r="H142" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
+      <c r="J142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
@@ -6830,8 +7180,7 @@
       <c r="H143" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="I143" s="0"/>
-      <c r="J143" s="0"/>
+      <c r="J143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
@@ -6858,8 +7207,7 @@
       <c r="H144" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
+      <c r="J144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
@@ -6886,8 +7234,7 @@
       <c r="H145" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="I145" s="0"/>
-      <c r="J145" s="0"/>
+      <c r="J145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
@@ -6914,8 +7261,7 @@
       <c r="H146" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
+      <c r="J146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
@@ -6942,8 +7288,7 @@
       <c r="H147" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="I147" s="0"/>
-      <c r="J147" s="0"/>
+      <c r="J147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
@@ -6970,8 +7315,7 @@
       <c r="H148" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="I148" s="0"/>
-      <c r="J148" s="0"/>
+      <c r="J148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
@@ -6998,8 +7342,7 @@
       <c r="H149" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="I149" s="0"/>
-      <c r="J149" s="0"/>
+      <c r="J149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
@@ -7026,8 +7369,7 @@
       <c r="H150" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="I150" s="0"/>
-      <c r="J150" s="0"/>
+      <c r="J150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
@@ -7054,8 +7396,7 @@
       <c r="H151" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
+      <c r="J151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
@@ -7082,8 +7423,7 @@
       <c r="H152" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="I152" s="0"/>
-      <c r="J152" s="0"/>
+      <c r="J152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
@@ -7110,8 +7450,7 @@
       <c r="H153" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="I153" s="0"/>
-      <c r="J153" s="0"/>
+      <c r="J153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
@@ -7138,8 +7477,7 @@
       <c r="H154" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="I154" s="0"/>
-      <c r="J154" s="0"/>
+      <c r="J154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
@@ -7166,8 +7504,7 @@
       <c r="H155" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
+      <c r="J155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
@@ -7194,8 +7531,7 @@
       <c r="H156" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="I156" s="0"/>
-      <c r="J156" s="0"/>
+      <c r="J156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
@@ -7222,8 +7558,7 @@
       <c r="H157" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="I157" s="0"/>
-      <c r="J157" s="0"/>
+      <c r="J157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
@@ -7250,8 +7585,7 @@
       <c r="H158" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I158" s="0"/>
-      <c r="J158" s="0"/>
+      <c r="J158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
@@ -7278,8 +7612,7 @@
       <c r="H159" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="I159" s="0"/>
-      <c r="J159" s="0"/>
+      <c r="J159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
@@ -7306,8 +7639,7 @@
       <c r="H160" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="I160" s="0"/>
-      <c r="J160" s="0"/>
+      <c r="J160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -7334,8 +7666,7 @@
       <c r="H161" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="I161" s="0"/>
-      <c r="J161" s="0"/>
+      <c r="J161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
@@ -7362,8 +7693,7 @@
       <c r="H162" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
+      <c r="J162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
@@ -7390,8 +7720,7 @@
       <c r="H163" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
+      <c r="J163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
@@ -7418,8 +7747,7 @@
       <c r="H164" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="I164" s="0"/>
-      <c r="J164" s="0"/>
+      <c r="J164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
@@ -7446,8 +7774,7 @@
       <c r="H165" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="I165" s="0"/>
-      <c r="J165" s="0"/>
+      <c r="J165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
@@ -7474,8 +7801,7 @@
       <c r="H166" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="I166" s="0"/>
-      <c r="J166" s="0"/>
+      <c r="J166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
@@ -7502,8 +7828,7 @@
       <c r="H167" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="I167" s="0"/>
-      <c r="J167" s="0"/>
+      <c r="J167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
@@ -7530,8 +7855,7 @@
       <c r="H168" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="I168" s="0"/>
-      <c r="J168" s="0"/>
+      <c r="J168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
@@ -7558,8 +7882,7 @@
       <c r="H169" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="I169" s="0"/>
-      <c r="J169" s="0"/>
+      <c r="J169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
@@ -7586,8 +7909,742 @@
       <c r="H170" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="I170" s="0"/>
-      <c r="J170" s="0"/>
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="H192" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="I192" s="0"/>
+      <c r="J192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H193" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="I193" s="0"/>
+      <c r="J193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H194" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="I194" s="0"/>
+      <c r="J194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H195" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I195" s="0"/>
+      <c r="J195" s="0"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G196" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H196" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I196" s="0"/>
+      <c r="J196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H197" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I197" s="0"/>
+      <c r="J197" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1170">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -2968,7 +2968,35 @@
     <t xml:space="preserve">ODS são as metas da ONU/Agenda 2030; negacionistas não creem na necessidade de mudanças radicais; ecologistas políticos propõem mudanças profundas nos padrões de vida.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cap. 5 - Inflação</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap. 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inflação</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Relacione os fenômenos de variação de preços às suas definições conceituais corretas.</t>
@@ -3047,6 +3075,629 @@
   </si>
   <si>
     <t xml:space="preserve">As décadas de 80/90 tiveram características de hiperinflação; o período pós-2000 teve média moderada de 5,8%; 2015 foi um ano de alta pontual (11%) no período recente.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap. 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consumo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de bens de consumo às suas respectivas características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bens de consumo leves", "Bens de consumo duráveis", "Serviços"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Oferecem utilidade por um longo período, como refrigeração ou transporte.", "Prestação de atividades intangíveis, como educação ou reparos.", "Consumidos rapidamente, como alimentos e vestuário."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os bens leves são consumidos rapidamente; os duráveis oferecem serviços por longo período (ex: geladeira, carro); serviços são atividades como corte de cabelo e educação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 2, 4, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os autores e teorias econômicas aos seus principais postulados sobre o consumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Keynes (Lei Psicológica Fundamental)", "Ando e Modigliani (Ciclo de Vida)", "Milton Friedman (Renda Permanente)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["O consumo depende da renda média esperada ao longo da vida e não apenas da corrente.", "Indivíduos poupam quando jovens para manter o consumo na velhice.", "À medida que a renda aumenta, o consumo aumenta, mas não na mesma proporção."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keynes postula que o consumo aumenta com a renda, mas em menor magnitude; Ando-Modigliani focam na poupança durante a juventude para despoupança na velhice; Friedman divide a renda em permanente e transitória, focando na expectativa de longo prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os conceitos previdenciários e assistenciais às suas definições e lógicas de financiamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Previdência (Princípio da Seguridade)", "Assistência Social", "Sistema de Repartição Simples (SRS)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Transferência direta de renda da população ativa para a inativa (benefício definido).", "Proteção contra riscos previsíveis de queda de renda (ex: velhice), exigindo contribuição prévia.", "Fundamentada na solidariedade, destinada a quem não alcança renda mínima, independente de contribuição."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A previdência visa proteger contra riscos previsíveis e exige contribuição; a assistência baseia-se na solidariedade e não exige contribuição prévia; o SRS é a transferência direta dos ativos para os inativos no mesmo período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 7, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os efeitos da taxa de juros sobre as decisões de consumo e poupança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Efeito Substituição", "Efeito Riqueza (Juros)", "Taxa de Desconto"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Reflete a preferência temporal do indivíduo pelo consumo presente em relação ao futuro.", "O aumento dos juros eleva a renda de quem possui ativos financeiros, podendo aumentar o consumo.", "Juros altos encarecem o consumo presente, estimulando a poupança em detrimento do gasto atual."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O efeito substituição ocorre quando juros altos tornam o consumo presente caro; o efeito riqueza ocorre quando juros altos aumentam a renda dos poupadores; a taxa de desconto mede a preferência pelo presente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 4, 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos financeiros e de riqueza aos seus impactos no consumo agregado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Capital Humano", "Restrição ao Crédito", "Poupança Precaucionária"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Redução do consumo corrente decorrente de incertezas quanto à renda futura (ex: desemprego).", "Componente da riqueza baseado na expectativa de renda futura decorrente da qualificação.", "Situação em que o consumo é limitado pela renda corrente devido à impossibilidade de tomar empréstimos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital humano é a expectativa de renda futura baseada na qualificação; restrição ao crédito impede a antecipação de consumo, limitando-o à renda corrente; poupança precaucionária surge do medo ou incerteza sobre o futuro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 1, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 7 – Investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos básicos de investimento e suas características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Investimento (Econômico)", "Aplicação Financeira", "Volatilidade do Investimento"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Forma de alocação da poupança dos agentes no mercado financeiro.", "Costuma ser mais intensa que a do consumo, pois depende das expectativas futuras.", "Aquisição de bens de capital (máquinas, edifícios) para ampliar a capacidade produtiva."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O investimento econômico é a ampliação da capacidade produtiva; aplicação financeira é alocação de poupança; e o investimento é mais volátil que o consumo devido às expectativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos da teoria keynesiana de investimento às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Eficiência Marginal do Capital (EMgK)", "Preço de Demanda (PdI)", "Preço de Oferta (PoI)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Custo atual de produção ou aquisição de uma nova máquina.", "Taxa de desconto que iguala o preço de demanda ao preço de oferta.", "Valor presente do fluxo de receitas esperadas do investimento."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A EMgK é a taxa que iguala PdI e PoI; PdI é o valor presente das receitas futuras; PoI é o custo da máquina (oferta).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as classificações do mercado financeiro às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Mercado Monetário", "Financiamento Indireto", "Instrumentos de Participação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["O 'doador' de recursos participa dos resultados do negócio (renda variável).", "Segmento onde se realizam operações de curto prazo.", "Utiliza um intermediário (banco) que assume o risco do empréstimo junto ao poupador."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado monetário foca no curto prazo; financiamento indireto ocorre via bancos (sistema de crédito); instrumentos de participação envolvem renda variável/sócios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione a teoria do investimento e o mercado de ações aos seus mecanismos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Mercado Secundário", "q de Tobin &gt; 1", "Efeito das ações no crédito"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sinaliza que é mais barato criar uma empresa nova do que comprar uma existente, estimulando o investimento.", "A queda no preço das ações reduz o valor das garantias e do patrimônio, retraindo empréstimos.", "Local onde se transfere a propriedade de títulos sem canalizar recursos novos para o emissor."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado secundário apenas transfere propriedade; q de Tobin alto incentiva novos investimentos; valor das ações serve de garantia (colateral) para crédito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os modelos de sistema financeiro às suas características estruturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Modelo Americano", "Modelo Alemão", "Sistema Brasileiro (Histórico)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Predomínio de bancos comerciais com passivos de curto prazo e restrições a bancos universais.", "Predomínio do mercado de capitais e investidores institucionais.", "Predomínio de 'bancos universais' que participam da administração das empresas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O modelo americano foca no mercado de capitais; o alemão em bancos universais; o brasileiro é dominado por bancos comerciais de curto prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os desafios e soluções do financiamento de longo prazo no Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Descasamento de Prazos", "BNDES", "Funding Público (FGTS/PIS)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Instituição criada para suprir a falta de mecanismos privados de longo prazo.", "Fonte de poupança compulsória usada para garantir recursos estáveis para investimento.", "Risco gerado ao financiar projetos longos com passivos de curto prazo (depósitos à vista)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O descasamento ocorre ao usar depósitos à vista para empréstimos longos; o BNDES supre essa falha; o funding público (FGTS) proveu os recursos estáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 2, 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap. 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Política Fiscal</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as funções econômicas do governo às suas respectivas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Função Alocativa", "Função Distributiva", "Função Estabilizadora"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Manejo da política econômica para garantir emprego, crescimento e estabilidade de preços.", "Correção de falhas de mercado (externalidades, bens públicos) para eficiência.", "Transferência de renda entre grupos ou regiões via impostos e gastos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função alocativa corrige falhas de mercado; a distributiva foca na repartição de renda; a estabilizadora visa o controle macroeconômico (emprego/inflação).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os tipos de falhas de mercado às suas características descritas no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bens Públicos", "Externalidades", "Monopólios Naturais"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Impactos de uma ação sobre terceiros não transacionados pelo sistema de preços (ex: poluição).", "Situação onde o aumento da produção reduz o custo médio, exigindo regulação estatal.", "Consumo não excludente e não rival; o mercado não revela o preço corretamente."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens públicos são não rivais/excludentes; externalidades afetam terceiros fora do sistema de preços; monopólios naturais surgem de economias de escala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as classificações dos gastos públicos com seus exemplos e definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Despesas Correntes", "Despesas de Capital", "Transferências"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Investimentos em infraestrutura, instalações e amortização da dívida.", "Pagamentos sem contrapartida de serviços, como benefícios previdenciários e juros.", "Gastos com pessoal, encargos e custeio da manutenção dos serviços públicos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesas correntes cobrem custeio/pessoal; capital cobre investimentos; transferências são repasses sem contrapartida direta de bens/serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 5, 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos tributários às suas definições de incidência e estrutura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sistema Progressivo", "Impostos Indiretos", "Impostos Diretos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["O ônus econômico é transferido para um terceiro, incidindo sobre o preço das transações.", "O ônus é suportado pelo contribuinte, incidindo sobre renda e propriedade.", "A participação dos impostos na renda aumenta conforme a renda do indivíduo aumenta."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressividade implica taxas maiores para rendas maiores; indiretos incidem sobre preços/consumo; diretos incidem sobre a renda/patrimônio do contribuinte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 10, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os impostos e metodologias de cálculo às suas características específicas no Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["ICMS", "IPI", "Cálculo 'por dentro'"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Metodologia onde o imposto é calculado sobre o valor final de venda, elevando a alíquota efetiva.", "Imposto estadual sobre circulação, cuja disputa entre estados gera a 'guerra fiscal'.", "Imposto federal sobre produtos industrializados, usado para política industrial."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ICMS é estadual e sujeito à guerra fiscal; o IPI é federal e industrial; o cálculo 'por dentro' embute o imposto no preço final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 18, 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos de déficit e financiamento do setor público.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["NFSP Conceito Nominal", "NFSP Conceito Primário", "Carga Tributária Líquida"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Diferença entre a carga tributária bruta e as transferências (juros, subsídios, previdência).", "Inclui o déficit primário somado ao pagamento de juros nominais da dívida.", "Engloba apenas receitas e despesas não financeiras, excluindo os juros da dívida."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito nominal inclui juros (G-T+iB); o primário exclui juros (G-T); carga líquida desconta as transferências da arrecadação bruta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 2, 3, 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap. 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Política Monetária</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as funções clássicas da moeda às suas definições conceituais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Meio de troca", "Unidade de conta", "Reserva de valor"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Função que permite a mensuração da atividade econômica, servindo como denominador comum de valor.", "Capacidade de manter o poder de compra ao longo do tempo, dependendo da estabilidade de preços.", "Intermediário que elimina a necessidade de dupla coincidência de desejos nas transações."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O meio de troca elimina a necessidade de dupla coincidência; a unidade de conta serve como referência de valor; a reserva de valor transfere poder de compra para o futuro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os motivos da demanda por moeda (Keynes) aos seus determinantes principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Motivo Transação", "Motivo Precaução", "Motivo Especulação (Portfólio)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Retenção de moeda aguardando o melhor momento para adquirir títulos, dependendo inversamente da taxa de juros.", "Demanda decorrente da defasagem entre recebimentos e pagamentos, dependendo diretamente da renda.", "Retenção de moeda para fazer frente a incertezas e infortúnios futuros."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O motivo transação depende da renda e dos gastos correntes; precaução foca na incerteza; especulação depende da taxa de juros (custo de oportunidade).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 14, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os agregados monetários e conceitos de oferta de moeda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Base Monetária", "M1 (Meios de Pagamento)", "Multiplicador Monetário"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ativos com liquidez absoluta, composto por papel-moeda em poder do público e depósitos à vista.", "Relação que indica quanto os meios de pagamento variam a partir de uma variação na base monetária.", "Soma do papel-moeda em poder do público e das reservas bancárias (High Powered Money)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A base monetária é a moeda primária (PMPP + Reservas); M1 são os ativos de liquidez absoluta; o multiplicador explica a expansão dos meios de pagamento via bancos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 19, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os instrumentos de política monetária aos seus mecanismos de funcionamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Reservas Compulsórias", "Taxa de Redesconto", "Open Market"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Compra e venda de títulos públicos pelo Banco Central para regular a liquidez diária.", "Parcela dos depósitos que os bancos devem recolher ao Bacen, afetando o multiplicador bancário.", "Custo dos empréstimos de assistência à liquidez concedidos pelo Bacen aos bancos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As reservas compulsórias limitam a capacidade de empréstimo dos bancos; o redesconto é a taxa do empréstimo de liquidez; open market é a compra/venda de títulos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 24, 25, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as teorias e regimes de taxa de juros às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Teoria dos Fundos Emprestáveis", "Preferência pela Liquidez", "Regime de Metas de Inflação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["A taxa de juros é determinada pelo equilíbrio entre oferta e demanda de moeda, dada a renda.", "Sistema onde o Bacen utiliza a taxa de juros para atingir um objetivo explícito de variação de preços.", "A taxa de juros é o preço que equilibra a oferta de poupança e a demanda por investimento."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundos emprestáveis focam em poupança/investimento (fluxos reais); preferência pela liquidez foca no mercado monetário; metas de inflação usam os juros como instrumento principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 32, 33, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos de taxas de juros e correção monetária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Taxa de Juros Real", "Operações Pós-fixadas", "Taxa de Juros Nominal"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Modalidade onde se define o ganho real ex ante, mas a taxa nominal só é conhecida após a verificação da inflação.", "Ganho monetário da aplicação, sem descontar a perda inflacionária.", "Corresponde à taxa nominal descontada a taxa de inflação do período."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa real desconta a inflação; a nominal é o valor facial; pós-fixadas garantem o ganho real corrigindo o nominal pela inflação passada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 7, 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Setor Externo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as contas do Balanço de Pagamentos aos seus respectivos componentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Balança Comercial", "Renda Primária", "Conta Financeira"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Registra os fluxos de ativos e passivos, como Investimentos Diretos e em Carteira.", "Registra exportações e importações de mercadorias (bens tangíveis).", "Engloba a remuneração de fatores, como juros, lucros, dividendos e salários."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Balança Comercial trata de bens (mercadorias); a Renda Primária trata da remuneração de capital e trabalho (juros/lucros); a Conta Financeira trata dos fluxos de capital e investimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 17, 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os regimes cambiais às suas características de funcionamento e intervenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Câmbio Fixo", "Câmbio Flutuante", "Flutuação Suja (Dirty Floating)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["O preço da moeda oscila livremente conforme oferta e demanda, sem meta de reservas.", "Regime onde o mercado atua, mas o Bacen intervém pontualmente para reduzir volatilidade.", "O Banco Central intervém comprando ou vendendo divisas para manter a taxa em um valor predeterminado."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No câmbio fixo, o Bacen garante a paridade; no flutuante, o mercado define o preço; na flutuação suja, há intervenções pontuais do Bacen em um regime de mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 30, 31, 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as teorias do comércio internacional aos seus principais autores e premissas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["David Ricardo (Vantagens Comparativas)", "Heckscher-Ohlin (Teoria Moderna)", "Raul Prebisch (Estruturalismo)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Critica a divisão internacional do trabalho, apontando a deterioração dos termos de troca para países primário-exportadores.", "Baseia-se nas diferenças de produtividade do trabalho (tecnologia) entre países.", "Explica o comércio pela dotação relativa de fatores de produção (abundância de capital ou trabalho)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo foca na produtividade do trabalho; Heckscher-Ohlin na dotação de fatores (K e L); Prebisch critica o modelo clássico via deterioração dos termos de troca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 33, 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos e paradoxos da teoria do comércio internacional às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Paradoxo de Leontieff", "Ciclo do Produto (Vernon)", "Comércio Intraindustrial"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Troca de produtos semelhantes entre países com dotação de recursos e demandas parecidas.", "Constatação empírica de que os EUA, ricos em capital, exportavam bens intensivos em trabalho.", "Explica a mudança do local de produção de bens inovadores para países menos desenvolvidos após padronização."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leontieff encontrou resultados opostos ao previsto por Heckscher-Ohlin; Vernon foca na inovação e padronização; comércio intraindustrial ocorre entre economias similares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 25, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os determinantes da taxa de câmbio aos seus conceitos teóricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Paridade do Poder de Compra (PPC)", "Arbitragem de Juros (Curto Prazo)", "Ataque Especulativo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Fluxo de capitais baseado no diferencial de juros interno e externo e na expectativa cambial.", "Saída massiva de recursos gerada pela desconfiança na manutenção do valor da moeda.", "Teoria de longo prazo onde a taxa de câmbio reflete a diferença entre as inflações interna e externa."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A PPC relaciona câmbio e preços (inflação); a arbitragem busca ganho financeiro imediato via juros; ataque especulativo é a fuga de capitais por desconfiança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 2, 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap.19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os períodos históricos às características da atuação estatal descritas no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["República Velha", "Estado Novo / Pós-1930", "Governos Militares"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Atuação como Estado produtor, regulamentador (CLT) e financiador da industrialização.", "Dinamização dos espaços de atuação com criação de grandes holdings e do BNH.", "Política de defesa do café e concessões com garantia de juros."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A República Velha focou na defesa do café e garantia de juros; Pós-1930 marcou o início do Estado produtor e regulamentador; Governos Militares dinamizaram essas funções e criaram o BNH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 4, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as formas de atuação do Estado no processo de industrialização às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estado Condutor", "Estado Regulamentador", "Estado Produtor"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Mediação de conflitos intercapitalistas e trabalhistas (criação da Justiça do Trabalho).", "Estatização de serviços públicos e produção de bens intermediários (ex: CSN, Vale).", "Uso de política cambial, tarifária e creditícia para promover a industrialização."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Condutor usa política econômica; Regulamentador gere conflitos (trabalho/capital); Produtor atua diretamente na produção via estatais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os modelos de provisão de serviços públicos às suas características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Modelo Norte-Americano", "Modelo Europeu", "Bens Públicos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bens caracterizados pela não rivalidade e não excludência no consumo.", "Empresas privadas regidas por regulação e controle estatal.", "Fornecimento de serviços por empresas públicas ou estatais, predominante no pós-guerra."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O modelo norte-americano baseia-se em empresas privadas reguladas; o europeu em estatais; bens públicos são não rivais/excludentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as fases do processo de privatização no Brasil aos tipos de empresas vendidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Fase 1981-1989 (Reprivatização)", "Fase 1991-1994 (PND Inicial)", "Fase Pós-1995"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Foco em siderurgia, petroquímica e fertilizantes (ex: Usiminas).", "Inclusão de concessões de serviços públicos, bancos estaduais e telecomunicações.", "Venda de empresas que haviam sido estatizadas por estarem falidas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos anos 80 houve reprivatização; o início do PND (Collor/Itamar) focou na indústria de base; pós-1995 focou em serviços públicos e telecom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 13, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os argumentos a favor da privatização aos problemas identificados nas estatais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ineficiência Operacional", "Crise Fiscal", "Avanço Tecnológico"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Necessidade de receitas para abater a dívida e incapacidade de investimento estatal.", "Novas tecnologias permitem desmembramento de atividades e concorrência em setores antes monopolistas.", "Baixa qualidade dos serviços, deterioração física e ingerência política."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ineficiência liga-se à baixa qualidade; a crise fiscal à falta de capacidade de investimento; o avanço tecnológico permite superar monopólios naturais.</t>
   </si>
 </sst>
 </file>
@@ -3057,7 +3708,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3087,6 +3738,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3138,7 +3808,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3161,6 +3831,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3286,10 +3960,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A192" activeCellId="0" sqref="192:197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C221" activeCellId="0" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3297,7 +3971,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="44.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="86.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="70.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="78.92"/>
@@ -8289,7 +8963,7 @@
       </c>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>875</v>
       </c>
@@ -8316,7 +8990,7 @@
       </c>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>875</v>
       </c>
@@ -8343,7 +9017,7 @@
       </c>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>875</v>
       </c>
@@ -8370,7 +9044,7 @@
       </c>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>875</v>
       </c>
@@ -8397,7 +9071,7 @@
       </c>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>875</v>
       </c>
@@ -8424,7 +9098,7 @@
       </c>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>875</v>
       </c>
@@ -8451,7 +9125,7 @@
       </c>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>875</v>
       </c>
@@ -8478,173 +9152,1091 @@
       </c>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+    <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E192" s="0" t="s">
+      <c r="E192" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="F192" s="0" t="s">
+      <c r="F192" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="G192" s="0" t="s">
+      <c r="G192" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="H192" s="0" t="s">
+      <c r="H192" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="I192" s="0"/>
-      <c r="J192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="E193" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="F193" s="0" t="s">
+      <c r="F193" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="G193" s="0" t="s">
+      <c r="G193" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H193" s="0" t="s">
+      <c r="H193" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="I193" s="0"/>
-      <c r="J193" s="0"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="E194" s="0" t="s">
+      <c r="E194" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="F194" s="0" t="s">
+      <c r="F194" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="G194" s="0" t="s">
+      <c r="G194" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H194" s="0" t="s">
+      <c r="H194" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="I194" s="0"/>
-      <c r="J194" s="0"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E195" s="0" t="s">
+      <c r="E195" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="F195" s="0" t="s">
+      <c r="F195" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="G195" s="0" t="s">
+      <c r="G195" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H195" s="0" t="s">
+      <c r="H195" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="I195" s="0"/>
-      <c r="J195" s="0"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="E196" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="F196" s="0" t="s">
+      <c r="F196" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="G196" s="0" t="s">
+      <c r="G196" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H196" s="0" t="s">
+      <c r="H196" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="I196" s="0"/>
-      <c r="J196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="E197" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="G197" s="0" t="s">
+      <c r="G197" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H197" s="0" t="s">
+      <c r="H197" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="I197" s="0"/>
-      <c r="J197" s="0"/>
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H198" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I198" s="0"/>
+      <c r="J198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H199" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I199" s="0"/>
+      <c r="J199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H200" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I200" s="0"/>
+      <c r="J200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H201" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I201" s="0"/>
+      <c r="J201" s="0"/>
+    </row>
+    <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I202" s="0"/>
+      <c r="J202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H203" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I203" s="0"/>
+      <c r="J203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G204" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H204" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I204" s="0"/>
+      <c r="J204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H205" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I205" s="0"/>
+      <c r="J205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H206" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I206" s="0"/>
+      <c r="J206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H207" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I207" s="0"/>
+      <c r="J207" s="0"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H208" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I208" s="0"/>
+      <c r="J208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H209" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I209" s="0"/>
+      <c r="J209" s="0"/>
+    </row>
+    <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H210" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I210" s="0"/>
+      <c r="J210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H211" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I211" s="0"/>
+      <c r="J211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H212" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I212" s="0"/>
+      <c r="J212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H213" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I213" s="0"/>
+      <c r="J213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H214" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I214" s="0"/>
+      <c r="J214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H215" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I215" s="0"/>
+      <c r="J215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H216" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I216" s="0"/>
+      <c r="J216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H217" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I217" s="0"/>
+      <c r="J217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H218" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I218" s="0"/>
+      <c r="J218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H219" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I219" s="0"/>
+      <c r="J219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H220" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I220" s="0"/>
+      <c r="J220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H221" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I221" s="0"/>
+      <c r="J221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H222" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I222" s="0"/>
+      <c r="J222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H223" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I223" s="0"/>
+      <c r="J223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H224" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I224" s="0"/>
+      <c r="J224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G225" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H225" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I225" s="0"/>
+      <c r="J225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H226" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I226" s="0"/>
+      <c r="J226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G227" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H227" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I227" s="0"/>
+      <c r="J227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H228" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I228" s="0"/>
+      <c r="J228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H229" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I229" s="0"/>
+      <c r="J229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G230" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H230" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I230" s="0"/>
+      <c r="J230" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$179</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1746">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -4709,6 +4709,558 @@
   </si>
   <si>
     <t xml:space="preserve">Narcoterrorismo liga tráfico e terrorismo (Pág. 436). Cibervandalismo refere-se a danos por hackers (Pág. 439). Ciberespionagem envolve roubo de riqueza e propriedade intelectual (Pág. 439).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os elementos da dinâmica estratégica (FINS-MANEIRAS-MEIOS) aos seus correspondentes no Conceito Estratégico da Marinha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["FINS (ENDS)", "MANEIRAS (WAYS)", "MEIOS (MEANS)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Posturas Estratégicas", "Capacidades Estratégicas", "Objetivos Estratégicos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a dinâmica estratégica apresentada: os FINS associam-se aos Objetivos Estratégicos; as MANEIRAS às Posturas Estratégicas; e os MEIOS às Capacidades Estratégicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os Objetivos Estratégicos (OBE) da Marinha às suas respectivas descrições ou focos principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["OBE 1", "OBE 3", "OBE 4"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Garantir o tráfego marítimo vital e a proteção da carga transportada", "Sobrepujar as ameaças estatais aos interesses nacionais", "Proteger as Infraestruturas Críticas do Poder Marítimo (ICPM)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O OBE 1 foca em sobrepujar ameaças estatais; o OBE 3 foca na proteção das ICPM como portos e plataformas; o OBE 4 visa preservar as Linhas de Comunicação Marítimas (LCM) e o tráfego vital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 13-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as Posturas Estratégicas adotadas pela Marinha do Brasil às suas definições conceituais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Persuasão", "Cooperação", "Coerção"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Uso majoritário de recursos de ameaça do uso da força para desencorajar o antagonista", "Predomínio do uso do diálogo e da força do argumento", "Apoio a outra Força ou órgão em situação específica, permitindo concessões"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Persuasão busca objetivos com a força do argumento; a Cooperação caracteriza-se pelo apoio a outra força ou órgão; a Coerção usa a ameaça do uso da força para influenciar o custo-benefício do antagonista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os Campos de Atuação ou áreas geográficas à Postura Estratégica predominante recomendada no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Defesa Naval na Amazônia Azul", "Diplomacia Naval (Fóruns de interesse)", "Apoio às Ações do Estado"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Postura Cooperativa", "Postura Coercitiva", "Postura Persuasiva"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Defesa Naval na Amazônia Azul, a postura deve ser Coercitiva; na Diplomacia Naval, a postura deve ser Persuasiva nos fóruns de interesse; no Apoio às Ações do Estado, a postura deve ser Cooperativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 16-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as siglas das Prioridades Estratégicas aos exemplos de ações ou focos descritos no documento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Prioridade DEF (Defesa Naval)", "Prioridade SMA (Segurança Marítima)", "Prioridade DIP (Diplomacia Naval)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Influenciar nas questões marítimas afetas ao Golfo da Guiné", "Ampliar a cooperação com o Exército Brasileiro (EB) nas áreas de fronteira", "Ampliar a consciência situacional nas LCF da Bacia Amazônica"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As prioridades de Defesa (DEF) incluem ampliar cooperação com o EB (DEF2); as de Segurança Marítima (SMA) incluem ampliar consciência situacional nas LCF (SMA1); as de Diplomacia (DIP) incluem influenciar no Golfo da Guiné (DIP1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione a classificação de risco identificada na Análise de Risco aos eventos descritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Risco Crítico", "Risco Elevado", "Risco Baixo"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Desalinhamento da Diplomacia Naval com a Política Externa", "Interrupção do Projeto Estratégico do SCPN", "Incapacidade de prover Apoio Logístico adequado aos meios da Força Naval"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A interrupção do SCPN é classificada como Risco Crítico (R3); a incapacidade de prover Apoio Logístico é Risco Elevado (R8); o desalinhamento da Diplomacia Naval é Risco Baixo (R13).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 11, 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os Objetivos Estratégicos específicos aos seus contextos de atuação detalhados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["OBE 8 (Setor Nuclear)", "OBE 10 (Diplomacia Naval)", "OBE 11 (Antártica)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Apoio logístico às pesquisas e postura cooperativa na região", "Desenvolvimento do submarino convencionalmente armado com propulsão nuclear", "Promoção do Poder Nacional no exterior apoiando a Política Externa"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O OBE 8 foca no desenvolvimento do setor nuclear e do SCPN; o OBE 10 trata da Diplomacia Naval e apoio à Política Externa; o OBE 11 foca na defesa dos interesses na Antártica com apoio à pesquisa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as áreas operacionais ou funções às posturas e ações específicas descritas para a execução do Conceito Estratégico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bacia Platina (Hidrovia Paraguai-Paraná)", "Segurança da Navegação (Autoridade Marítima)", "Busca e Salvamento (SAR)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Aproveitamento da capilaridade das Capitanias até 50 MN da costa", "Adoção de Postura Coercitiva visando preservar as LCF", "Normatização, fiscalização e estabelecimento de auxílios à navegação"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Bacia Platina, adota-se Postura Coercitiva para preservar as LCF; a Segurança da Navegação envolve normatização e fiscalização; para SAR, utiliza-se a capilaridade das Capitanias para eventos até 50 MN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos de Preparo, Emprego e Capacidade às suas respectivas definições ou características no nível estratégico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Diretrizes Estratégicas de Preparo", "Diretrizes Estratégicas de Emprego", "Conceito de Capacidade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Orientações sobre o uso efetivo de capacidades existentes com atributos atendidos", "Materializada plenamente apenas quando todos os atributos DOPEMAI são atendidos", "Visam restabelecer capacidade degradada ou conceber e desenvolver nova capacidade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Diretrizes de Preparo focam em restabelecer ou criar capacidades; as de Emprego focam no uso de capacidades existentes; e a Capacidade depende do atendimento dos atributos DOPEMAI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os Eixos Temáticos e atributos às suas composições ou exemplos descritos nas Linhas de Esforço do Preparo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Eixo Poder de Combate", "Eixo Consciência Situacional", "Atributos da Capacidade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["SisGAAz, Meios de IVR e Capacidade Cibernética", "Doutrina, Organização, Pessoal, Educação, Material, Adestramento e Infraestrutura", "Navios, Submarinos, Meios de Minagem e Conectores do MNT"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder de Combate inclui navios, submarinos e minagem; a Consciência Situacional inclui SisGAAz e IVR; os atributos da capacidade são resumidos pelo acrônimo DOPEMAI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 31-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os meios ou capacidades específicas aos objetivos estratégicos ou funções para os quais são fundamentais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["SCPN (Submarino Nuclear)", "Capacidade de Minagem e CMM", "Conectores do MNT"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Manifestação do poder de combate sobre uma área terrestre de interesse", "Materialização do Poder de Combate necessário para adotar a Postura Coercitiva", "Defesa e proteção de infraestruturas críticas portuárias (Poder Econômico)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SCPN materializa o poder para a Postura Coercitiva; Minagem e CMM são essenciais para proteção de portos; Conectores do MNT permitem manifestar poder sobre área terrestre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as cooperações institucionais (sinergia) aos focos de atuação para otimizar o emprego dos meios atuais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Cooperação com o Exército (EB)", "Cooperação com a Força Aérea (FAB)", "Cooperação com o CENSIPAM"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ampliação da atuação em suas respectivas áreas de cobertura", "Foco na consciência situacional nas áreas ribeirinhas (Bacias Amazônica/Platina)", "Foco nos meios aéreos e espaciais de IVR na Amazônia Azul"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cooperação com o EB foca nas áreas ribeirinhas; com a FAB foca em meios aéreos/espaciais na Amazônia Azul; e com o CENSIPAM em suas áreas de cobertura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 35-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os temas operacionais às orientações estratégicas específicas para seu dimensionamento ou condução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Defesa de Ilhas Oceânicas", "Apoio à Defesa Civil e GLO", "Relações Internacionais (Entorno Estratégico)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Incremento da inserção no Golfo da Guiné em apoio ao fortalecimento da ZOPACAS", "Inserção nas Operações Correntes como recurso de aprestamento (enquanto não há arquitetura definida)", "Atendimento com capacidades já existentes, sem dimensionamento específico de Força"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilhas Oceânicas usam operações correntes para aprestamento; GLO/Defesa Civil usam capacidades existentes sem novo dimensionamento; Relações Internacionais focam no Golfo da Guiné/ZOPACAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 39-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os Elementos de Força aos efeitos estratégicos que são capazes de atingir, conforme o dimensionamento proposto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Força de Intervenção Marítima", "Força de Proteção Marítima", "Força de Projeção"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Defender/Retomar Ilhas Oceânicas e neutralizar alvos em terra", "Controle de Área Marítima de Interesse (ex: Foz do Amazonas) e Proteção de LCM", "Repressão à exploração não autorizada na Amazônia Azul e proteção de ICPM"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Força de Intervenção foca no controle de áreas e proteção de LCM; a Força de Proteção foca na repressão a ilícitos e proteção de ICPM; a Força de Projeção foca na defesa/retomada de ilhas e neutralização de alvos em terra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 37-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as categorias de classificação dos Elementos de Força (dimensionados, não dimensionados e definição) aos seus exemplos ou conceitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Elementos de Força Dimensionados", "Elementos de Força Não Dimensionados", "Conceito de Elemento de Força"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Conjunto de meios e sistemas doutrinariamente organizados para atingir um efeito", "Força de Intervenção Marítima, Força C5IVR e Força de Desgaste", "Força Ribeirinha, Força de Busca e Salvamento e Força de Diplomacia Naval"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Elementos Dimensionados incluem Intervenção e C5IVR; os Não Dimensionados incluem Ribeirinha e SAR; o conceito refere-se ao conjunto de meios que atingem um efeito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 41-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os Elementos de Força às suas capacidades específicas ou efeitos de negação/interrupção descritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Força de Guerra de Minas", "Força de Desgaste", "Força de Serviços Hidroceanográficos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Cumprimento de compromissos da vertente safety da Segurança Marítima", "Negação do uso de Área Marítima de Interesse via minagem defensiva", "Interrupção de Linhas de Comunicação Marítimas em porto no entorno estratégico"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Força de Guerra de Minas atua na negação via minagem defensiva; a Força de Desgaste busca interromper LCM no entorno estratégico; a Força Hidroceanográfica atua na vertente safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 42-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os sistemas ou Forças de apoio às suas funções primárias descritas no dimensionamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sistema SisGAAz (Força C5IVR)", "Força Logística de Combate", "Força de Apoio à Pesquisa Antártica"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Apoiar as Forças de Intervenção, Projeção e Desgaste em seus propósitos", "Contribuir para a relevância do país nos comitês científicos ligados ao tema", "Vigilância e monitoramento ativo em áreas como a Elevação do Rio Grande e Foz do Amazonas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SisGAAz realiza vigilância e monitoramento; a Força Logística apoia as forças de combate (Intervenção, Projeção, Desgaste); a Força Antártica apoia a pesquisa e relevância científica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 34, 35, 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os estrategistas navais clássicos às suas principais contribuições teóricas ou conceitos associados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Alfred T. Mahan", "Philip Colomb", "Julian Corbett"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Desenvolveu o conceito de 'Fleet-in-being' (esquadra em potência) e a ideia de dissuasão virtual.", "Enfatizou que as comunicações marítimas são o objetivo fundamental, e não apenas a frota inimiga.", "Defendeu a primazia da batalha decisiva e a destruição da força organizada inimiga para obter o domínio do mar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahan é conhecido pelo dogma da batalha decisiva e destruição da força inimiga,. Colomb desenvolveu o conceito de 'Fleet-in-being' onde a esquadra evita combate mas mantém capacidade de ataque. Corbett focou nas comunicações marítimas e na interdependência entre terra e mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as escolas de pensamento naval francesas do final do século XIX às suas características descritas no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Jeune École", "Escola Histórica", "Escola Material"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Designação dada à Jeune École por investir em tecnologia para compensar inferioridade numérica.", "Defendia o estudo do passado para evidenciar constantes estratégicas, como o fator moral.", "Preconizava a guerra de corso e o uso de torpedeiros em vez da busca pela batalha decisiva."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Jeune École focava na guerra de corso e torpedeiros. A Escola Histórica (neoclássica/mahaniana) baseava-se no estudo do passado e constantes estratégicas. A Escola Material é uma qualificação dada à Jeune École pelo seu foco tecnológico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 43, 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os teóricos da guerra, citados por Castex, às definições de seus perfis intelectuais e obras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Antoine Henri Jomini", "Carl Von Clausewitz", "Raoul Castex"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Autor pragmático que, embora influenciado pelos clássicos, evoluiu seu pensamento ao longo de décadas nas 'Théories stratégiques'.", "Qualificado como 'doutrinário', acreditava em princípios imutáveis e publicou o 'Précis de l'art de la guerre'.", "Qualificado como 'ideólogo', abordou a guerra sob ponto de vista filosófico, focando na fricção e incerteza."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jomini é descrito como doutrinário que buscava princípios para a vitória,. Clausewitz é o ideólogo que analisou a complexidade filosófica e a fricção da guerra,. Castex é caracterizado pelo pragmatismo e evolução de suas teorias ao longo do tempo,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 26, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as obras de Raoul Castex aos contextos ou ideias nelas apresentadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Les idées militaires de la marine au XVIII siècle", "Synthèse de la guerre sous-marine", "Théories stratégiques"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Obra magna em múltiplos tomos, considerada o mais amplo tratado de estratégia marítima, escrita ao longo de anos.", "Livro onde Castex se alinha à escola Mahaniana, afirmando a preeminência do fator intelectual sobre o material.", "Publicação pós-Grande Guerra (1920) onde Castex se distancia da corrente mahaniana pura."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 'Les idées...', Castex alinha-se a Mahan e destaca o fator intelectual. A 'Synthèse...' marca seu distanciamento de Mahan após a experiência com submarinos na guerra. 'Théories stratégiques' é sua obra principal e volumosa,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os autores do século XIX às suas visões específicas sobre a definição de estratégia no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Marie-Roche-Louis Reybaud", "Louis-Édouard Bouêt-Willaumez", "Cardeal Richelieu"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exemplo de 'estratégia instintiva' anterior à teorização formal do termo.", "Definiu precocemente que 'o mar é um caminho e não um campo de batalha'.", "Argumentava que a estratégia não tinha sentido preciso para esquadras devido à uniformidade do alto-mar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reybaud percebeu o mar como caminho. Bouêt-Willaumez achava que a estratégia não se aplicava ao mar pela falta de pontos fixos (influência da bússola). Richelieu praticava uma 'estratégia instintiva' antes da existência do termo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as visões sobre o mar apresentadas no texto aos seus contextos ou autores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Lapeyrousse-Bonfils", "Globalização", "Cardeal Richelieu (atribuído)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Traz consigo uma maritimização do mundo.", "Citação sobre lágrimas salgadas lembrando a negligência com o mar.", "Afirma que o mar oferece meio de desenvolver-se em proporções que ultrapassam o ponto de partida."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lapeyrousse-Bonfils destaca o desenvolvimento através do mar. O texto associa a globalização à maritimização. A frase sobre lágrimas salgadas é atribuída (talvez erroneamente) a Richelieu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 81, 82, 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os programas e estratégias da União Europeia às suas definições ou objetivos principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Crescimento Azul", "SSMUE", "EUROSUR"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estratégia de segurança marítima que visa preservar interesses da UE contra riscos e ameaças.", "Sistema europeu de vigilância das fronteiras externas para conter imigração ilegal e crime.", "Estratégia voltada para aquicultura, turismo costeiro, energia marinha e biotecnologia."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Crescimento Azul foca em atividades econômicas sustentáveis. SSMUE é a estratégia de segurança (sûreté). EUROSUR foca na vigilância de fronteiras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 84, 85, 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos do Direito do Mar às suas características descritas no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Mar Territorial", "Zona Econômica Exclusiva (ZEE)", "Alto Mar", "Terra Azul Nacional"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Conceito reivindicado pela China para tratar zonas econômicas como território soberano restrito.", "Área considerada 'res communis', pertencente à população mundial inteira.", "Faixa de 12 milhas onde o Estado costeiro exerce soberania plena.", "Área de 200 milhas onde o Estado tem monopólio dos recursos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Mar Territorial vai até 12 milhas. A ZEE vai até 200 milhas (monopólio de recursos). O Alto Mar é res communis. 'Terra Azul Nacional' é a interpretação excessiva chinesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 96, 99, 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os tipos de ameaças marítimas aos exemplos ou características citados no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Pirataria Moderna", "Terrorismo Marítimo", "Tráfico de Migrantes"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ataques com motivação política, como o caso do USS Cole ou Superferry 14.", "Transita majoritariamente pela Líbia, utilizando embarcações frágeis.", "Possui dimensão econômica e evolui de banditismo costeiro para comunidades organizadas (ex: Somália)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pirataria tem viés econômico/criminoso. O terrorismo visa propósitos políticos (USS Cole). O tráfico de migrantes é exemplificado pela rota da Líbia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 87, 102, 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos estratégicos e operacionais às suas definições no contexto marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Infraestruturação do mar", "Sea Basing", "A2/AD (Anti Access/Area Denial)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Conceito onde o mar serve como base conjunta avançada, substituindo instalações em terra.", "Uso do mar como obstáculo ou fosso protetor para impedir a aproximação do inimigo.", "Fenômeno que leva à 'sedentarização' e exige regulamentação de tráfego devido a plataformas e eólicas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A infraestruturação refere-se a construções fixas no mar. Sea Basing é a projeção a partir de uma base móvel no mar. A2/AD trata o mar como barreira defensiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 114, 115, 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os autores citados no texto aos conceitos de poder e estratégia por eles formulados ou atribuídos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Raymond Aron", "Joseph S. Nye", "Lucien Poirier"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Definiu estratégia como a ciência e a arte de manobrar forças (vias-e-meios) para cumprir os fins da política.", "Definiu poder como a capacidade de uma unidade política impor sua vontade a outras, distinguindo poder defensivo e ofensivo.", "Atribuem-se a ele as expressões 'Hard Power', 'Soft Power' e 'Smart Power' (espectro de poder)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aron define poder como imposição de vontade. Nye é associado aos conceitos de hard/soft/smart power. Poirier define estratégia como manobra de forças para fins políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 122, 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as subestratégias da estratégia marítima, conforme proposto no texto, às suas funções específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estratégia de riquezas", "Estratégia de meios", "Estratégia naval"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estratégia da ação a serviço da estratégia marítima.", "Vocação para desenvolver e explorar os recursos do mar (ex: Crescimento Azul).", "Encarrega-se de conceber, construir e conduzir os recursos materiais necessários."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia de riquezas foca na exploração econômica. A de meios foca na construção/aquisição. A naval é a estratégia da ação propriamente dita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os métodos estratégicos da tabela de estratégia operacional (baseada em Poirier) às suas características de emprego (virtual/real) e propósito (negativo/positivo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Dissuasão", "Defesa Ativa", "Persuasão (ou Pressão)", "Ofensiva (ou Agressão)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Emprego Real com Propósito Positivo (Coerção).", "Emprego Virtual com Propósito Negativo (Interdição).", "Emprego Real com Propósito Negativo (Interdição).", "Emprego Virtual com Propósito Positivo (Coerção)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissuasão é virtual/negativa. Defesa Ativa é real/negativa. Persuasão é virtual/positiva. Ofensiva é real/positiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os conceitos teóricos fundamentais discutidos no capítulo às suas definições baseadas em Castex e Poirier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Dependências", "Estratégia Integral", "Estratégia Geral Militar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Componente da estratégia geral que possui duas subdivisões: estratégia operacional e estratégia de meios.", "Ações e reações das diversas estratégias umas sobre as outras, derivadas da unidade da guerra.", "A estratégia que introduz a ação dentro da política ('a política em atos'), válida para guerra e paz."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependências referem-se às interações entre estratégias (Castex). Estratégia Integral é a política em atos (Poirier). Estratégia Geral Militar divide-se em operacional e de meios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 146, 148, 149, 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as missões estratégicas (Livros Brancos franceses) às suas descrições no contexto marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Conhecimento e Antecipação", "Prevenção", "Dissuasão", "Proteção"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Missão real com propósito negativo, focada na defesa das comunicações e da costa.", "Origem de todas as outras, engloba pesquisa, inteligência e vigilância (RMP).", "Estratégia virtual com propósito positivo, visa modificar o status quo (ex: crise de Cuba).", "Estratégia virtual com propósito negativo, visa manter o status quo (nuclear ou convencional)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conhecimento é a base. Prevenção visa modificar situação (virtual). Dissuasão visa manter situação (virtual). Proteção visa defesa (real).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 160, 161, 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos geográficos e estratégicos de Castex às suas respectivas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Geografia Horizontal", "Geografia Vertical", "Reação da terra sobre o mar"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Influência do poder terrestre, via aviação, atacando o poder marítimo.", "Configuração do litoral, posição das ilhas, faróis e distâncias.", "Exame da profundidade das águas, topografia dos fundos e propagação do som."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A geografia horizontal trata do litoral e posições; a vertical, dos fundos e águas; a reação da terra sobre o mar refere-se à vulnerabilidade naval ante a aviação (Castex).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as camadas do ciberespaço descritas no texto às suas características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Camada Física", "Camada Lógica", "Camada Cognitiva"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Espírito e inteligência dos internautas, semântica e sintaxe.", "Dados publicados, softwares, servidores WEB e sistemas de codificação.", "Infraestruturas, fibras óticas transoceânicas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A camada física envolve a infraestrutura; a lógica envolve dados e software; a cognitiva envolve o humano (internautas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 184, 185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as estratégias navais clássicas (Castex/Mahan) às suas definições operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Bloqueio Militar", "Esquadra em Potência", "Bloqueio Comercial"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Visa a interromper as comunicações marítimas do adversário para produzir efeito econômico.", "Esforço para pôr e conservar fora da disputa a força organizada inimiga (paralisar ou incitar batalha).", "Manter uma frota ativa e ameaçadora ('defensiva-ofensiva') sem engajar em batalha decisiva desfavorável."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloqueio militar foca na força inimiga; esquadra em potência visa manter a ameaça sem engajamento suicida; bloqueio comercial foca na economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 202, 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os tipos de diplomacia naval (tipologia de Coutau-Bégarie) às suas funções descritas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Diplomacia Simbólica", "Diplomacia de Rotina", "Diplomacia de Poder"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Visitas, manobras e manifestações navais ('mostrar o pavilhão').", "Papel clássico do navio de guerra visando influir em uma situação política.", "Afirmação da posição e dissuasão 'existencial'."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simbólica liga-se à dissuasão existencial. Rotina envolve visitas. Poder visa influência política direta em crises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 213, 214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de estratégia (sequencial e cumulativa) aos exemplos históricos citados no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estratégia Sequencial", "Estratégia Cumulativa", "A2/AD (Antiacesso/Negação de Área)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estratégia virtual que visa proibir o inimigo de operar em uma área (dissuasão), antes da vitória simétrica.", "Campanha da Normandia e marcha para Berlim (etapas articuladas onde uma exige o êxito da precedente).", "Guerra submarina alemã ou ataques à economia japonesa (soma de eventos independentes visando paralisia)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencial depende de etapas encadeadas (Aliados na Europa). Cumulativa soma eventos isolados (submarinos). A2/AD é descrita como estratégia virtual de interdição.</t>
   </si>
 </sst>
 </file>
@@ -4800,7 +5352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4825,6 +5377,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4838,15 +5394,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4858,124 +5414,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J319"/>
+  <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A252" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A273" activeCellId="0" sqref="A273:J319"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A350" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A357" activeCellId="0" sqref="357:373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.58"/>
@@ -4987,8 +5437,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="42.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10262,3476 +10710,4988 @@
       <c r="J195" s="1"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="E196" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="F196" s="0" t="s">
+      <c r="F196" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="G196" s="0" t="s">
+      <c r="G196" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H196" s="0" t="s">
+      <c r="H196" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="I196" s="0"/>
-      <c r="J196" s="0"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="E197" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="G197" s="0" t="s">
+      <c r="G197" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H197" s="0" t="s">
+      <c r="H197" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="I197" s="0"/>
-      <c r="J197" s="0"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="F198" s="0" t="s">
+      <c r="F198" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="G198" s="0" t="s">
+      <c r="G198" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H198" s="0" t="s">
+      <c r="H198" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="I198" s="0"/>
-      <c r="J198" s="0"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="E199" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="F199" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="G199" s="0" t="s">
+      <c r="G199" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H199" s="0" t="s">
+      <c r="H199" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="I199" s="0"/>
-      <c r="J199" s="0"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="D200" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="E200" s="0" t="s">
+      <c r="E200" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="F200" s="0" t="s">
+      <c r="F200" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="G200" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H200" s="0" t="s">
+      <c r="G200" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H200" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="I200" s="0"/>
-      <c r="J200" s="0"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="E201" s="0" t="s">
+      <c r="E201" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="F201" s="0" t="s">
+      <c r="F201" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="G201" s="0" t="s">
+      <c r="G201" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H201" s="0" t="s">
+      <c r="H201" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="I201" s="0"/>
-      <c r="J201" s="0"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="E202" s="0" t="s">
+      <c r="E202" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="F202" s="0" t="s">
+      <c r="F202" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="G202" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H202" s="0" t="s">
+      <c r="G202" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="I202" s="0"/>
-      <c r="J202" s="0"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="D203" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="E203" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="F203" s="0" t="s">
+      <c r="F203" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="G203" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H203" s="0" t="s">
+      <c r="G203" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="I203" s="0"/>
-      <c r="J203" s="0"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D204" s="0" t="s">
+      <c r="D204" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="E204" s="0" t="s">
+      <c r="E204" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="F204" s="0" t="s">
+      <c r="F204" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="G204" s="0" t="s">
+      <c r="G204" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H204" s="0" t="s">
+      <c r="H204" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="I204" s="0"/>
-      <c r="J204" s="0"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="E205" s="0" t="s">
+      <c r="E205" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="F205" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="G205" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H205" s="0" t="s">
+      <c r="G205" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="I205" s="0"/>
-      <c r="J205" s="0"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="D206" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="E206" s="0" t="s">
+      <c r="E206" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="F206" s="0" t="s">
+      <c r="F206" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="G206" s="0" t="s">
+      <c r="G206" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H206" s="0" t="s">
+      <c r="H206" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="I206" s="0"/>
-      <c r="J206" s="0"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="D207" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="E207" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="F207" s="0" t="s">
+      <c r="F207" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="G207" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H207" s="0" t="s">
+      <c r="G207" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="I207" s="0"/>
-      <c r="J207" s="0"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="D208" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="E208" s="0" t="s">
+      <c r="E208" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="F208" s="0" t="s">
+      <c r="F208" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="G208" s="0" t="s">
+      <c r="G208" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H208" s="0" t="s">
+      <c r="H208" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="I208" s="0"/>
-      <c r="J208" s="0"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="D209" s="0" t="s">
+      <c r="D209" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="E209" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="F209" s="0" t="s">
+      <c r="F209" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="G209" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H209" s="0" t="s">
+      <c r="G209" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H209" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="I209" s="0"/>
-      <c r="J209" s="0"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="D210" s="0" t="s">
+      <c r="D210" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="E210" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="F210" s="0" t="s">
+      <c r="F210" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="G210" s="0" t="s">
+      <c r="G210" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H210" s="0" t="s">
+      <c r="H210" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="I210" s="0"/>
-      <c r="J210" s="0"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D211" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="E211" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="F211" s="0" t="s">
+      <c r="F211" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="G211" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H211" s="0" t="s">
+      <c r="G211" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="I211" s="0"/>
-      <c r="J211" s="0"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D212" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="E212" s="0" t="s">
+      <c r="E212" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="F212" s="0" t="s">
+      <c r="F212" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="G212" s="0" t="s">
+      <c r="G212" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="H212" s="0" t="s">
+      <c r="H212" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="I212" s="0"/>
-      <c r="J212" s="0"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="D213" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="E213" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="F213" s="0" t="s">
+      <c r="F213" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="G213" s="0" t="s">
+      <c r="G213" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H213" s="0" t="s">
+      <c r="H213" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="I213" s="0"/>
-      <c r="J213" s="0"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="D214" s="0" t="s">
+      <c r="D214" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="E214" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="F214" s="0" t="s">
+      <c r="F214" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="G214" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H214" s="0" t="s">
+      <c r="G214" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="I214" s="0"/>
-      <c r="J214" s="0"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="E215" s="0" t="s">
+      <c r="E215" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="F215" s="0" t="s">
+      <c r="F215" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="G215" s="0" t="s">
+      <c r="G215" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="H215" s="0" t="s">
+      <c r="H215" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="I215" s="0"/>
-      <c r="J215" s="0"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="D216" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="E216" s="0" t="s">
+      <c r="E216" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="F216" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="G216" s="0" t="s">
+      <c r="G216" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H216" s="0" t="s">
+      <c r="H216" s="6" t="s">
         <v>1032</v>
       </c>
-      <c r="I216" s="0"/>
-      <c r="J216" s="0"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="D217" s="0" t="s">
+      <c r="D217" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="E217" s="0" t="s">
+      <c r="E217" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="F217" s="0" t="s">
+      <c r="F217" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="G217" s="0" t="s">
+      <c r="G217" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H217" s="0" t="s">
+      <c r="H217" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="I217" s="0"/>
-      <c r="J217" s="0"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="D218" s="0" t="s">
+      <c r="D218" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="E218" s="0" t="s">
+      <c r="E218" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="F218" s="0" t="s">
+      <c r="F218" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="G218" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H218" s="0" t="s">
+      <c r="G218" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H218" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="I218" s="0"/>
-      <c r="J218" s="0"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="E219" s="0" t="s">
+      <c r="E219" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="F219" s="0" t="s">
+      <c r="F219" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="G219" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H219" s="0" t="s">
+      <c r="G219" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="I219" s="0"/>
-      <c r="J219" s="0"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="D220" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E220" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="F220" s="0" t="s">
+      <c r="F220" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="G220" s="0" t="s">
+      <c r="G220" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H220" s="0" t="s">
+      <c r="H220" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="D221" s="0" t="s">
+      <c r="D221" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="E221" s="0" t="s">
+      <c r="E221" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="F221" s="0" t="s">
+      <c r="F221" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="G221" s="0" t="s">
+      <c r="G221" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H221" s="0" t="s">
+      <c r="H221" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="I221" s="0"/>
-      <c r="J221" s="0"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="E222" s="0" t="s">
+      <c r="E222" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="F222" s="0" t="s">
+      <c r="F222" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="G222" s="0" t="s">
+      <c r="G222" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H222" s="0" t="s">
+      <c r="H222" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="I222" s="0"/>
-      <c r="J222" s="0"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="D223" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="E223" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="F223" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="G223" s="0" t="s">
+      <c r="G223" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H223" s="0" t="s">
+      <c r="H223" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="I223" s="0"/>
-      <c r="J223" s="0"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="D224" s="0" t="s">
+      <c r="D224" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="E224" s="6" t="s">
         <v>1069</v>
       </c>
-      <c r="F224" s="0" t="s">
+      <c r="F224" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="G224" s="0" t="s">
+      <c r="G224" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H224" s="0" t="s">
+      <c r="H224" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="I224" s="0"/>
-      <c r="J224" s="0"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D225" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E225" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="F225" s="0" t="s">
+      <c r="F225" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="G225" s="0" t="s">
+      <c r="G225" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H225" s="0" t="s">
+      <c r="H225" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="I225" s="0"/>
-      <c r="J225" s="0"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="E226" s="0" t="s">
+      <c r="E226" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="F226" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="G226" s="0" t="s">
+      <c r="G226" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H226" s="0" t="s">
+      <c r="H226" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="I226" s="0"/>
-      <c r="J226" s="0"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="D227" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="E227" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="F227" s="0" t="s">
+      <c r="F227" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="G227" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H227" s="0" t="s">
+      <c r="G227" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H227" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="I227" s="0"/>
-      <c r="J227" s="0"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="D228" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="E228" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="F228" s="0" t="s">
+      <c r="F228" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="G228" s="0" t="s">
+      <c r="G228" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H228" s="0" t="s">
+      <c r="H228" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="I228" s="0"/>
-      <c r="J228" s="0"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="D229" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="E229" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="F229" s="0" t="s">
+      <c r="F229" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="G229" s="0" t="s">
+      <c r="G229" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H229" s="0" t="s">
+      <c r="H229" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="I229" s="0"/>
-      <c r="J229" s="0"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D230" s="0" t="s">
+      <c r="D230" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="E230" s="0" t="s">
+      <c r="E230" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="F230" s="0" t="s">
+      <c r="F230" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="G230" s="0" t="s">
+      <c r="G230" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H230" s="0" t="s">
+      <c r="H230" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="I230" s="0"/>
-      <c r="J230" s="0"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D231" s="0" t="s">
+      <c r="D231" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="E231" s="0" t="s">
+      <c r="E231" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="F231" s="0" t="s">
+      <c r="F231" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="G231" s="0" t="s">
+      <c r="G231" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H231" s="0" t="s">
+      <c r="H231" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="I231" s="0"/>
-      <c r="J231" s="0"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="6" t="s">
         <v>1109</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="D232" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="E232" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="F232" s="0" t="s">
+      <c r="F232" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="G232" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H232" s="0" t="s">
+      <c r="G232" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H232" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="I232" s="0"/>
-      <c r="J232" s="0"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D233" s="0" t="s">
+      <c r="D233" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="E233" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="F233" s="0" t="s">
+      <c r="F233" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="G233" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H233" s="0" t="s">
+      <c r="G233" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H233" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="I233" s="0"/>
-      <c r="J233" s="0"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="A234" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="D234" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="E234" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="F234" s="0" t="s">
+      <c r="F234" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="G234" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H234" s="0" t="s">
+      <c r="G234" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234" s="6" t="s">
         <v>1123</v>
       </c>
-      <c r="I234" s="0"/>
-      <c r="J234" s="0"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D235" s="0" t="s">
+      <c r="D235" s="6" t="s">
         <v>1125</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="E235" s="6" t="s">
         <v>1126</v>
       </c>
-      <c r="F235" s="0" t="s">
+      <c r="F235" s="6" t="s">
         <v>1127</v>
       </c>
-      <c r="G235" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H235" s="0" t="s">
+      <c r="G235" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H235" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="I235" s="0"/>
-      <c r="J235" s="0"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="D236" s="0" t="s">
+      <c r="D236" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="E236" s="0" t="s">
+      <c r="E236" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="F236" s="0" t="s">
+      <c r="F236" s="6" t="s">
         <v>1133</v>
       </c>
-      <c r="G236" s="0" t="s">
+      <c r="G236" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H236" s="0" t="s">
+      <c r="H236" s="6" t="s">
         <v>1134</v>
       </c>
-      <c r="I236" s="0"/>
-      <c r="J236" s="0"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="6" t="s">
         <v>1135</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="D237" s="0" t="s">
+      <c r="D237" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="E237" s="0" t="s">
+      <c r="E237" s="6" t="s">
         <v>1137</v>
       </c>
-      <c r="F237" s="0" t="s">
+      <c r="F237" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="G237" s="0" t="s">
+      <c r="G237" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H237" s="0" t="s">
+      <c r="H237" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="I237" s="0"/>
-      <c r="J237" s="0"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="D238" s="0" t="s">
+      <c r="D238" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="E238" s="0" t="s">
+      <c r="E238" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="F238" s="0" t="s">
+      <c r="F238" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="G238" s="0" t="s">
+      <c r="G238" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H238" s="0" t="s">
+      <c r="H238" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="I238" s="0"/>
-      <c r="J238" s="0"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="D239" s="0" t="s">
+      <c r="D239" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="E239" s="0" t="s">
+      <c r="E239" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="F239" s="0" t="s">
+      <c r="F239" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="G239" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H239" s="0" t="s">
+      <c r="G239" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H239" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="I239" s="0"/>
-      <c r="J239" s="0"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="D240" s="0" t="s">
+      <c r="D240" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="E240" s="0" t="s">
+      <c r="E240" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="F240" s="0" t="s">
+      <c r="F240" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="G240" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H240" s="0" t="s">
+      <c r="G240" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H240" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="I240" s="0"/>
-      <c r="J240" s="0"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="D241" s="0" t="s">
+      <c r="D241" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="E241" s="0" t="s">
+      <c r="E241" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="F241" s="0" t="s">
+      <c r="F241" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="G241" s="0" t="s">
+      <c r="G241" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H241" s="0" t="s">
+      <c r="H241" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="I241" s="0"/>
-      <c r="J241" s="0"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="A242" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C242" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="D242" s="0" t="s">
+      <c r="D242" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="E242" s="0" t="s">
+      <c r="E242" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="F242" s="0" t="s">
+      <c r="F242" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="G242" s="0" t="s">
+      <c r="G242" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H242" s="0" t="s">
+      <c r="H242" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="I242" s="0"/>
-      <c r="J242" s="0"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="D243" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="E243" s="0" t="s">
+      <c r="E243" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="F243" s="0" t="s">
+      <c r="F243" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="G243" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H243" s="0" t="s">
+      <c r="G243" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H243" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="I243" s="0"/>
-      <c r="J243" s="0"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="A244" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="C244" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="D244" s="0" t="s">
+      <c r="D244" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="E244" s="0" t="s">
+      <c r="E244" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="F244" s="0" t="s">
+      <c r="F244" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="G244" s="0" t="s">
+      <c r="G244" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H244" s="0" t="s">
+      <c r="H244" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="I244" s="0"/>
-      <c r="J244" s="0"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="A245" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="C245" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="D245" s="0" t="s">
+      <c r="D245" s="6" t="s">
         <v>1177</v>
       </c>
-      <c r="E245" s="0" t="s">
+      <c r="E245" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="F245" s="0" t="s">
+      <c r="F245" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="G245" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H245" s="0" t="s">
+      <c r="G245" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H245" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="I245" s="0"/>
-      <c r="J245" s="0"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="D246" s="0" t="s">
+      <c r="D246" s="6" t="s">
         <v>1183</v>
       </c>
-      <c r="E246" s="0" t="s">
+      <c r="E246" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="F246" s="0" t="s">
+      <c r="F246" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="G246" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H246" s="0" t="s">
+      <c r="G246" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H246" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="I246" s="0"/>
-      <c r="J246" s="0"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="D247" s="0" t="s">
+      <c r="D247" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="E247" s="0" t="s">
+      <c r="E247" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="F247" s="0" t="s">
+      <c r="F247" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="G247" s="0" t="s">
+      <c r="G247" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H247" s="0" t="s">
+      <c r="H247" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="I247" s="0"/>
-      <c r="J247" s="0"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="D248" s="0" t="s">
+      <c r="D248" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="E248" s="0" t="s">
+      <c r="E248" s="6" t="s">
         <v>1194</v>
       </c>
-      <c r="F248" s="0" t="s">
+      <c r="F248" s="6" t="s">
         <v>1195</v>
       </c>
-      <c r="G248" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H248" s="0" t="s">
+      <c r="G248" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="I248" s="0"/>
-      <c r="J248" s="0"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="D249" s="0" t="s">
+      <c r="D249" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="E249" s="0" t="s">
+      <c r="E249" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="F249" s="0" t="s">
+      <c r="F249" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="G249" s="0" t="s">
+      <c r="G249" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H249" s="0" t="s">
+      <c r="H249" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="I249" s="0"/>
-      <c r="J249" s="0"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+      <c r="A250" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C250" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="D250" s="0" t="s">
+      <c r="D250" s="6" t="s">
         <v>1203</v>
       </c>
-      <c r="E250" s="0" t="s">
+      <c r="E250" s="6" t="s">
         <v>1204</v>
       </c>
-      <c r="F250" s="0" t="s">
+      <c r="F250" s="6" t="s">
         <v>1205</v>
       </c>
-      <c r="G250" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H250" s="0" t="s">
+      <c r="G250" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="6" t="s">
         <v>1206</v>
       </c>
-      <c r="I250" s="0"/>
-      <c r="J250" s="0"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="6" t="s">
         <v>1207</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C251" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="D251" s="0" t="s">
+      <c r="D251" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="E251" s="0" t="s">
+      <c r="E251" s="6" t="s">
         <v>1210</v>
       </c>
-      <c r="F251" s="0" t="s">
+      <c r="F251" s="6" t="s">
         <v>1211</v>
       </c>
-      <c r="G251" s="0" t="s">
+      <c r="G251" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="H251" s="0" t="s">
+      <c r="H251" s="6" t="s">
         <v>1213</v>
       </c>
-      <c r="I251" s="0"/>
-      <c r="J251" s="0"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+      <c r="A252" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" s="6" t="s">
         <v>1214</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="D252" s="0" t="s">
+      <c r="D252" s="6" t="s">
         <v>1215</v>
       </c>
-      <c r="E252" s="0" t="s">
+      <c r="E252" s="6" t="s">
         <v>1216</v>
       </c>
-      <c r="F252" s="0" t="s">
+      <c r="F252" s="6" t="s">
         <v>1217</v>
       </c>
-      <c r="G252" s="0" t="s">
+      <c r="G252" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H252" s="0" t="s">
+      <c r="H252" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="I252" s="0"/>
-      <c r="J252" s="0"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" s="6" t="s">
         <v>1219</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="D253" s="0" t="s">
+      <c r="D253" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="E253" s="0" t="s">
+      <c r="E253" s="6" t="s">
         <v>1221</v>
       </c>
-      <c r="F253" s="0" t="s">
+      <c r="F253" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="G253" s="0" t="s">
+      <c r="G253" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H253" s="0" t="s">
+      <c r="H253" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="I253" s="0"/>
-      <c r="J253" s="0"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="A254" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C254" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="D254" s="0" t="s">
+      <c r="D254" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="E254" s="0" t="s">
+      <c r="E254" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="F254" s="0" t="s">
+      <c r="F254" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="G254" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H254" s="0" t="s">
+      <c r="G254" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H254" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="I254" s="0"/>
-      <c r="J254" s="0"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" s="6" t="s">
         <v>1229</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="C255" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="D255" s="0" t="s">
+      <c r="D255" s="6" t="s">
         <v>1230</v>
       </c>
-      <c r="E255" s="0" t="s">
+      <c r="E255" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="F255" s="0" t="s">
+      <c r="F255" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="G255" s="0" t="s">
+      <c r="G255" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H255" s="0" t="s">
+      <c r="H255" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="I255" s="0"/>
-      <c r="J255" s="0"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="A256" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C256" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="D256" s="0" t="s">
+      <c r="D256" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="E256" s="0" t="s">
+      <c r="E256" s="6" t="s">
         <v>1237</v>
       </c>
-      <c r="F256" s="0" t="s">
+      <c r="F256" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="G256" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H256" s="0" t="s">
+      <c r="G256" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H256" s="6" t="s">
         <v>1239</v>
       </c>
-      <c r="I256" s="0"/>
-      <c r="J256" s="0"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="A257" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="C257" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="D257" s="0" t="s">
+      <c r="D257" s="6" t="s">
         <v>1241</v>
       </c>
-      <c r="E257" s="0" t="s">
+      <c r="E257" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="F257" s="0" t="s">
+      <c r="F257" s="6" t="s">
         <v>1243</v>
       </c>
-      <c r="G257" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H257" s="0" t="s">
+      <c r="G257" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H257" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="I257" s="0"/>
-      <c r="J257" s="0"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="A258" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B258" s="6" t="s">
         <v>1245</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C258" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="D258" s="0" t="s">
+      <c r="D258" s="6" t="s">
         <v>1246</v>
       </c>
-      <c r="E258" s="0" t="s">
+      <c r="E258" s="6" t="s">
         <v>1247</v>
       </c>
-      <c r="F258" s="0" t="s">
+      <c r="F258" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="G258" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H258" s="0" t="s">
+      <c r="G258" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H258" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="I258" s="0"/>
-      <c r="J258" s="0"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="A259" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" s="6" t="s">
         <v>1250</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C259" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="D259" s="0" t="s">
+      <c r="D259" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="E259" s="0" t="s">
+      <c r="E259" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="F259" s="0" t="s">
+      <c r="F259" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="G259" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H259" s="0" t="s">
+      <c r="G259" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H259" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="I259" s="0"/>
-      <c r="J259" s="0"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="A260" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="B260" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="C260" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="D260" s="0" t="s">
+      <c r="D260" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="E260" s="0" t="s">
+      <c r="E260" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="F260" s="0" t="s">
+      <c r="F260" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="G260" s="0" t="s">
+      <c r="G260" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H260" s="0" t="s">
+      <c r="H260" s="6" t="s">
         <v>1259</v>
       </c>
-      <c r="I260" s="0"/>
-      <c r="J260" s="0"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="A261" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C261" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="D261" s="0" t="s">
+      <c r="D261" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="E261" s="0" t="s">
+      <c r="E261" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="F261" s="0" t="s">
+      <c r="F261" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="G261" s="0" t="s">
+      <c r="G261" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H261" s="0" t="s">
+      <c r="H261" s="6" t="s">
         <v>1265</v>
       </c>
-      <c r="I261" s="0"/>
-      <c r="J261" s="0"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="A262" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="B262" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="C262" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="D262" s="0" t="s">
+      <c r="D262" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="E262" s="0" t="s">
+      <c r="E262" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="F262" s="0" t="s">
+      <c r="F262" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G262" s="0" t="s">
+      <c r="G262" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H262" s="0" t="s">
+      <c r="H262" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="I262" s="0"/>
-      <c r="J262" s="0"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="6" t="s">
         <v>1271</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="D263" s="0" t="s">
+      <c r="D263" s="6" t="s">
         <v>1272</v>
       </c>
-      <c r="E263" s="0" t="s">
+      <c r="E263" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="F263" s="0" t="s">
+      <c r="F263" s="6" t="s">
         <v>1274</v>
       </c>
-      <c r="G263" s="0" t="s">
+      <c r="G263" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H263" s="0" t="s">
+      <c r="H263" s="6" t="s">
         <v>1275</v>
       </c>
-      <c r="I263" s="0"/>
-      <c r="J263" s="0"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="A264" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="B264" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="C264" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="D264" s="0" t="s">
+      <c r="D264" s="6" t="s">
         <v>1276</v>
       </c>
-      <c r="E264" s="0" t="s">
+      <c r="E264" s="6" t="s">
         <v>1277</v>
       </c>
-      <c r="F264" s="0" t="s">
+      <c r="F264" s="6" t="s">
         <v>1278</v>
       </c>
-      <c r="G264" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H264" s="0" t="s">
+      <c r="G264" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H264" s="6" t="s">
         <v>1279</v>
       </c>
-      <c r="I264" s="0"/>
-      <c r="J264" s="0"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="A265" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="B265" s="6" t="s">
         <v>1280</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="C265" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="D265" s="0" t="s">
+      <c r="D265" s="6" t="s">
         <v>1281</v>
       </c>
-      <c r="E265" s="0" t="s">
+      <c r="E265" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="F265" s="0" t="s">
+      <c r="F265" s="6" t="s">
         <v>1283</v>
       </c>
-      <c r="G265" s="0" t="s">
+      <c r="G265" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H265" s="0" t="s">
+      <c r="H265" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="I265" s="0"/>
-      <c r="J265" s="0"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="A266" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="B266" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="C266" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D266" s="0" t="s">
+      <c r="D266" s="6" t="s">
         <v>1286</v>
       </c>
-      <c r="E266" s="0" t="s">
+      <c r="E266" s="6" t="s">
         <v>1287</v>
       </c>
-      <c r="F266" s="0" t="s">
+      <c r="F266" s="6" t="s">
         <v>1288</v>
       </c>
-      <c r="G266" s="0" t="s">
+      <c r="G266" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H266" s="0" t="s">
+      <c r="H266" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="I266" s="0"/>
-      <c r="J266" s="0"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+      <c r="A267" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="B267" s="6" t="s">
         <v>1290</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C267" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D267" s="0" t="s">
+      <c r="D267" s="6" t="s">
         <v>1291</v>
       </c>
-      <c r="E267" s="0" t="s">
+      <c r="E267" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="F267" s="0" t="s">
+      <c r="F267" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="G267" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H267" s="0" t="s">
+      <c r="G267" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H267" s="6" t="s">
         <v>1294</v>
       </c>
-      <c r="I267" s="0"/>
-      <c r="J267" s="0"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="A268" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B268" s="6" t="s">
         <v>1295</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D268" s="0" t="s">
+      <c r="D268" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="E268" s="0" t="s">
+      <c r="E268" s="6" t="s">
         <v>1297</v>
       </c>
-      <c r="F268" s="0" t="s">
+      <c r="F268" s="6" t="s">
         <v>1298</v>
       </c>
-      <c r="G268" s="0" t="s">
+      <c r="G268" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H268" s="0" t="s">
+      <c r="H268" s="6" t="s">
         <v>1299</v>
       </c>
-      <c r="I268" s="0"/>
-      <c r="J268" s="0"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="A269" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="B269" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="C269" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D269" s="0" t="s">
+      <c r="D269" s="6" t="s">
         <v>1301</v>
       </c>
-      <c r="E269" s="0" t="s">
+      <c r="E269" s="6" t="s">
         <v>1302</v>
       </c>
-      <c r="F269" s="0" t="s">
+      <c r="F269" s="6" t="s">
         <v>1303</v>
       </c>
-      <c r="G269" s="0" t="s">
+      <c r="G269" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H269" s="0" t="s">
+      <c r="H269" s="6" t="s">
         <v>1304</v>
       </c>
-      <c r="I269" s="0"/>
-      <c r="J269" s="0"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="A270" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="B270" s="6" t="s">
         <v>1305</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="C270" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D270" s="0" t="s">
+      <c r="D270" s="6" t="s">
         <v>1306</v>
       </c>
-      <c r="E270" s="0" t="s">
+      <c r="E270" s="6" t="s">
         <v>1307</v>
       </c>
-      <c r="F270" s="0" t="s">
+      <c r="F270" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="G270" s="0" t="s">
+      <c r="G270" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H270" s="0" t="s">
+      <c r="H270" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="I270" s="0"/>
-      <c r="J270" s="0"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="A271" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" s="6" t="s">
         <v>1310</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="C271" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D271" s="0" t="s">
+      <c r="D271" s="6" t="s">
         <v>1311</v>
       </c>
-      <c r="E271" s="0" t="s">
+      <c r="E271" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="F271" s="0" t="s">
+      <c r="F271" s="6" t="s">
         <v>1313</v>
       </c>
-      <c r="G271" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H271" s="0" t="s">
+      <c r="G271" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" s="6" t="s">
         <v>1314</v>
       </c>
-      <c r="I271" s="0"/>
-      <c r="J271" s="0"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="A272" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="B272" s="6" t="s">
         <v>1315</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="C272" s="6" t="s">
         <v>1285</v>
       </c>
-      <c r="D272" s="0" t="s">
+      <c r="D272" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="E272" s="0" t="s">
+      <c r="E272" s="6" t="s">
         <v>1317</v>
       </c>
-      <c r="F272" s="0" t="s">
+      <c r="F272" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="G272" s="0" t="s">
+      <c r="G272" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H272" s="0" t="s">
+      <c r="H272" s="6" t="s">
         <v>1319</v>
       </c>
-      <c r="I272" s="0"/>
-      <c r="J272" s="0"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="A273" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="B273" s="6" t="s">
         <v>1320</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="C273" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="D273" s="0" t="s">
+      <c r="D273" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="E273" s="0" t="s">
+      <c r="E273" s="6" t="s">
         <v>1323</v>
       </c>
-      <c r="F273" s="0" t="s">
+      <c r="F273" s="6" t="s">
         <v>1324</v>
       </c>
-      <c r="G273" s="0" t="s">
+      <c r="G273" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H273" s="0" t="s">
+      <c r="H273" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="I273" s="0"/>
-      <c r="J273" s="0"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="A274" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" s="6" t="s">
         <v>1326</v>
       </c>
-      <c r="C274" s="0" t="s">
+      <c r="C274" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="D274" s="0" t="s">
+      <c r="D274" s="6" t="s">
         <v>1327</v>
       </c>
-      <c r="E274" s="0" t="s">
+      <c r="E274" s="6" t="s">
         <v>1328</v>
       </c>
-      <c r="F274" s="0" t="s">
+      <c r="F274" s="6" t="s">
         <v>1329</v>
       </c>
-      <c r="G274" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H274" s="0" t="s">
+      <c r="G274" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H274" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="I274" s="0"/>
-      <c r="J274" s="0"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+      <c r="A275" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="B275" s="6" t="s">
         <v>1331</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="C275" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="D275" s="0" t="s">
+      <c r="D275" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="E275" s="0" t="s">
+      <c r="E275" s="6" t="s">
         <v>1333</v>
       </c>
-      <c r="F275" s="0" t="s">
+      <c r="F275" s="6" t="s">
         <v>1334</v>
       </c>
-      <c r="G275" s="0" t="s">
+      <c r="G275" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H275" s="0" t="s">
+      <c r="H275" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="I275" s="0"/>
-      <c r="J275" s="0"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="A276" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="B276" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="C276" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="D276" s="0" t="s">
+      <c r="D276" s="6" t="s">
         <v>1336</v>
       </c>
-      <c r="E276" s="0" t="s">
+      <c r="E276" s="6" t="s">
         <v>1337</v>
       </c>
-      <c r="F276" s="0" t="s">
+      <c r="F276" s="6" t="s">
         <v>1338</v>
       </c>
-      <c r="G276" s="0" t="s">
+      <c r="G276" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H276" s="0" t="s">
+      <c r="H276" s="6" t="s">
         <v>1339</v>
       </c>
-      <c r="I276" s="0"/>
-      <c r="J276" s="0"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="A277" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" s="6" t="s">
         <v>1340</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="C277" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="D277" s="0" t="s">
+      <c r="D277" s="6" t="s">
         <v>1341</v>
       </c>
-      <c r="E277" s="0" t="s">
+      <c r="E277" s="6" t="s">
         <v>1342</v>
       </c>
-      <c r="F277" s="0" t="s">
+      <c r="F277" s="6" t="s">
         <v>1343</v>
       </c>
-      <c r="G277" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H277" s="0" t="s">
+      <c r="G277" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H277" s="6" t="s">
         <v>1344</v>
       </c>
-      <c r="I277" s="0"/>
-      <c r="J277" s="0"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="A278" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="B278" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="C278" s="0" t="s">
+      <c r="C278" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="D278" s="0" t="s">
+      <c r="D278" s="6" t="s">
         <v>1347</v>
       </c>
-      <c r="E278" s="0" t="s">
+      <c r="E278" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="F278" s="0" t="s">
+      <c r="F278" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="G278" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H278" s="0" t="s">
+      <c r="G278" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H278" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="I278" s="0"/>
-      <c r="J278" s="0"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="A279" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B279" s="6" t="s">
         <v>1351</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="C279" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="D279" s="0" t="s">
+      <c r="D279" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="E279" s="0" t="s">
+      <c r="E279" s="6" t="s">
         <v>1353</v>
       </c>
-      <c r="F279" s="0" t="s">
+      <c r="F279" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="G279" s="0" t="s">
+      <c r="G279" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H279" s="0" t="s">
+      <c r="H279" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="I279" s="0"/>
-      <c r="J279" s="0"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="A280" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="B280" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="C280" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="D280" s="0" t="s">
+      <c r="D280" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="E280" s="0" t="s">
+      <c r="E280" s="6" t="s">
         <v>1358</v>
       </c>
-      <c r="F280" s="0" t="s">
+      <c r="F280" s="6" t="s">
         <v>1359</v>
       </c>
-      <c r="G280" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H280" s="0" t="s">
+      <c r="G280" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H280" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="I280" s="0"/>
-      <c r="J280" s="0"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="A281" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="B281" s="6" t="s">
         <v>1361</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="C281" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="D281" s="0" t="s">
+      <c r="D281" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="E281" s="0" t="s">
+      <c r="E281" s="6" t="s">
         <v>1363</v>
       </c>
-      <c r="F281" s="0" t="s">
+      <c r="F281" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="G281" s="0" t="s">
+      <c r="G281" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H281" s="0" t="s">
+      <c r="H281" s="6" t="s">
         <v>1365</v>
       </c>
-      <c r="I281" s="0"/>
-      <c r="J281" s="0"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="A282" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="B282" s="6" t="s">
         <v>1366</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="C282" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="D282" s="0" t="s">
+      <c r="D282" s="6" t="s">
         <v>1367</v>
       </c>
-      <c r="E282" s="0" t="s">
+      <c r="E282" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="F282" s="0" t="s">
+      <c r="F282" s="6" t="s">
         <v>1369</v>
       </c>
-      <c r="G282" s="0" t="s">
+      <c r="G282" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H282" s="0" t="s">
+      <c r="H282" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="I282" s="0"/>
-      <c r="J282" s="0"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="A283" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="B283" s="6" t="s">
         <v>1371</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="C283" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="D283" s="0" t="s">
+      <c r="D283" s="6" t="s">
         <v>1373</v>
       </c>
-      <c r="E283" s="0" t="s">
+      <c r="E283" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="F283" s="0" t="s">
+      <c r="F283" s="6" t="s">
         <v>1375</v>
       </c>
-      <c r="G283" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H283" s="0" t="s">
+      <c r="G283" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H283" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="I283" s="0"/>
-      <c r="J283" s="0"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="A284" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="B284" s="6" t="s">
         <v>1377</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="C284" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="D284" s="0" t="s">
+      <c r="D284" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="E284" s="0" t="s">
+      <c r="E284" s="6" t="s">
         <v>1379</v>
       </c>
-      <c r="F284" s="0" t="s">
+      <c r="F284" s="6" t="s">
         <v>1380</v>
       </c>
-      <c r="G284" s="0" t="s">
+      <c r="G284" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H284" s="0" t="s">
+      <c r="H284" s="6" t="s">
         <v>1381</v>
       </c>
-      <c r="I284" s="0"/>
-      <c r="J284" s="0"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="A285" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="B285" s="6" t="s">
         <v>1382</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="C285" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="D285" s="0" t="s">
+      <c r="D285" s="6" t="s">
         <v>1383</v>
       </c>
-      <c r="E285" s="0" t="s">
+      <c r="E285" s="6" t="s">
         <v>1384</v>
       </c>
-      <c r="F285" s="0" t="s">
+      <c r="F285" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="G285" s="0" t="s">
+      <c r="G285" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H285" s="0" t="s">
+      <c r="H285" s="6" t="s">
         <v>1386</v>
       </c>
-      <c r="I285" s="0"/>
-      <c r="J285" s="0"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="A286" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B286" s="6" t="s">
         <v>1387</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="C286" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="D286" s="0" t="s">
+      <c r="D286" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="E286" s="0" t="s">
+      <c r="E286" s="6" t="s">
         <v>1389</v>
       </c>
-      <c r="F286" s="0" t="s">
+      <c r="F286" s="6" t="s">
         <v>1390</v>
       </c>
-      <c r="G286" s="0" t="s">
+      <c r="G286" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H286" s="0" t="s">
+      <c r="H286" s="6" t="s">
         <v>1391</v>
       </c>
-      <c r="I286" s="0"/>
-      <c r="J286" s="0"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="A287" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="B287" s="6" t="s">
         <v>1392</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="C287" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="D287" s="0" t="s">
+      <c r="D287" s="6" t="s">
         <v>1393</v>
       </c>
-      <c r="E287" s="0" t="s">
+      <c r="E287" s="6" t="s">
         <v>1394</v>
       </c>
-      <c r="F287" s="0" t="s">
+      <c r="F287" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="G287" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H287" s="0" t="s">
+      <c r="G287" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H287" s="6" t="s">
         <v>1396</v>
       </c>
-      <c r="I287" s="0"/>
-      <c r="J287" s="0"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="A288" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B288" s="6" t="s">
         <v>1397</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="C288" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="D288" s="0" t="s">
+      <c r="D288" s="6" t="s">
         <v>1399</v>
       </c>
-      <c r="E288" s="0" t="s">
+      <c r="E288" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="F288" s="0" t="s">
+      <c r="F288" s="6" t="s">
         <v>1401</v>
       </c>
-      <c r="G288" s="0" t="s">
+      <c r="G288" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H288" s="0" t="s">
+      <c r="H288" s="6" t="s">
         <v>1402</v>
       </c>
-      <c r="I288" s="0"/>
-      <c r="J288" s="0"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="A289" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B289" s="6" t="s">
         <v>1403</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="C289" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="D289" s="0" t="s">
+      <c r="D289" s="6" t="s">
         <v>1404</v>
       </c>
-      <c r="E289" s="0" t="s">
+      <c r="E289" s="6" t="s">
         <v>1405</v>
       </c>
-      <c r="F289" s="0" t="s">
+      <c r="F289" s="6" t="s">
         <v>1406</v>
       </c>
-      <c r="G289" s="0" t="s">
+      <c r="G289" s="6" t="s">
         <v>1407</v>
       </c>
-      <c r="H289" s="0" t="s">
+      <c r="H289" s="6" t="s">
         <v>1408</v>
       </c>
-      <c r="I289" s="0"/>
-      <c r="J289" s="0"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="A290" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B290" s="6" t="s">
         <v>1409</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="C290" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="D290" s="0" t="s">
+      <c r="D290" s="6" t="s">
         <v>1410</v>
       </c>
-      <c r="E290" s="0" t="s">
+      <c r="E290" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="F290" s="0" t="s">
+      <c r="F290" s="6" t="s">
         <v>1412</v>
       </c>
-      <c r="G290" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H290" s="0" t="s">
+      <c r="G290" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H290" s="6" t="s">
         <v>1413</v>
       </c>
-      <c r="I290" s="0"/>
-      <c r="J290" s="0"/>
+      <c r="I290" s="6"/>
+      <c r="J290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="A291" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="B291" s="6" t="s">
         <v>1414</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="C291" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="D291" s="0" t="s">
+      <c r="D291" s="6" t="s">
         <v>1415</v>
       </c>
-      <c r="E291" s="0" t="s">
+      <c r="E291" s="6" t="s">
         <v>1416</v>
       </c>
-      <c r="F291" s="0" t="s">
+      <c r="F291" s="6" t="s">
         <v>1417</v>
       </c>
-      <c r="G291" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H291" s="0" t="s">
+      <c r="G291" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H291" s="6" t="s">
         <v>1418</v>
       </c>
-      <c r="I291" s="0"/>
-      <c r="J291" s="0"/>
+      <c r="I291" s="6"/>
+      <c r="J291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+      <c r="A292" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="B292" s="6" t="s">
         <v>1419</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="C292" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="D292" s="0" t="s">
+      <c r="D292" s="6" t="s">
         <v>1420</v>
       </c>
-      <c r="E292" s="0" t="s">
+      <c r="E292" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="F292" s="0" t="s">
+      <c r="F292" s="6" t="s">
         <v>1422</v>
       </c>
-      <c r="G292" s="0" t="s">
+      <c r="G292" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H292" s="0" t="s">
+      <c r="H292" s="6" t="s">
         <v>1423</v>
       </c>
-      <c r="I292" s="0"/>
-      <c r="J292" s="0"/>
+      <c r="I292" s="6"/>
+      <c r="J292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+      <c r="A293" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="B293" s="6" t="s">
         <v>1424</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="C293" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="D293" s="0" t="s">
+      <c r="D293" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="E293" s="0" t="s">
+      <c r="E293" s="6" t="s">
         <v>1405</v>
       </c>
-      <c r="F293" s="0" t="s">
+      <c r="F293" s="6" t="s">
         <v>1427</v>
       </c>
-      <c r="G293" s="0" t="s">
+      <c r="G293" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="H293" s="0" t="s">
+      <c r="H293" s="6" t="s">
         <v>1429</v>
       </c>
-      <c r="I293" s="0"/>
-      <c r="J293" s="0"/>
+      <c r="I293" s="6"/>
+      <c r="J293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+      <c r="A294" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="B294" s="6" t="s">
         <v>1430</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="C294" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="D294" s="0" t="s">
+      <c r="D294" s="6" t="s">
         <v>1431</v>
       </c>
-      <c r="E294" s="0" t="s">
+      <c r="E294" s="6" t="s">
         <v>1432</v>
       </c>
-      <c r="F294" s="0" t="s">
+      <c r="F294" s="6" t="s">
         <v>1433</v>
       </c>
-      <c r="G294" s="0" t="s">
+      <c r="G294" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="H294" s="0" t="s">
+      <c r="H294" s="6" t="s">
         <v>1434</v>
       </c>
-      <c r="I294" s="0"/>
-      <c r="J294" s="0"/>
+      <c r="I294" s="6"/>
+      <c r="J294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="A295" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="B295" s="6" t="s">
         <v>1435</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="C295" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="D295" s="0" t="s">
+      <c r="D295" s="6" t="s">
         <v>1436</v>
       </c>
-      <c r="E295" s="0" t="s">
+      <c r="E295" s="6" t="s">
         <v>1437</v>
       </c>
-      <c r="F295" s="0" t="s">
+      <c r="F295" s="6" t="s">
         <v>1438</v>
       </c>
-      <c r="G295" s="0" t="s">
+      <c r="G295" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H295" s="0" t="s">
+      <c r="H295" s="6" t="s">
         <v>1439</v>
       </c>
-      <c r="I295" s="0"/>
-      <c r="J295" s="0"/>
+      <c r="I295" s="6"/>
+      <c r="J295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+      <c r="A296" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="B296" s="6" t="s">
         <v>1440</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="C296" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="D296" s="0" t="s">
+      <c r="D296" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="E296" s="0" t="s">
+      <c r="E296" s="6" t="s">
         <v>1442</v>
       </c>
-      <c r="F296" s="0" t="s">
+      <c r="F296" s="6" t="s">
         <v>1443</v>
       </c>
-      <c r="G296" s="0" t="s">
+      <c r="G296" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H296" s="0" t="s">
+      <c r="H296" s="6" t="s">
         <v>1444</v>
       </c>
-      <c r="I296" s="0"/>
-      <c r="J296" s="0"/>
+      <c r="I296" s="6"/>
+      <c r="J296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+      <c r="A297" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="B297" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="C297" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="D297" s="0" t="s">
+      <c r="D297" s="6" t="s">
         <v>1446</v>
       </c>
-      <c r="E297" s="0" t="s">
+      <c r="E297" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="F297" s="0" t="s">
+      <c r="F297" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G297" s="0" t="s">
+      <c r="G297" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H297" s="0" t="s">
+      <c r="H297" s="6" t="s">
         <v>1449</v>
       </c>
-      <c r="I297" s="0"/>
-      <c r="J297" s="0"/>
+      <c r="I297" s="6"/>
+      <c r="J297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
+      <c r="A298" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="B298" s="6" t="s">
         <v>1450</v>
       </c>
-      <c r="C298" s="0" t="s">
+      <c r="C298" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="D298" s="0" t="s">
+      <c r="D298" s="6" t="s">
         <v>1451</v>
       </c>
-      <c r="E298" s="0" t="s">
+      <c r="E298" s="6" t="s">
         <v>1452</v>
       </c>
-      <c r="F298" s="0" t="s">
+      <c r="F298" s="6" t="s">
         <v>1453</v>
       </c>
-      <c r="G298" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H298" s="0" t="s">
+      <c r="G298" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H298" s="6" t="s">
         <v>1454</v>
       </c>
-      <c r="I298" s="0"/>
-      <c r="J298" s="0"/>
+      <c r="I298" s="6"/>
+      <c r="J298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+      <c r="A299" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="B299" s="6" t="s">
         <v>1455</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="C299" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D299" s="0" t="s">
+      <c r="D299" s="6" t="s">
         <v>1457</v>
       </c>
-      <c r="E299" s="0" t="s">
+      <c r="E299" s="6" t="s">
         <v>1458</v>
       </c>
-      <c r="F299" s="0" t="s">
+      <c r="F299" s="6" t="s">
         <v>1459</v>
       </c>
-      <c r="G299" s="0" t="s">
+      <c r="G299" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H299" s="0" t="s">
+      <c r="H299" s="6" t="s">
         <v>1460</v>
       </c>
-      <c r="I299" s="0"/>
-      <c r="J299" s="0"/>
+      <c r="I299" s="6"/>
+      <c r="J299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+      <c r="A300" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="B300" s="6" t="s">
         <v>1461</v>
       </c>
-      <c r="C300" s="0" t="s">
+      <c r="C300" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D300" s="0" t="s">
+      <c r="D300" s="6" t="s">
         <v>1462</v>
       </c>
-      <c r="E300" s="0" t="s">
+      <c r="E300" s="6" t="s">
         <v>1463</v>
       </c>
-      <c r="F300" s="0" t="s">
+      <c r="F300" s="6" t="s">
         <v>1464</v>
       </c>
-      <c r="G300" s="0" t="s">
+      <c r="G300" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H300" s="0" t="s">
+      <c r="H300" s="6" t="s">
         <v>1465</v>
       </c>
-      <c r="I300" s="0"/>
-      <c r="J300" s="0"/>
+      <c r="I300" s="6"/>
+      <c r="J300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="A301" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B301" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="C301" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D301" s="0" t="s">
+      <c r="D301" s="6" t="s">
         <v>1467</v>
       </c>
-      <c r="E301" s="0" t="s">
+      <c r="E301" s="6" t="s">
         <v>1468</v>
       </c>
-      <c r="F301" s="0" t="s">
+      <c r="F301" s="6" t="s">
         <v>1469</v>
       </c>
-      <c r="G301" s="0" t="s">
+      <c r="G301" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H301" s="0" t="s">
+      <c r="H301" s="6" t="s">
         <v>1470</v>
       </c>
-      <c r="I301" s="0"/>
-      <c r="J301" s="0"/>
+      <c r="I301" s="6"/>
+      <c r="J301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+      <c r="A302" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B302" s="6" t="s">
         <v>1471</v>
       </c>
-      <c r="C302" s="0" t="s">
+      <c r="C302" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D302" s="0" t="s">
+      <c r="D302" s="6" t="s">
         <v>1472</v>
       </c>
-      <c r="E302" s="0" t="s">
+      <c r="E302" s="6" t="s">
         <v>1473</v>
       </c>
-      <c r="F302" s="0" t="s">
+      <c r="F302" s="6" t="s">
         <v>1474</v>
       </c>
-      <c r="G302" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H302" s="0" t="s">
+      <c r="G302" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H302" s="6" t="s">
         <v>1475</v>
       </c>
-      <c r="I302" s="0"/>
-      <c r="J302" s="0"/>
+      <c r="I302" s="6"/>
+      <c r="J302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+      <c r="A303" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B303" s="6" t="s">
         <v>1476</v>
       </c>
-      <c r="C303" s="0" t="s">
+      <c r="C303" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D303" s="0" t="s">
+      <c r="D303" s="6" t="s">
         <v>1477</v>
       </c>
-      <c r="E303" s="0" t="s">
+      <c r="E303" s="6" t="s">
         <v>1478</v>
       </c>
-      <c r="F303" s="0" t="s">
+      <c r="F303" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="G303" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H303" s="0" t="s">
+      <c r="G303" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H303" s="6" t="s">
         <v>1480</v>
       </c>
-      <c r="I303" s="0"/>
-      <c r="J303" s="0"/>
+      <c r="I303" s="6"/>
+      <c r="J303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+      <c r="A304" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="B304" s="6" t="s">
         <v>1481</v>
       </c>
-      <c r="C304" s="0" t="s">
+      <c r="C304" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D304" s="0" t="s">
+      <c r="D304" s="6" t="s">
         <v>1482</v>
       </c>
-      <c r="E304" s="0" t="s">
+      <c r="E304" s="6" t="s">
         <v>1483</v>
       </c>
-      <c r="F304" s="0" t="s">
+      <c r="F304" s="6" t="s">
         <v>1484</v>
       </c>
-      <c r="G304" s="0" t="s">
+      <c r="G304" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H304" s="0" t="s">
+      <c r="H304" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="I304" s="0"/>
-      <c r="J304" s="0"/>
+      <c r="I304" s="6"/>
+      <c r="J304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+      <c r="A305" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="B305" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="C305" s="0" t="s">
+      <c r="C305" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D305" s="0" t="s">
+      <c r="D305" s="6" t="s">
         <v>1487</v>
       </c>
-      <c r="E305" s="0" t="s">
+      <c r="E305" s="6" t="s">
         <v>1488</v>
       </c>
-      <c r="F305" s="0" t="s">
+      <c r="F305" s="6" t="s">
         <v>1489</v>
       </c>
-      <c r="G305" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H305" s="0" t="s">
+      <c r="G305" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H305" s="6" t="s">
         <v>1490</v>
       </c>
-      <c r="I305" s="0"/>
-      <c r="J305" s="0"/>
+      <c r="I305" s="6"/>
+      <c r="J305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+      <c r="A306" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="B306" s="6" t="s">
         <v>1491</v>
       </c>
-      <c r="C306" s="0" t="s">
+      <c r="C306" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="D306" s="0" t="s">
+      <c r="D306" s="6" t="s">
         <v>1493</v>
       </c>
-      <c r="E306" s="0" t="s">
+      <c r="E306" s="6" t="s">
         <v>1494</v>
       </c>
-      <c r="F306" s="0" t="s">
+      <c r="F306" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="G306" s="0" t="s">
+      <c r="G306" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H306" s="0" t="s">
+      <c r="H306" s="6" t="s">
         <v>1496</v>
       </c>
-      <c r="I306" s="0"/>
-      <c r="J306" s="0"/>
+      <c r="I306" s="6"/>
+      <c r="J306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+      <c r="A307" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="B307" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="C307" s="0" t="s">
+      <c r="C307" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="D307" s="0" t="s">
+      <c r="D307" s="6" t="s">
         <v>1498</v>
       </c>
-      <c r="E307" s="0" t="s">
+      <c r="E307" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="F307" s="0" t="s">
+      <c r="F307" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="G307" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H307" s="0" t="s">
+      <c r="G307" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H307" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="I307" s="0"/>
-      <c r="J307" s="0"/>
+      <c r="I307" s="6"/>
+      <c r="J307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+      <c r="A308" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="B308" s="6" t="s">
         <v>1502</v>
       </c>
-      <c r="C308" s="0" t="s">
+      <c r="C308" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="D308" s="0" t="s">
+      <c r="D308" s="6" t="s">
         <v>1503</v>
       </c>
-      <c r="E308" s="0" t="s">
+      <c r="E308" s="6" t="s">
         <v>1504</v>
       </c>
-      <c r="F308" s="0" t="s">
+      <c r="F308" s="6" t="s">
         <v>1505</v>
       </c>
-      <c r="G308" s="0" t="s">
+      <c r="G308" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H308" s="0" t="s">
+      <c r="H308" s="6" t="s">
         <v>1506</v>
       </c>
-      <c r="I308" s="0"/>
-      <c r="J308" s="0"/>
+      <c r="I308" s="6"/>
+      <c r="J308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+      <c r="A309" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="B309" s="6" t="s">
         <v>1507</v>
       </c>
-      <c r="C309" s="0" t="s">
+      <c r="C309" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="D309" s="0" t="s">
+      <c r="D309" s="6" t="s">
         <v>1508</v>
       </c>
-      <c r="E309" s="0" t="s">
+      <c r="E309" s="6" t="s">
         <v>1509</v>
       </c>
-      <c r="F309" s="0" t="s">
+      <c r="F309" s="6" t="s">
         <v>1510</v>
       </c>
-      <c r="G309" s="0" t="s">
+      <c r="G309" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H309" s="0" t="s">
+      <c r="H309" s="6" t="s">
         <v>1511</v>
       </c>
-      <c r="I309" s="0"/>
-      <c r="J309" s="0"/>
+      <c r="I309" s="6"/>
+      <c r="J309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+      <c r="A310" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="B310" s="6" t="s">
         <v>1512</v>
       </c>
-      <c r="C310" s="0" t="s">
+      <c r="C310" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="D310" s="0" t="s">
+      <c r="D310" s="6" t="s">
         <v>1513</v>
       </c>
-      <c r="E310" s="0" t="s">
+      <c r="E310" s="6" t="s">
         <v>1514</v>
       </c>
-      <c r="F310" s="0" t="s">
+      <c r="F310" s="6" t="s">
         <v>1515</v>
       </c>
-      <c r="G310" s="0" t="s">
+      <c r="G310" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H310" s="0" t="s">
+      <c r="H310" s="6" t="s">
         <v>1516</v>
       </c>
-      <c r="I310" s="0"/>
-      <c r="J310" s="0"/>
+      <c r="I310" s="6"/>
+      <c r="J310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+      <c r="A311" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="B311" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="C311" s="0" t="s">
+      <c r="C311" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="D311" s="0" t="s">
+      <c r="D311" s="6" t="s">
         <v>1518</v>
       </c>
-      <c r="E311" s="0" t="s">
+      <c r="E311" s="6" t="s">
         <v>1519</v>
       </c>
-      <c r="F311" s="0" t="s">
+      <c r="F311" s="6" t="s">
         <v>1520</v>
       </c>
-      <c r="G311" s="0" t="s">
+      <c r="G311" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H311" s="0" t="s">
+      <c r="H311" s="6" t="s">
         <v>1521</v>
       </c>
-      <c r="I311" s="0"/>
-      <c r="J311" s="0"/>
+      <c r="I311" s="6"/>
+      <c r="J311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+      <c r="A312" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="B312" s="6" t="s">
         <v>1522</v>
       </c>
-      <c r="C312" s="0" t="s">
+      <c r="C312" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="D312" s="0" t="s">
+      <c r="D312" s="6" t="s">
         <v>1523</v>
       </c>
-      <c r="E312" s="0" t="s">
+      <c r="E312" s="6" t="s">
         <v>1524</v>
       </c>
-      <c r="F312" s="0" t="s">
+      <c r="F312" s="6" t="s">
         <v>1525</v>
       </c>
-      <c r="G312" s="0" t="s">
+      <c r="G312" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H312" s="0" t="s">
+      <c r="H312" s="6" t="s">
         <v>1526</v>
       </c>
-      <c r="I312" s="0"/>
-      <c r="J312" s="0"/>
+      <c r="I312" s="6"/>
+      <c r="J312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+      <c r="A313" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="B313" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="C313" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="D313" s="0" t="s">
+      <c r="D313" s="6" t="s">
         <v>1529</v>
       </c>
-      <c r="E313" s="0" t="s">
+      <c r="E313" s="6" t="s">
         <v>1494</v>
       </c>
-      <c r="F313" s="0" t="s">
+      <c r="F313" s="6" t="s">
         <v>1530</v>
       </c>
-      <c r="G313" s="0" t="s">
+      <c r="G313" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H313" s="0" t="s">
+      <c r="H313" s="6" t="s">
         <v>1531</v>
       </c>
-      <c r="I313" s="0"/>
-      <c r="J313" s="0"/>
+      <c r="I313" s="6"/>
+      <c r="J313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+      <c r="A314" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="B314" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="C314" s="0" t="s">
+      <c r="C314" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="D314" s="0" t="s">
+      <c r="D314" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="E314" s="0" t="s">
+      <c r="E314" s="6" t="s">
         <v>1534</v>
       </c>
-      <c r="F314" s="0" t="s">
+      <c r="F314" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="G314" s="0" t="s">
+      <c r="G314" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H314" s="0" t="s">
+      <c r="H314" s="6" t="s">
         <v>1536</v>
       </c>
-      <c r="I314" s="0"/>
-      <c r="J314" s="0"/>
+      <c r="I314" s="6"/>
+      <c r="J314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+      <c r="A315" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="B315" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="C315" s="0" t="s">
+      <c r="C315" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="D315" s="0" t="s">
+      <c r="D315" s="6" t="s">
         <v>1538</v>
       </c>
-      <c r="E315" s="0" t="s">
+      <c r="E315" s="6" t="s">
         <v>1539</v>
       </c>
-      <c r="F315" s="0" t="s">
+      <c r="F315" s="6" t="s">
         <v>1540</v>
       </c>
-      <c r="G315" s="0" t="s">
+      <c r="G315" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H315" s="0" t="s">
+      <c r="H315" s="6" t="s">
         <v>1541</v>
       </c>
-      <c r="I315" s="0"/>
-      <c r="J315" s="0"/>
+      <c r="I315" s="6"/>
+      <c r="J315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+      <c r="A316" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="B316" s="6" t="s">
         <v>1542</v>
       </c>
-      <c r="C316" s="0" t="s">
+      <c r="C316" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="D316" s="0" t="s">
+      <c r="D316" s="6" t="s">
         <v>1543</v>
       </c>
-      <c r="E316" s="0" t="s">
+      <c r="E316" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="F316" s="0" t="s">
+      <c r="F316" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="G316" s="0" t="s">
+      <c r="G316" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H316" s="0" t="s">
+      <c r="H316" s="6" t="s">
         <v>1546</v>
       </c>
-      <c r="I316" s="0"/>
-      <c r="J316" s="0"/>
+      <c r="I316" s="6"/>
+      <c r="J316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+      <c r="A317" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="B317" s="6" t="s">
         <v>1547</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="C317" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="D317" s="0" t="s">
+      <c r="D317" s="6" t="s">
         <v>1548</v>
       </c>
-      <c r="E317" s="0" t="s">
+      <c r="E317" s="6" t="s">
         <v>1549</v>
       </c>
-      <c r="F317" s="0" t="s">
+      <c r="F317" s="6" t="s">
         <v>1550</v>
       </c>
-      <c r="G317" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H317" s="0" t="s">
+      <c r="G317" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H317" s="6" t="s">
         <v>1551</v>
       </c>
-      <c r="I317" s="0"/>
-      <c r="J317" s="0"/>
+      <c r="I317" s="6"/>
+      <c r="J317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+      <c r="A318" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="B318" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="C318" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="D318" s="0" t="s">
+      <c r="D318" s="6" t="s">
         <v>1553</v>
       </c>
-      <c r="E318" s="0" t="s">
+      <c r="E318" s="6" t="s">
         <v>1554</v>
       </c>
-      <c r="F318" s="0" t="s">
+      <c r="F318" s="6" t="s">
         <v>1555</v>
       </c>
-      <c r="G318" s="0" t="s">
+      <c r="G318" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H318" s="0" t="s">
+      <c r="H318" s="6" t="s">
         <v>1556</v>
       </c>
-      <c r="I318" s="0"/>
-      <c r="J318" s="0"/>
+      <c r="I318" s="6"/>
+      <c r="J318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+      <c r="A319" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B319" s="6" t="s">
         <v>1557</v>
       </c>
-      <c r="C319" s="0" t="s">
+      <c r="C319" s="6" t="s">
         <v>1528</v>
       </c>
-      <c r="D319" s="0" t="s">
+      <c r="D319" s="6" t="s">
         <v>1558</v>
       </c>
-      <c r="E319" s="0" t="s">
+      <c r="E319" s="6" t="s">
         <v>1559</v>
       </c>
-      <c r="F319" s="0" t="s">
+      <c r="F319" s="6" t="s">
         <v>1560</v>
       </c>
-      <c r="G319" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H319" s="0" t="s">
+      <c r="G319" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H319" s="6" t="s">
         <v>1561</v>
       </c>
-      <c r="I319" s="0"/>
-      <c r="J319" s="0"/>
+      <c r="I319" s="6"/>
+      <c r="J319" s="6"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G320" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H320" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I320" s="0"/>
+      <c r="J320" s="0"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G321" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H321" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I321" s="0"/>
+      <c r="J321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H322" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I322" s="0"/>
+      <c r="J322" s="0"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F323" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G323" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H323" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I323" s="0"/>
+      <c r="J323" s="0"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G324" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H324" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I324" s="0"/>
+      <c r="J324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H325" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I325" s="0"/>
+      <c r="J325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F326" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G326" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H326" s="6" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I326" s="0"/>
+      <c r="J326" s="0"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F327" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G327" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H327" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I327" s="0"/>
+      <c r="J327" s="0"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H328" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I328" s="0"/>
+      <c r="J328" s="0"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F329" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G329" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H329" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I329" s="0"/>
+      <c r="J329" s="0"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H330" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I330" s="0"/>
+      <c r="J330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G331" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H331" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I331" s="0"/>
+      <c r="J331" s="0"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G332" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H332" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I332" s="0"/>
+      <c r="J332" s="0"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H333" s="6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I333" s="0"/>
+      <c r="J333" s="0"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G334" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H334" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I334" s="0"/>
+      <c r="J334" s="0"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G335" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H335" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I335" s="0"/>
+      <c r="J335" s="0"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G336" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H336" s="6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I336" s="0"/>
+      <c r="J336" s="0"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H337" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I337" s="0"/>
+      <c r="J337" s="0"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G338" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H338" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I338" s="0"/>
+      <c r="J338" s="0"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G339" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H339" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I339" s="0"/>
+      <c r="J339" s="0"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H340" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I340" s="0"/>
+      <c r="J340" s="0"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G341" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H341" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I341" s="0"/>
+      <c r="J341" s="0"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F342" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G342" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H342" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I342" s="0"/>
+      <c r="J342" s="0"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G343" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H343" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I343" s="0"/>
+      <c r="J343" s="0"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G344" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H344" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I344" s="0"/>
+      <c r="J344" s="0"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F345" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G345" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H345" s="0" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I345" s="0"/>
+      <c r="J345" s="0"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G346" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H346" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I346" s="0"/>
+      <c r="J346" s="0"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G347" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H347" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I347" s="0"/>
+      <c r="J347" s="0"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G348" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H348" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I348" s="0"/>
+      <c r="J348" s="0"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F349" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G349" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H349" s="0" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I349" s="0"/>
+      <c r="J349" s="0"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F350" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G350" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H350" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I350" s="0"/>
+      <c r="J350" s="0"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F351" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G351" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H351" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I351" s="0"/>
+      <c r="J351" s="0"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F352" s="0" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G352" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H352" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I352" s="0"/>
+      <c r="J352" s="0"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F353" s="0" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G353" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H353" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I353" s="0"/>
+      <c r="J353" s="0"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F354" s="0" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G354" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H354" s="0" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I354" s="0"/>
+      <c r="J354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G355" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H355" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I355" s="0"/>
+      <c r="J355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G356" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H356" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I356" s="0"/>
+      <c r="J356" s="0"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F357" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G357" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H357" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I357" s="0"/>
+      <c r="J357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G358" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H358" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I358" s="0"/>
+      <c r="J358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F359" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G359" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H359" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I359" s="0"/>
+      <c r="J359" s="0"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G360" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H360" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I360" s="0"/>
+      <c r="J360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F361" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G361" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H361" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I361" s="0"/>
+      <c r="J361" s="0"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G362" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H362" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I362" s="0"/>
+      <c r="J362" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F363" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G363" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H363" s="6" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I363" s="0"/>
+      <c r="J363" s="0"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F364" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G364" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H364" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I364" s="0"/>
+      <c r="J364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G365" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H365" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I365" s="0"/>
+      <c r="J365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H366" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I366" s="0"/>
+      <c r="J366" s="0"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F367" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G367" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H367" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I367" s="0"/>
+      <c r="J367" s="0"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G368" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H368" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I368" s="0"/>
+      <c r="J368" s="0"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H369" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I369" s="0"/>
+      <c r="J369" s="0"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G370" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H370" s="6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I370" s="0"/>
+      <c r="J370" s="0"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F371" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G371" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H371" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I371" s="0"/>
+      <c r="J371" s="0"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E372" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F372" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G372" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H372" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I372" s="0"/>
+      <c r="J372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F373" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G373" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H373" s="6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I373" s="0"/>
+      <c r="J373" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A179"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$179</definedName>
@@ -5002,7 +5002,7 @@
     <t xml:space="preserve">["Autor pragmático que, embora influenciado pelos clássicos, evoluiu seu pensamento ao longo de décadas nas 'Théories stratégiques'.", "Qualificado como 'doutrinário', acreditava em princípios imutáveis e publicou o 'Précis de l'art de la guerre'.", "Qualificado como 'ideólogo', abordou a guerra sob ponto de vista filosófico, focando na fricção e incerteza."]</t>
   </si>
   <si>
-    <t xml:space="preserve">Jomini é descrito como doutrinário que buscava princípios para a vitória,. Clausewitz é o ideólogo que analisou a complexidade filosófica e a fricção da guerra,. Castex é caracterizado pelo pragmatismo e evolução de suas teorias ao longo do tempo,.</t>
+    <t xml:space="preserve">Jomini é descrito como doutrinário que buscava princípios para a vitória. Clausewitz é o ideólogo que analisou a complexidade filosófica e a fricção da guerra. Castex é caracterizado pelo pragmatismo e evolução de suas teorias ao longo do tempo.</t>
   </si>
   <si>
     <t xml:space="preserve">Pág. 26, 27</t>
@@ -5377,7 +5377,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5394,15 +5394,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5414,15 +5414,121 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A350" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A357" activeCellId="0" sqref="357:373"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G318" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H340" activeCellId="0" sqref="H340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14206,8 +14312,7 @@
       <c r="H320" s="6" t="s">
         <v>1568</v>
       </c>
-      <c r="I320" s="0"/>
-      <c r="J320" s="0"/>
+      <c r="J320" s="1"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
@@ -14234,8 +14339,7 @@
       <c r="H321" s="6" t="s">
         <v>1572</v>
       </c>
-      <c r="I321" s="0"/>
-      <c r="J321" s="0"/>
+      <c r="J321" s="1"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
@@ -14262,8 +14366,7 @@
       <c r="H322" s="6" t="s">
         <v>1577</v>
       </c>
-      <c r="I322" s="0"/>
-      <c r="J322" s="0"/>
+      <c r="J322" s="1"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
@@ -14290,8 +14393,7 @@
       <c r="H323" s="6" t="s">
         <v>1581</v>
       </c>
-      <c r="I323" s="0"/>
-      <c r="J323" s="0"/>
+      <c r="J323" s="1"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
@@ -14318,8 +14420,7 @@
       <c r="H324" s="6" t="s">
         <v>1586</v>
       </c>
-      <c r="I324" s="0"/>
-      <c r="J324" s="0"/>
+      <c r="J324" s="1"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
@@ -14346,8 +14447,7 @@
       <c r="H325" s="6" t="s">
         <v>1590</v>
       </c>
-      <c r="I325" s="0"/>
-      <c r="J325" s="0"/>
+      <c r="J325" s="1"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
@@ -14374,8 +14474,7 @@
       <c r="H326" s="6" t="s">
         <v>1595</v>
       </c>
-      <c r="I326" s="0"/>
-      <c r="J326" s="0"/>
+      <c r="J326" s="1"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
@@ -14402,8 +14501,7 @@
       <c r="H327" s="6" t="s">
         <v>1599</v>
       </c>
-      <c r="I327" s="0"/>
-      <c r="J327" s="0"/>
+      <c r="J327" s="1"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
@@ -14430,8 +14528,7 @@
       <c r="H328" s="6" t="s">
         <v>1604</v>
       </c>
-      <c r="I328" s="0"/>
-      <c r="J328" s="0"/>
+      <c r="J328" s="1"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
@@ -14458,8 +14555,7 @@
       <c r="H329" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="I329" s="0"/>
-      <c r="J329" s="0"/>
+      <c r="J329" s="1"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
@@ -14486,8 +14582,7 @@
       <c r="H330" s="6" t="s">
         <v>1613</v>
       </c>
-      <c r="I330" s="0"/>
-      <c r="J330" s="0"/>
+      <c r="J330" s="1"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
@@ -14514,8 +14609,7 @@
       <c r="H331" s="6" t="s">
         <v>1617</v>
       </c>
-      <c r="I331" s="0"/>
-      <c r="J331" s="0"/>
+      <c r="J331" s="1"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
@@ -14542,8 +14636,7 @@
       <c r="H332" s="6" t="s">
         <v>1622</v>
       </c>
-      <c r="I332" s="0"/>
-      <c r="J332" s="0"/>
+      <c r="J332" s="1"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
@@ -14570,8 +14663,7 @@
       <c r="H333" s="6" t="s">
         <v>1628</v>
       </c>
-      <c r="I333" s="0"/>
-      <c r="J333" s="0"/>
+      <c r="J333" s="1"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
@@ -14598,8 +14690,7 @@
       <c r="H334" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="I334" s="0"/>
-      <c r="J334" s="0"/>
+      <c r="J334" s="1"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
@@ -14626,8 +14717,7 @@
       <c r="H335" s="6" t="s">
         <v>1638</v>
       </c>
-      <c r="I335" s="0"/>
-      <c r="J335" s="0"/>
+      <c r="J335" s="1"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
@@ -14654,568 +14744,547 @@
       <c r="H336" s="6" t="s">
         <v>1643</v>
       </c>
-      <c r="I336" s="0"/>
-      <c r="J336" s="0"/>
+      <c r="J336" s="1"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="n">
+      <c r="A337" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="B337" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="C337" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D337" s="0" t="s">
+      <c r="D337" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="E337" s="0" t="s">
+      <c r="E337" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="F337" s="0" t="s">
+      <c r="F337" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="G337" s="0" t="s">
+      <c r="G337" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H337" s="0" t="s">
+      <c r="H337" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="I337" s="0"/>
-      <c r="J337" s="0"/>
+      <c r="J337" s="1"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="n">
+      <c r="A338" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="C338" s="0" t="s">
+      <c r="C338" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D338" s="0" t="s">
+      <c r="D338" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="E338" s="0" t="s">
+      <c r="E338" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="F338" s="0" t="s">
+      <c r="F338" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="G338" s="0" t="s">
+      <c r="G338" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H338" s="0" t="s">
+      <c r="H338" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="I338" s="0"/>
-      <c r="J338" s="0"/>
+      <c r="J338" s="1"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="n">
+      <c r="A339" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="B339" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="C339" s="0" t="s">
+      <c r="C339" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D339" s="0" t="s">
+      <c r="D339" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="E339" s="0" t="s">
+      <c r="E339" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="F339" s="0" t="s">
+      <c r="F339" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="G339" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H339" s="0" t="s">
+      <c r="G339" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="I339" s="0"/>
-      <c r="J339" s="0"/>
+      <c r="J339" s="1"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="n">
+      <c r="A340" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="C340" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D340" s="0" t="s">
+      <c r="D340" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="E340" s="0" t="s">
+      <c r="E340" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="F340" s="0" t="s">
+      <c r="F340" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="G340" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H340" s="0" t="s">
+      <c r="G340" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="I340" s="0"/>
-      <c r="J340" s="0"/>
+      <c r="J340" s="1"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="n">
+      <c r="A341" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="C341" s="0" t="s">
+      <c r="C341" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D341" s="0" t="s">
+      <c r="D341" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="E341" s="0" t="s">
+      <c r="E341" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="F341" s="0" t="s">
+      <c r="F341" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="G341" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H341" s="0" t="s">
+      <c r="G341" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H341" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="I341" s="0"/>
-      <c r="J341" s="0"/>
+      <c r="J341" s="1"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="n">
+      <c r="A342" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C342" s="0" t="s">
+      <c r="C342" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D342" s="0" t="s">
+      <c r="D342" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="E342" s="0" t="s">
+      <c r="E342" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="F342" s="0" t="s">
+      <c r="F342" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="G342" s="0" t="s">
+      <c r="G342" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H342" s="0" t="s">
+      <c r="H342" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="I342" s="0"/>
-      <c r="J342" s="0"/>
+      <c r="J342" s="1"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="n">
+      <c r="A343" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="B343" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="C343" s="0" t="s">
+      <c r="C343" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D343" s="0" t="s">
+      <c r="D343" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="E343" s="0" t="s">
+      <c r="E343" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="F343" s="0" t="s">
+      <c r="F343" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="G343" s="0" t="s">
+      <c r="G343" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H343" s="0" t="s">
+      <c r="H343" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="I343" s="0"/>
-      <c r="J343" s="0"/>
+      <c r="J343" s="1"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="n">
+      <c r="A344" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="B344" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="C344" s="0" t="s">
+      <c r="C344" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D344" s="0" t="s">
+      <c r="D344" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="E344" s="0" t="s">
+      <c r="E344" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="F344" s="0" t="s">
+      <c r="F344" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="G344" s="0" t="s">
+      <c r="G344" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="H344" s="0" t="s">
+      <c r="H344" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="I344" s="0"/>
-      <c r="J344" s="0"/>
+      <c r="J344" s="1"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="n">
+      <c r="A345" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="B345" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="C345" s="0" t="s">
+      <c r="C345" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D345" s="0" t="s">
+      <c r="D345" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="E345" s="0" t="s">
+      <c r="E345" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="F345" s="0" t="s">
+      <c r="F345" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="G345" s="0" t="s">
+      <c r="G345" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H345" s="0" t="s">
+      <c r="H345" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="I345" s="0"/>
-      <c r="J345" s="0"/>
+      <c r="J345" s="1"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="n">
+      <c r="A346" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="B346" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="C346" s="0" t="s">
+      <c r="C346" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D346" s="0" t="s">
+      <c r="D346" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="E346" s="0" t="s">
+      <c r="E346" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F346" s="0" t="s">
+      <c r="F346" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="G346" s="0" t="s">
+      <c r="G346" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H346" s="0" t="s">
+      <c r="H346" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="I346" s="0"/>
-      <c r="J346" s="0"/>
+      <c r="J346" s="1"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="n">
+      <c r="A347" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B347" s="0" t="s">
+      <c r="B347" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="C347" s="0" t="s">
+      <c r="C347" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D347" s="0" t="s">
+      <c r="D347" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="E347" s="0" t="s">
+      <c r="E347" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="F347" s="0" t="s">
+      <c r="F347" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="G347" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H347" s="0" t="s">
+      <c r="G347" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H347" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="I347" s="0"/>
-      <c r="J347" s="0"/>
+      <c r="J347" s="1"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="n">
+      <c r="A348" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="B348" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="C348" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D348" s="0" t="s">
+      <c r="D348" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="E348" s="0" t="s">
+      <c r="E348" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="F348" s="0" t="s">
+      <c r="F348" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="G348" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H348" s="0" t="s">
+      <c r="G348" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H348" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="I348" s="0"/>
-      <c r="J348" s="0"/>
+      <c r="J348" s="1"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="n">
+      <c r="A349" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="B349" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="C349" s="0" t="s">
+      <c r="C349" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D349" s="0" t="s">
+      <c r="D349" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="E349" s="0" t="s">
+      <c r="E349" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="F349" s="0" t="s">
+      <c r="F349" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="G349" s="0" t="s">
+      <c r="G349" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="H349" s="0" t="s">
+      <c r="H349" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="I349" s="0"/>
-      <c r="J349" s="0"/>
+      <c r="J349" s="1"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="n">
+      <c r="A350" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="B350" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="C350" s="0" t="s">
+      <c r="C350" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D350" s="0" t="s">
+      <c r="D350" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="E350" s="0" t="s">
+      <c r="E350" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="F350" s="0" t="s">
+      <c r="F350" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="G350" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H350" s="0" t="s">
+      <c r="G350" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H350" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="I350" s="0"/>
-      <c r="J350" s="0"/>
+      <c r="J350" s="1"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="n">
+      <c r="A351" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="C351" s="0" t="s">
+      <c r="C351" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D351" s="0" t="s">
+      <c r="D351" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="E351" s="0" t="s">
+      <c r="E351" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="F351" s="0" t="s">
+      <c r="F351" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="G351" s="0" t="s">
+      <c r="G351" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="H351" s="0" t="s">
+      <c r="H351" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="I351" s="0"/>
-      <c r="J351" s="0"/>
+      <c r="J351" s="1"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="n">
+      <c r="A352" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B352" s="0" t="s">
+      <c r="B352" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="C352" s="0" t="s">
+      <c r="C352" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="D352" s="0" t="s">
+      <c r="D352" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="E352" s="0" t="s">
+      <c r="E352" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="F352" s="0" t="s">
+      <c r="F352" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="G352" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H352" s="0" t="s">
+      <c r="G352" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H352" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="I352" s="0"/>
-      <c r="J352" s="0"/>
+      <c r="J352" s="1"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="n">
+      <c r="A353" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B353" s="0" t="s">
+      <c r="B353" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="C353" s="0" t="s">
+      <c r="C353" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="D353" s="0" t="s">
+      <c r="D353" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="E353" s="0" t="s">
+      <c r="E353" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="F353" s="0" t="s">
+      <c r="F353" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="G353" s="0" t="s">
+      <c r="G353" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H353" s="0" t="s">
+      <c r="H353" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="I353" s="0"/>
-      <c r="J353" s="0"/>
+      <c r="J353" s="1"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="n">
+      <c r="A354" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B354" s="0" t="s">
+      <c r="B354" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="C354" s="0" t="s">
+      <c r="C354" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="D354" s="0" t="s">
+      <c r="D354" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="E354" s="0" t="s">
+      <c r="E354" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="F354" s="0" t="s">
+      <c r="F354" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="G354" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H354" s="0" t="s">
+      <c r="G354" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H354" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="I354" s="0"/>
-      <c r="J354" s="0"/>
+      <c r="J354" s="1"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="n">
+      <c r="A355" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="B355" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="C355" s="0" t="s">
+      <c r="C355" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="D355" s="0" t="s">
+      <c r="D355" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="E355" s="0" t="s">
+      <c r="E355" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="F355" s="0" t="s">
+      <c r="F355" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="G355" s="0" t="s">
+      <c r="G355" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H355" s="0" t="s">
+      <c r="H355" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="I355" s="0"/>
-      <c r="J355" s="0"/>
+      <c r="J355" s="1"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="n">
+      <c r="A356" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B356" s="0" t="s">
+      <c r="B356" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="C356" s="0" t="s">
+      <c r="C356" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="D356" s="0" t="s">
+      <c r="D356" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="E356" s="0" t="s">
+      <c r="E356" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="F356" s="0" t="s">
+      <c r="F356" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="G356" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H356" s="0" t="s">
+      <c r="G356" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="I356" s="0"/>
-      <c r="J356" s="0"/>
+      <c r="J356" s="1"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
@@ -15242,8 +15311,7 @@
       <c r="H357" s="6" t="s">
         <v>1568</v>
       </c>
-      <c r="I357" s="0"/>
-      <c r="J357" s="0"/>
+      <c r="J357" s="1"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
@@ -15270,8 +15338,7 @@
       <c r="H358" s="6" t="s">
         <v>1572</v>
       </c>
-      <c r="I358" s="0"/>
-      <c r="J358" s="0"/>
+      <c r="J358" s="1"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
@@ -15298,8 +15365,7 @@
       <c r="H359" s="6" t="s">
         <v>1577</v>
       </c>
-      <c r="I359" s="0"/>
-      <c r="J359" s="0"/>
+      <c r="J359" s="1"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
@@ -15326,8 +15392,7 @@
       <c r="H360" s="6" t="s">
         <v>1581</v>
       </c>
-      <c r="I360" s="0"/>
-      <c r="J360" s="0"/>
+      <c r="J360" s="1"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
@@ -15354,8 +15419,7 @@
       <c r="H361" s="6" t="s">
         <v>1586</v>
       </c>
-      <c r="I361" s="0"/>
-      <c r="J361" s="0"/>
+      <c r="J361" s="1"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
@@ -15382,8 +15446,7 @@
       <c r="H362" s="6" t="s">
         <v>1590</v>
       </c>
-      <c r="I362" s="0"/>
-      <c r="J362" s="0"/>
+      <c r="J362" s="1"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
@@ -15410,8 +15473,7 @@
       <c r="H363" s="6" t="s">
         <v>1595</v>
       </c>
-      <c r="I363" s="0"/>
-      <c r="J363" s="0"/>
+      <c r="J363" s="1"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
@@ -15438,8 +15500,7 @@
       <c r="H364" s="6" t="s">
         <v>1599</v>
       </c>
-      <c r="I364" s="0"/>
-      <c r="J364" s="0"/>
+      <c r="J364" s="1"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
@@ -15466,8 +15527,7 @@
       <c r="H365" s="6" t="s">
         <v>1604</v>
       </c>
-      <c r="I365" s="0"/>
-      <c r="J365" s="0"/>
+      <c r="J365" s="1"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
@@ -15494,8 +15554,7 @@
       <c r="H366" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="I366" s="0"/>
-      <c r="J366" s="0"/>
+      <c r="J366" s="1"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
@@ -15522,8 +15581,7 @@
       <c r="H367" s="6" t="s">
         <v>1613</v>
       </c>
-      <c r="I367" s="0"/>
-      <c r="J367" s="0"/>
+      <c r="J367" s="1"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
@@ -15550,8 +15608,7 @@
       <c r="H368" s="6" t="s">
         <v>1617</v>
       </c>
-      <c r="I368" s="0"/>
-      <c r="J368" s="0"/>
+      <c r="J368" s="1"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
@@ -15578,8 +15635,7 @@
       <c r="H369" s="6" t="s">
         <v>1622</v>
       </c>
-      <c r="I369" s="0"/>
-      <c r="J369" s="0"/>
+      <c r="J369" s="1"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
@@ -15606,8 +15662,7 @@
       <c r="H370" s="6" t="s">
         <v>1628</v>
       </c>
-      <c r="I370" s="0"/>
-      <c r="J370" s="0"/>
+      <c r="J370" s="1"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
@@ -15634,8 +15689,7 @@
       <c r="H371" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="I371" s="0"/>
-      <c r="J371" s="0"/>
+      <c r="J371" s="1"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
@@ -15662,8 +15716,7 @@
       <c r="H372" s="6" t="s">
         <v>1638</v>
       </c>
-      <c r="I372" s="0"/>
-      <c r="J372" s="0"/>
+      <c r="J372" s="1"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
@@ -15690,8 +15743,7 @@
       <c r="H373" s="6" t="s">
         <v>1643</v>
       </c>
-      <c r="I373" s="0"/>
-      <c r="J373" s="0"/>
+      <c r="J373" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A179"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="2659">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -6337,10 +6337,13 @@
     <t xml:space="preserve">["Leonid Brejnev", "Ronald Reagan", "Mikhail Gorbachev"]</t>
   </si>
   <si>
-    <t xml:space="preserve">["Líder soviético que iniciou a perestroika, condenou o alcoolismo e se destacava pela marca de nascença na testa.", "Presidente norte-americano vindo de Hollywood que propôs a 'Guerra nas Estrelas' e o aumento de gastos na defesa.", "Chefe de estado soviético que permaneceu no poder por cerca de 18 anos, lidando com cinco presidentes dos EUA."]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brejnev governou por 18 anos; Reagan era ator e propôs a Guerra nas Estrelas; Gorbachev iniciou a perestroika.</t>
+    <t xml:space="preserve">["Líder soviético que iniciou a perestroika, condenou o alcoolismo e se destacava pela marca de nascença na testa.", "Governou durante a década de 1970 e acreditava que a economia soviética estava estagnada, recusando-se a negociar com os presidentes norte-americanos sobre o controle de mísseis.", "Presidente norte-americano vindo de Hollywood que propôs a 'Guerra nas Estrelas' e o aumento de gastos na defesa.", "Chefe de estado soviético que permaneceu no poder por cerca de 18 anos, lidando com cinco presidentes dos EUA."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"0": "3", "1": "2", "2": "0"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brejnev governou por 18 anos; Reagan era ator e propôs a Guerra nas Estrelas; Gorbachev iniciou a perestroika. Quem governou na década de 1970 e não acreditava que o país estava estagnado foi Brejnev. Além disso, Gorbachev estava "ansioso para diminuir os gastos" e se reuniu com Reagan em Genebra, contrariando a ideia de recusa em negociar.</t>
   </si>
   <si>
     <t xml:space="preserve">Associe os países do bloco comunista ou áreas de influência às situações específicas enfrentadas entre as décadas de 1970 e 1980.</t>
@@ -8263,8 +8266,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A570"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G429" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I454" activeCellId="0" sqref="I454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23255,10 +23258,10 @@
         <v>2104</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>28</v>
+        <v>2105</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="J454" s="1" t="s">
         <v>17</v>
@@ -23279,19 +23282,19 @@
         <v>2101</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="H455" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="J455" s="1" t="s">
         <v>17</v>
@@ -23312,19 +23315,19 @@
         <v>2101</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="H456" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="J456" s="1" t="s">
         <v>17</v>
@@ -23345,19 +23348,19 @@
         <v>2101</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="H457" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="J457" s="1" t="s">
         <v>17</v>
@@ -23372,25 +23375,25 @@
         <v>1030</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>2101</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="H458" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="J458" s="1" t="s">
         <v>17</v>
@@ -23408,22 +23411,22 @@
         <v>128</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="H459" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="J459" s="1" t="s">
         <v>17</v>
@@ -23441,22 +23444,22 @@
         <v>133</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="H460" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="J460" s="1" t="s">
         <v>17</v>
@@ -23471,25 +23474,25 @@
         <v>1030</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="H461" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="J461" s="1" t="s">
         <v>17</v>
@@ -23507,22 +23510,22 @@
         <v>567</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="H462" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="J462" s="1" t="s">
         <v>17</v>
@@ -23540,22 +23543,22 @@
         <v>367</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="H463" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I463" s="3" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="J463" s="1" t="s">
         <v>17</v>
@@ -23573,22 +23576,22 @@
         <v>123</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H464" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J464" s="1" t="s">
         <v>17</v>
@@ -23606,22 +23609,22 @@
         <v>128</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="H465" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="J465" s="1" t="s">
         <v>17</v>
@@ -23639,22 +23642,22 @@
         <v>1820</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="H466" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="J466" s="1" t="s">
         <v>17</v>
@@ -23672,22 +23675,22 @@
         <v>133</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H467" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="J467" s="1" t="s">
         <v>17</v>
@@ -23699,28 +23702,28 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="H468" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="K468" s="1"/>
     </row>
@@ -23729,28 +23732,28 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H469" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="K469" s="1"/>
     </row>
@@ -23759,28 +23762,28 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="H470" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="K470" s="1"/>
     </row>
@@ -23789,28 +23792,28 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="H471" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="K471" s="1"/>
     </row>
@@ -23819,28 +23822,28 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="H472" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="K472" s="1"/>
     </row>
@@ -23849,28 +23852,28 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="H473" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="K473" s="1"/>
     </row>
@@ -23879,28 +23882,28 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="H474" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="K474" s="1"/>
     </row>
@@ -23909,28 +23912,28 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="H475" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="K475" s="1"/>
     </row>
@@ -23939,28 +23942,28 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="H476" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="K476" s="1"/>
     </row>
@@ -23969,28 +23972,28 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="H477" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="K477" s="1"/>
     </row>
@@ -23999,28 +24002,28 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>1820</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="H478" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="K478" s="1"/>
     </row>
@@ -24029,28 +24032,28 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>406</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="H479" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="K479" s="1"/>
     </row>
@@ -24059,28 +24062,28 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>406</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="H480" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="K480" s="1"/>
     </row>
@@ -24089,28 +24092,28 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>406</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="H481" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="K481" s="1"/>
     </row>
@@ -24119,28 +24122,28 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="H482" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="K482" s="1"/>
     </row>
@@ -24149,28 +24152,28 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="H483" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="K483" s="1"/>
     </row>
@@ -24179,28 +24182,28 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>483</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="H484" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="K484" s="1"/>
     </row>
@@ -24209,28 +24212,28 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="K485" s="1"/>
     </row>
@@ -24239,28 +24242,28 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="H486" s="1" t="s">
         <v>1868</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="K486" s="1"/>
     </row>
@@ -24269,28 +24272,28 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>1657</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="K487" s="1"/>
     </row>
@@ -24299,28 +24302,28 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="H488" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="K488" s="1"/>
     </row>
@@ -24329,28 +24332,28 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="H489" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="K489" s="1"/>
     </row>
@@ -24359,28 +24362,28 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="H490" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="K490" s="1"/>
     </row>
@@ -24389,28 +24392,28 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="H491" s="1" t="s">
         <v>1868</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="K491" s="1"/>
     </row>
@@ -24419,28 +24422,28 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="H492" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="K492" s="1"/>
     </row>
@@ -24449,28 +24452,28 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="K493" s="1"/>
     </row>
@@ -24479,28 +24482,28 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="H494" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="K494" s="1"/>
     </row>
@@ -24509,28 +24512,28 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="H495" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="K495" s="1"/>
     </row>
@@ -24539,28 +24542,28 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="H496" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="K496" s="1"/>
     </row>
@@ -24569,28 +24572,28 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="H497" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="K497" s="1"/>
     </row>
@@ -24599,28 +24602,28 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="H498" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="K498" s="1"/>
     </row>
@@ -24629,28 +24632,28 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="K499" s="1"/>
     </row>
@@ -24659,28 +24662,28 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="K500" s="1"/>
     </row>
@@ -24689,28 +24692,28 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="H501" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="K501" s="1"/>
     </row>
@@ -24719,28 +24722,28 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="K502" s="1"/>
     </row>
@@ -24749,28 +24752,28 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="H503" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K503" s="1"/>
     </row>
@@ -24782,25 +24785,25 @@
         <v>1049</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="K504" s="1"/>
     </row>
@@ -24812,25 +24815,25 @@
         <v>1049</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="H505" s="1" t="s">
         <v>467</v>
       </c>
       <c r="I505" s="1" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="K505" s="1"/>
     </row>
@@ -24842,25 +24845,25 @@
         <v>1049</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="H506" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="K506" s="1"/>
     </row>
@@ -24872,25 +24875,25 @@
         <v>1049</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="H507" s="1" t="s">
         <v>1868</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="K507" s="1"/>
     </row>
@@ -24902,25 +24905,25 @@
         <v>1049</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="K508" s="1"/>
     </row>
@@ -24932,25 +24935,25 @@
         <v>1049</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="H509" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="K509" s="1"/>
     </row>
@@ -24962,25 +24965,25 @@
         <v>1049</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="H510" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="K510" s="1"/>
     </row>
@@ -24992,25 +24995,25 @@
         <v>1049</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="H511" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="K511" s="1"/>
     </row>
@@ -25022,25 +25025,25 @@
         <v>1049</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="H512" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="K512" s="1"/>
     </row>
@@ -25052,25 +25055,25 @@
         <v>1049</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="K513" s="1"/>
     </row>
@@ -25085,22 +25088,22 @@
         <v>158</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="K514" s="1"/>
     </row>
@@ -25115,22 +25118,22 @@
         <v>218</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="H515" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="K515" s="1"/>
     </row>
@@ -25142,25 +25145,25 @@
         <v>1049</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="H516" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="K516" s="1"/>
     </row>
@@ -25175,22 +25178,22 @@
         <v>158</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="H517" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="K517" s="1"/>
     </row>
@@ -25205,22 +25208,22 @@
         <v>133</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="H518" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K518" s="1"/>
     </row>
@@ -25232,25 +25235,25 @@
         <v>1049</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="H519" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="K519" s="1"/>
     </row>
@@ -25265,22 +25268,22 @@
         <v>1807</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="H520" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="K520" s="1"/>
     </row>
@@ -25292,25 +25295,25 @@
         <v>1049</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="H521" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="K521" s="1"/>
     </row>
@@ -25322,25 +25325,25 @@
         <v>1049</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="H522" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="K522" s="1"/>
     </row>
@@ -25352,25 +25355,25 @@
         <v>1049</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="H523" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="K523" s="1"/>
     </row>
@@ -25382,25 +25385,25 @@
         <v>1075</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="H524" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="K524" s="1"/>
     </row>
@@ -25412,25 +25415,25 @@
         <v>1075</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="H525" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="K525" s="1"/>
     </row>
@@ -25442,25 +25445,25 @@
         <v>1075</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="H526" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="K526" s="1"/>
     </row>
@@ -25472,25 +25475,25 @@
         <v>1075</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="H527" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="K527" s="1"/>
     </row>
@@ -25502,25 +25505,25 @@
         <v>1075</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="H528" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="K528" s="1"/>
     </row>
@@ -25532,25 +25535,25 @@
         <v>1075</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="H529" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I529" s="1" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="K529" s="1"/>
     </row>
@@ -25562,25 +25565,25 @@
         <v>1075</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="H530" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I530" s="1" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="K530" s="1"/>
     </row>
@@ -25595,22 +25598,22 @@
         <v>754</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="H531" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="K531" s="1"/>
     </row>
@@ -25622,25 +25625,25 @@
         <v>1075</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="H532" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I532" s="1" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="K532" s="1"/>
     </row>
@@ -25652,25 +25655,25 @@
         <v>1075</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="H533" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I533" s="1" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="K533" s="1"/>
     </row>
@@ -25682,25 +25685,25 @@
         <v>1075</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="H534" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="K534" s="1"/>
     </row>
@@ -25712,25 +25715,25 @@
         <v>1075</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="H535" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I535" s="1" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="K535" s="1"/>
     </row>
@@ -25742,25 +25745,25 @@
         <v>1075</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="H536" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I536" s="1" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="K536" s="1"/>
     </row>
@@ -25775,22 +25778,22 @@
         <v>352</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="H537" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I537" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="K537" s="1"/>
     </row>
@@ -25805,22 +25808,22 @@
         <v>357</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="H538" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I538" s="1" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="K538" s="1"/>
     </row>
@@ -25832,25 +25835,25 @@
         <v>1075</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="H539" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="K539" s="1"/>
     </row>
@@ -25862,25 +25865,25 @@
         <v>1075</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="H540" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="K540" s="1"/>
     </row>
@@ -25895,22 +25898,22 @@
         <v>213</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="H541" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="K541" s="1"/>
     </row>
@@ -25925,22 +25928,22 @@
         <v>1820</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="H542" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I542" s="1" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="K542" s="1"/>
     </row>
@@ -25955,22 +25958,22 @@
         <v>1995</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="H543" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I543" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="K543" s="1"/>
     </row>
@@ -25985,22 +25988,22 @@
         <v>138</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="H544" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I544" s="1" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="K544" s="1"/>
     </row>
@@ -26015,22 +26018,22 @@
         <v>567</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="H545" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I545" s="1" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="K545" s="1"/>
     </row>
@@ -26045,22 +26048,22 @@
         <v>143</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="H546" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="K546" s="1"/>
     </row>
@@ -26075,22 +26078,22 @@
         <v>367</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="H547" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="K547" s="1"/>
     </row>
@@ -26105,22 +26108,22 @@
         <v>123</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="H548" s="1" t="s">
         <v>477</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="K548" s="1"/>
     </row>
@@ -26135,22 +26138,22 @@
         <v>133</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="H549" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="K549" s="1"/>
     </row>
@@ -26165,22 +26168,22 @@
         <v>352</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="H550" s="1" t="s">
         <v>477</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="K550" s="1"/>
     </row>
@@ -26195,22 +26198,22 @@
         <v>143</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="K551" s="1"/>
     </row>
@@ -26225,22 +26228,22 @@
         <v>1565</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="H552" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="K552" s="1"/>
     </row>
@@ -26255,22 +26258,22 @@
         <v>168</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="H553" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="K553" s="1"/>
     </row>
@@ -26285,22 +26288,22 @@
         <v>188</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="H554" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="K554" s="1"/>
     </row>
@@ -26312,25 +26315,25 @@
         <v>1101</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="H555" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="K555" s="1"/>
     </row>
@@ -26342,25 +26345,25 @@
         <v>1101</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="H556" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="K556" s="1"/>
     </row>
@@ -26375,22 +26378,22 @@
         <v>143</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="H557" s="1" t="s">
         <v>477</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="K557" s="1"/>
     </row>
@@ -26402,25 +26405,25 @@
         <v>1101</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="K558" s="1"/>
     </row>
@@ -26432,25 +26435,25 @@
         <v>1101</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="H559" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="K559" s="1"/>
     </row>
@@ -26465,22 +26468,22 @@
         <v>1995</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="H560" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I560" s="1" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="K560" s="1"/>
     </row>
@@ -26492,25 +26495,25 @@
         <v>1101</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="H561" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I561" s="1" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="K561" s="1"/>
     </row>
@@ -26522,25 +26525,25 @@
         <v>1101</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="H562" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I562" s="1" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="K562" s="1"/>
     </row>
@@ -26552,25 +26555,25 @@
         <v>1101</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="H563" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I563" s="1" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="K563" s="1"/>
     </row>
@@ -26582,25 +26585,25 @@
         <v>1101</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="H564" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I564" s="1" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="K564" s="1"/>
     </row>
@@ -26612,25 +26615,25 @@
         <v>1101</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="H565" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I565" s="1" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="K565" s="1"/>
     </row>
@@ -26642,25 +26645,25 @@
         <v>1101</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="H566" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="K566" s="1"/>
     </row>
@@ -26672,25 +26675,25 @@
         <v>1101</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="K567" s="1"/>
     </row>
@@ -26702,25 +26705,25 @@
         <v>1101</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="H568" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="K568" s="1"/>
     </row>
@@ -26732,25 +26735,25 @@
         <v>1101</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="G569" s="1" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="H569" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I569" s="1" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="K569" s="1"/>
     </row>
@@ -26765,22 +26768,22 @@
         <v>173</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="H570" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I570" s="1" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="K570" s="1"/>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_correlacao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="2659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="2811">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -8000,6 +8000,462 @@
   </si>
   <si>
     <t xml:space="preserve">A DGDNTM (Diretoria-Geral de Desenvolvimento Nuclear e Tecnológico) absorveu o PROSUB e PNM. A DGN (Diretoria-Geral de Navegação) foi reestruturada para focar na Autoridade Marítima,. A AgNSNQ foi ativada como órgão regulador nuclear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 16 a 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as modalidades de Operação Anfíbia às suas definições correspondentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Assalto Anfíbio", "Demonstração Anfíbia", "Incursão Anfíbia", "Projeção Anfíbia", "Retirada Anfíbia"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Aproximação ao território inimigo sem o efetivo desembarque de tropas.", "Retirada ordenada e coordenada de forças de região hostil.", "Estabelecimento de uma ForDbq em terra mediante desembarque.", "Rápida penetração ou ocupação temporária seguida de retirada planejada.", "Introdução de meios a partir do mar para tarefas diversas ou atividades benignas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"0": "2", "1": "0", "2": "3", "3": "4", "4": "1"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os itens de "a" a "e" da seção 3.4.3 (Págs 16-19), as modalidades são definidas pelos seus propósitos e características de execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as modalidades da Operação de Esclarecimento com suas finalidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Busca", "Patrulha", "Acompanhamento", "Reconhecimento"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Procura sistemática e contínua ao longo de uma linha de barragem.", "Obtenção de dados referentes às atividades/meios do inimigo ou dados ambientais.", "Investigação sistemática para localizar um objeto ou confirmar sua ausência.", "Obtenção de informações continuadas sobre movimentos e composição de alvos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.4.5 (Pág 21), a busca visa localizar, a patrulha utiliza linhas de barragem, o acompanhamento monitora movimentos e o reconhecimento coleta dados diversos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os critérios de validade de um bloqueio naval segundo o Direito Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Estabelecimento", "Notificação", "Eficácia", "Imparcialidade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Aplicação a navios de todos os Estados sem distinção.", "Manutenção por forças suficientes para tornar perigosa a entrada ou saída.", "Declaração pelo governo ou Comandante especificando data, limites e período de graça.", "Comunicação oficial a todos os Estados afetados sobre a imposição do bloqueio."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.4.6 (Pág 23), os critérios para um bloqueio ser considerado válido seguem regras específicas do Direito Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os ramos das Medidas de Guerra Eletrônica (MGE) às suas respectivas ações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["MAGE: Medidas de Apoio", "MAE: Medidas de Ataque", "MPE: Medidas de Proteção"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Impedimento ou redução do uso efetivo do espectro pelo inimigo, inclusive destruição.", "Garantia do uso efetivo do espectro apesar do emprego de MAE amigas ou inimigas.", "Monitoração, busca, localização e análise de sinais irradiados pelo opositor."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.5.2, letra 'b' (Pág 37), as MGE dividem-se em suporte (MAGE), ataque (MAE) e proteção (MPE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os tipos de ações de guerra cibernética aos seus propósitos fundamentais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ataque cibernético", "Proteção cibernética", "Exploração cibernética"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Neutralizar ataques e exploração cibernética contra ativos de interesse.", "Obter consciência situacional do ambiente e subsidiar inteligência.", "Degradar, corromper, destruir ou manipular informações em ativos de interesse."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.5.3, letra 'b' (Pág 38), as ações cibernéticas são classificadas por ataque, proteção ou exploração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 40 e 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as fases da defesa NBQREe às suas respectivas funções e tarefas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Prevenção", "Detecção", "Resposta"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Reconhecimento, balizamento e identificação do agente empregado.", "Descontaminação de pessoal/material e provimento de proteção médica.", "Alerta antecipado, proteção individual/coletiva e planejamento de abrigos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.5.5 (Págs 40-41), a defesa NBQREe desenvolve-se nas fases de prevenção, detecção e resposta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os efeitos desejados das Ações de Superfície (ASup) às suas características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Repulsão", "Obstrução", "Diversão"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Negação ao inimigo de dados sobre localização e composição do objetivo defendido.", "Posicionamento da força para manter a ameaça afastada e inviabilizar o ataque.", "Defesa em profundidade alcançada pelo impedimento do ataque via ação antecipada."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.5.8 (Pág 42), os efeitos de caráter defensivo das ASup são repulsão, obstrução e diversão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as modalidades de atividades de inteligência no RETRON (Reconhecimento Eletrônico).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["INTCOM", "INTELT", "INTIM"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Processamento e análise de imagens da área de sensoriamento remoto.", "Interceptação de sinais de sistemas de comunicações no espectro eletromagnético.", "Interceptação de sinais de sistemas que não sejam de comunicações."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.5.2, letra 'a' (Pág 37), o RETRON envolve inteligência de comunicações, eletrônica e de imagens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 29 e 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as situações de comando em Operações Ribeirinhas (OpRib) singulares ao perfil do Comandante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Oficial do Corpo da Armada", "Oficial do Corpo de Fuzileiros Navais"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Quando o efeito desejado é o controle de áreas terrestres e os meios navais apoiam.", "Quando o efeito desejado é o controle ou negação de hidrovias, com esforço naval."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.4.15 (Pág 30), a escolha do Comandante em OpRib singulares depende da natureza do efeito desejado (naval ou terrestre).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 21 e 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os meios de esclarecimento às suas características ou limitações em áreas controladas pelo inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sistemas de sensoriamento remoto (Satélites/ARP)", "Aeronaves", "Submarinos"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Favoráveis para linhas de barragem, mas com risco se o inimigo tiver Controle do Ar.", "Indicados para esclarecimento de grandes extensões marítimas e áreas terrestres.", "Capazes de realizar esclarecimento em áreas inimigas, mas reduzem ações ofensivas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 3.4.5 (Pág 22), diferentes meios possuem vantagens e riscos específicos para operações de esclarecimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os Poderes Constitucionais aos seus respectivos representantes máximos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Executivo", "Legislativo", "Judiciário"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Presidente do Supremo Tribunal Federal.", "Presidente da República.", "Presidentes do Senado Federal e da Câmara dos Deputados."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.2 (Pág 45), os três Poderes são representados por essas autoridades específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione as tarefas do Poder Naval na Garantia da Lei e da Ordem (GLO) aos seus objetivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Controle de áreas litorâneas", "Proteção de plataformas", "Operações de retomada e resgate"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Exploração de petróleo e gás na PC brasileira ou águas interiores.", "Áreas adjacentes a instalações navais, marítimas ou industriais estratégicas.", "Execução nas AJB e em Organizações Militares subordinadas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.3 (Pág 45), o Poder Naval realiza diversas tarefas para a preservação da ordem pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as ações contra delitos transfronteiriços e ambientais às suas definições legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Patrulhamento", "Revista", "Prisão"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Em flagrante delito de acordo com a previsão legal.", "De pessoas, veículos terrestres, embarcações e aeronaves.", "Ação preventiva e repressiva na faixa de fronteira, mar e águas interiores."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.5 (Pág 47), essas são atribuições subsidiárias das FA em cooperação com outros órgãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os atos tipificados como pirataria segundo a CNUDM (Convenção das Nações Unidas sobre o Direito do Mar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ato ilícito de violência", "Participação voluntária", "Incitação ou ajuda"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Praticada com conhecimento de fatos que deem ao meio caráter pirata.", "Destinada a fins privados contra navio/aeronave em alto-mar ou local sem jurisdição.", "Ação que tenha por fim encorajar intencionalmente o cometimento de pirataria."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.6.1 (Pág 48), a pirataria envolve atos de violência, participação ou ajuda intencional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlacione os atos de terrorismo previstos na Lei nº 13.260 aos seus respectivos alvos ou meios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Sabotagem de sistemas", "Uso de substâncias", "Ataque à integridade"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Gases tóxicos, conteúdos biológicos, químicos ou nucleares.", "Vida ou integridade física de pessoa por razões de xenofobia ou preconceito.", "Controle de meios de transporte, portos, aeroportos ou instalações energéticas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.6.2 (Pág 49), o terrorismo é definido por atos que causam terror social ou generalizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as atividades de fiscalização naval aos seus âmbitos de atuação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Patrulha Naval (PATNAV)", "Inspeção Naval (IN)", "Cooperação com órgãos federais"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Foco na salvaguarda da vida humana e segurança da navegação (Autoridade Marítima).", "Repressão a delitos de repercussão nacional/internacional via apoio logístico/inteligência.", "Implementar e fiscalizar leis e regulamentos em AJB, PC e alto-mar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme itens 4.6, 4.7 e 4.8 (Pág 48-51), cada atividade possui um propósito e fundamentação legal distinta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os Grupos Especiais de Retomada e Resgate (GERR) aos seus ambientes de emprego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["GERR/MEC", "GERR/OpEsp", "Polícia Federal"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Retomada de navios atracados ou fundeados na área do porto organizado.", "Operações em que o esforço principal for desenvolvido em meio aquático.", "Operações realizadas prioritariamente em ambiente terrestre."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.9 (Pág 51), a competência para retomada e resgate varia conforme o ambiente e o local do evento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 53 e 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os tipos de Operações de Paz (OpPaz) às suas finalidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Promoção da Paz (Peacemaking)", "Manutenção da Paz (Peacekeeping)", "Imposição da Paz (Peace enforcement)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ações coercitivas via força armada para restaurar a paz (sem consentimento das partes).", "Ações diplomáticas para levar as partes litigantes a suspender as hostilidades.", "Atividades no terreno com consentimento das partes para monitorar a cessação de conflitos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.12 (Págs 53-54), as OpPaz são classificadas conforme o mandato e o uso da força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os ambientes operacionais da Operação de Evacuação de Não Combatentes (OpENC) às suas características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ambiente Permissivo", "Ambiente Incerto", "Ambiente Hostil"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Postura hostil do governo anfitrião, exigindo perímetros de segurança e escolta.", "Nenhuma resistência esperada, com foco em atividades logísticas e legais.", "Falta de controle efetivo do território pelas forças locais, exigindo força de reação."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 4.13 (Pág 57), o planejamento da OpENC depende da avaliação do grau de hostilidade e controle local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as definições e contribuições do emprego do Poder Naval às suas respectivas categorizações no contexto das atividades benignas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Poder Naval nas atividades benignas", "Relacionamento internacional de defesa", "Diplomacia Naval"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Instrumento eficaz da política externa capaz de influenciar a opinião pública.", "Atividades em que nem a violência tem parte, nem o potencial de aplicação da força é pré-requisito.", "Promove confiança mútua e cooperação, favorecendo soluções pacíficas."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os itens 5.1 e 5.2, atividades benignas não usam força (5.1), relacionamento promove confiança (5.2) e diplomacia naval influencia a opinião (5.2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as formas de emprego do Poder Naval em tempo de paz às suas respectivas características descritas no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Mostrar bandeira", "Receber visita de navios", "Diplomacia Preventiva"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Ação consentida, sem uso da força, destinada a evitar que disputas degenerem em conflitos.", "Meios navais atuam como 'embaixadores' do Brasil em portos selecionados.", "Ação de Marinhas amigas que contribui com a política externa em tempo de paz."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 5.2, mostrar bandeira usa meios como embaixadores, visitas de Marinhas amigas e Diplomacia Preventiva são formas de emprego descritas na página 60.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 60-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as operações de caráter humanitário e social às suas finalidades e meios de execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Operação Humanitária", "Ação Cívico-Social (ACISO)", "ASSHOP"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Assistência hospitalar à população ribeirinha com Navios de Assistência Hospitalar.", "Realizada em outros países para reduzir efeitos de desastres ou prestar assistência cívico-social.", "Atividades temporárias de assistência para promover o espírito cívico e resolver problemas imediatos."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os itens 5.3 e 5.4, a Operação Humanitária visa reduzir efeitos de desastres, ACISO resolve problemas imediatos e ASSHOP assiste populações ribeirinhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 61-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as convenções e termos vinculados às operações de socorro à vida humana no mar às suas definições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["SOLAS", "Convenção SAR", "SARSUB"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Torna o Brasil responsável por uma grande área marítima de socorro no Atlântico.", "Busca a submarinos e socorro às suas tripulações.", "Convenção Internacional para a Salvaguarda da Vida Humana no Mar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 5.5, SOLAS é para salvaguarda da vida, SAR define a área de socorro no Atlântico e SARSUB refere-se a submarinos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os órgãos e centros de coordenação às suas respectivas áreas de atuação e responsabilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["MRCC BRAZIL", "SALVAMAR BRASIL", "SALVAERO"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Centro de Coordenação SAR Aeronáutico responsável por incidentes com aeronaves.", "Maritime Rescue Coordination Centre (sigla em inglês do SALVAMAR).", "Serviço que coordena ou realiza atividades de busca, resgate e salvamento marítimo."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 5.5, SALVAMAR (ou MRCC BRAZIL) coordena buscas marítimas e SALVAERO coordena buscas aeronáuticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os conceitos referentes ao salvamento de bens e material às suas definições legais e técnicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Operação de Salvamento", "Função Logística Salvamento", "Intervenção da Autoridade Naval"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Independe de solicitação para prevenir danos à propriedade de terceiros ou meio ambiente.", "Atividade para assistência e salvamento de embarcação, coisa ou bem em perigo.", "Refere-se exclusivamente a material, não devendo ser confundida com atividades SAR."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os itens 5.5 e 5.6, a Operação de Salvamento visa bens, a logística salvamento visa material e a intervenção pode ser compulsória por dano ambiental (Pág 63).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 63-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe os grupos de desativação e diretorias às suas competências específicas de atuação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["GDAE aquático", "GDAE em terra", "Diretoria de Hidrografia e Navegação (DHN)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Contribui para a navegação segura por meio de cartografia e sinalização.", "Grupo ligado ao Grupamento de Mergulhadores de Combate (GRUMEC).", "Grupo ligado ao Batalhão de Engenharia de Fuzileiros Navais (BtlEngFuzNav)."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os itens 5.7 e 5.8, a desativação aquática é do GRUMEC, em terra é do BtlEngFuzNav, e a DHN provê segurança cartográfica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione os termos relativos ao controle e ensino profissional da Marinha Mercante às suas funções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["CNTM", "EPM", "Diretoria de Portos e Costas (DPC)"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Preparação técnica para pessoal da Marinha Mercante e atividades correlatas.", "Órgão central do Sistema de Ensino Profissional Marítimo.", "Procedimentos de cooperação e orientação ao tráfego de embarcações."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 5.11, o CNTM orienta o tráfego, o EPM prepara o pessoal e a DPC é o órgão central do EPM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 66-67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe as bases legais e normativas da segurança da navegação aquaviária às suas descrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["LESTA", "Normas da Autoridade Marítima (NORMAM)", "Praticagem"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Regulamentado pela Autoridade Marítima, estabelecendo zonas de uso obrigatório.", "Lei nº 9.537 de Segurança do Tráfego Aquaviário.", "Regras elaboradas pela MB para habilitação, tráfego e inspeções."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 5.12, LESTA é a lei de segurança, NORMAM são as normas da MB e a praticagem tem zonas obrigatórias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacione as políticas e programas nacionais que dizem respeito ao mar às suas finalidades principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["POLANTAR", "PNRM", "PROMAR"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Programa de Mentalidade Marítima para conscientizar a sociedade.", "Política Nacional para Assuntos Antárticos.", "Política Nacional para os Recursos do Mar."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item 5.13, POLANTAR visa a Antártica, PNRM os recursos do mar e PROMAR a mentalidade marítima (mentalidade marítima na sociedade).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 70-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associe o sistema de proteção nuclear e programas sociais da defesa às suas missões e áreas de atuação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["SIPRON", "Programa Calha Norte", "Programa Forças no Esporte"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Promoção da integração social por meio da prática esportiva.", "Sistema de Proteção ao Programa Nuclear Brasileiro.", "Atendimento a carências de comunidades com obras estruturantes em municípios do Norte."]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os itens 5.14 e 5.15, o SIPRON protege o programa nuclear, Calha Norte faz obras no norte e Forças no Esporte utiliza a prática esportiva para integração social.</t>
   </si>
 </sst>
 </file>
@@ -8266,8 +8722,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G429" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I454" activeCellId="0" sqref="I454"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A573" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B606" activeCellId="0" sqref="B606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26787,6 +27243,936 @@
       </c>
       <c r="K570" s="1"/>
     </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D571" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E571" s="0" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F571" s="0" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G571" s="0" t="s">
+        <v>2664</v>
+      </c>
+      <c r="H571" s="0" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I571" s="0" t="s">
+        <v>2666</v>
+      </c>
+      <c r="J571" s="0"/>
+      <c r="K571" s="0"/>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D572" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E572" s="0" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F572" s="0" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G572" s="0" t="s">
+        <v>2670</v>
+      </c>
+      <c r="H572" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="I572" s="0" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J572" s="0"/>
+      <c r="K572" s="0"/>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D573" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E573" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F573" s="0" t="s">
+        <v>2674</v>
+      </c>
+      <c r="G573" s="0" t="s">
+        <v>2675</v>
+      </c>
+      <c r="H573" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I573" s="0" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J573" s="0"/>
+      <c r="K573" s="0"/>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D574" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E574" s="0" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F574" s="0" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G574" s="0" t="s">
+        <v>2680</v>
+      </c>
+      <c r="H574" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I574" s="0" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J574" s="0"/>
+      <c r="K574" s="0"/>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D575" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E575" s="0" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F575" s="0" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G575" s="0" t="s">
+        <v>2685</v>
+      </c>
+      <c r="H575" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I575" s="0" t="s">
+        <v>2686</v>
+      </c>
+      <c r="J575" s="0"/>
+      <c r="K575" s="0"/>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D576" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E576" s="0" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F576" s="0" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G576" s="0" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H576" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I576" s="0" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J576" s="0"/>
+      <c r="K576" s="0"/>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D577" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E577" s="0" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F577" s="0" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G577" s="0" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H577" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I577" s="0" t="s">
+        <v>2696</v>
+      </c>
+      <c r="J577" s="0"/>
+      <c r="K577" s="0"/>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C578" s="0" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D578" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E578" s="0" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F578" s="0" t="s">
+        <v>2698</v>
+      </c>
+      <c r="G578" s="0" t="s">
+        <v>2699</v>
+      </c>
+      <c r="H578" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I578" s="0" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J578" s="0"/>
+      <c r="K578" s="0"/>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D579" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E579" s="0" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F579" s="0" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G579" s="0" t="s">
+        <v>2704</v>
+      </c>
+      <c r="H579" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I579" s="0" t="s">
+        <v>2705</v>
+      </c>
+      <c r="J579" s="0"/>
+      <c r="K579" s="0"/>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D580" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E580" s="0" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F580" s="0" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G580" s="0" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H580" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I580" s="0" t="s">
+        <v>2710</v>
+      </c>
+      <c r="J580" s="0"/>
+      <c r="K580" s="0"/>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C581" s="0" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D581" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E581" s="0" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F581" s="0" t="s">
+        <v>2714</v>
+      </c>
+      <c r="G581" s="0" t="s">
+        <v>2715</v>
+      </c>
+      <c r="H581" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I581" s="0" t="s">
+        <v>2716</v>
+      </c>
+      <c r="J581" s="0"/>
+      <c r="K581" s="0"/>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C582" s="0" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D582" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E582" s="0" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F582" s="0" t="s">
+        <v>2718</v>
+      </c>
+      <c r="G582" s="0" t="s">
+        <v>2719</v>
+      </c>
+      <c r="H582" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I582" s="0" t="s">
+        <v>2720</v>
+      </c>
+      <c r="J582" s="0"/>
+      <c r="K582" s="0"/>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C583" s="0" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D583" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E583" s="0" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F583" s="0" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G583" s="0" t="s">
+        <v>2724</v>
+      </c>
+      <c r="H583" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I583" s="0" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J583" s="0"/>
+      <c r="K583" s="0"/>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C584" s="0" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D584" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E584" s="0" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F584" s="0" t="s">
+        <v>2728</v>
+      </c>
+      <c r="G584" s="0" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H584" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I584" s="0" t="s">
+        <v>2730</v>
+      </c>
+      <c r="J584" s="0"/>
+      <c r="K584" s="0"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C585" s="0" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D585" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E585" s="0" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F585" s="0" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G585" s="0" t="s">
+        <v>2734</v>
+      </c>
+      <c r="H585" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I585" s="0" t="s">
+        <v>2735</v>
+      </c>
+      <c r="J585" s="0"/>
+      <c r="K585" s="0"/>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C586" s="0" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D586" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E586" s="0" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F586" s="0" t="s">
+        <v>2738</v>
+      </c>
+      <c r="G586" s="0" t="s">
+        <v>2739</v>
+      </c>
+      <c r="H586" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I586" s="0" t="s">
+        <v>2740</v>
+      </c>
+      <c r="J586" s="0"/>
+      <c r="K586" s="0"/>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D587" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E587" s="0" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F587" s="0" t="s">
+        <v>2742</v>
+      </c>
+      <c r="G587" s="0" t="s">
+        <v>2743</v>
+      </c>
+      <c r="H587" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I587" s="0" t="s">
+        <v>2744</v>
+      </c>
+      <c r="J587" s="0"/>
+      <c r="K587" s="0"/>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D588" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E588" s="0" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F588" s="0" t="s">
+        <v>2747</v>
+      </c>
+      <c r="G588" s="0" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H588" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I588" s="0" t="s">
+        <v>2749</v>
+      </c>
+      <c r="J588" s="0"/>
+      <c r="K588" s="0"/>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D589" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E589" s="0" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F589" s="0" t="s">
+        <v>2752</v>
+      </c>
+      <c r="G589" s="0" t="s">
+        <v>2753</v>
+      </c>
+      <c r="H589" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I589" s="0" t="s">
+        <v>2754</v>
+      </c>
+      <c r="J589" s="0"/>
+      <c r="K589" s="0"/>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C590" s="0" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D590" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E590" s="0" t="s">
+        <v>2757</v>
+      </c>
+      <c r="F590" s="0" t="s">
+        <v>2758</v>
+      </c>
+      <c r="G590" s="0" t="s">
+        <v>2759</v>
+      </c>
+      <c r="H590" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I590" s="0" t="s">
+        <v>2760</v>
+      </c>
+      <c r="J590" s="0"/>
+      <c r="K590" s="0"/>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D591" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E591" s="0" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F591" s="0" t="s">
+        <v>2763</v>
+      </c>
+      <c r="G591" s="0" t="s">
+        <v>2764</v>
+      </c>
+      <c r="H591" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I591" s="0" t="s">
+        <v>2765</v>
+      </c>
+      <c r="J591" s="0"/>
+      <c r="K591" s="0"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D592" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E592" s="0" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F592" s="0" t="s">
+        <v>2768</v>
+      </c>
+      <c r="G592" s="0" t="s">
+        <v>2769</v>
+      </c>
+      <c r="H592" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I592" s="0" t="s">
+        <v>2770</v>
+      </c>
+      <c r="J592" s="0"/>
+      <c r="K592" s="0"/>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B593" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C593" s="0" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D593" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E593" s="0" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F593" s="0" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G593" s="0" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H593" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I593" s="0" t="s">
+        <v>2775</v>
+      </c>
+      <c r="J593" s="0"/>
+      <c r="K593" s="0"/>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C594" s="0" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D594" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E594" s="0" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F594" s="0" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G594" s="0" t="s">
+        <v>2779</v>
+      </c>
+      <c r="H594" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I594" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="J594" s="0"/>
+      <c r="K594" s="0"/>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C595" s="0" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D595" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E595" s="0" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F595" s="0" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G595" s="0" t="s">
+        <v>2784</v>
+      </c>
+      <c r="H595" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I595" s="0" t="s">
+        <v>2785</v>
+      </c>
+      <c r="J595" s="0"/>
+      <c r="K595" s="0"/>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B596" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C596" s="0" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D596" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E596" s="0" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F596" s="0" t="s">
+        <v>2788</v>
+      </c>
+      <c r="G596" s="0" t="s">
+        <v>2789</v>
+      </c>
+      <c r="H596" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I596" s="0" t="s">
+        <v>2790</v>
+      </c>
+      <c r="J596" s="0"/>
+      <c r="K596" s="0"/>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B597" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C597" s="0" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D597" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E597" s="0" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F597" s="0" t="s">
+        <v>2793</v>
+      </c>
+      <c r="G597" s="0" t="s">
+        <v>2794</v>
+      </c>
+      <c r="H597" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I597" s="0" t="s">
+        <v>2795</v>
+      </c>
+      <c r="J597" s="0"/>
+      <c r="K597" s="0"/>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C598" s="0" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D598" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E598" s="0" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F598" s="0" t="s">
+        <v>2798</v>
+      </c>
+      <c r="G598" s="0" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H598" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I598" s="0" t="s">
+        <v>2800</v>
+      </c>
+      <c r="J598" s="0"/>
+      <c r="K598" s="0"/>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B599" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D599" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E599" s="0" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F599" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G599" s="0" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H599" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I599" s="0" t="s">
+        <v>2805</v>
+      </c>
+      <c r="J599" s="0"/>
+      <c r="K599" s="0"/>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B600" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C600" s="0" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D600" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E600" s="0" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F600" s="0" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G600" s="0" t="s">
+        <v>2809</v>
+      </c>
+      <c r="H600" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I600" s="0" t="s">
+        <v>2810</v>
+      </c>
+      <c r="J600" s="0"/>
+      <c r="K600" s="0"/>
+    </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
